--- a/balance_sheet.xlsx
+++ b/balance_sheet.xlsx
@@ -14,18 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
-  <si>
-    <t>KO_balance-sheet_Annual_As_Originally_Reported</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2019</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="138">
+  <si>
+    <t>AAPL_balance-sheet_Annual_As_Originally_Reported</t>
   </si>
   <si>
     <t>2020</t>
@@ -34,6 +25,15 @@
     <t>2021</t>
   </si>
   <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
     <t>Total Assets</t>
   </si>
   <si>
@@ -46,6 +46,12 @@
     <t>Cash and Cash Equivalents</t>
   </si>
   <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Cash Equivalents</t>
+  </si>
+  <si>
     <t>Short Term Investments</t>
   </si>
   <si>
@@ -55,15 +61,6 @@
     <t>Inventories</t>
   </si>
   <si>
-    <t>Raw Materials, Consumables and Supplies</t>
-  </si>
-  <si>
-    <t>Finished Goods and Merchandise</t>
-  </si>
-  <si>
-    <t>Other Inventories</t>
-  </si>
-  <si>
     <t>Trade and Other Receivables, Current</t>
   </si>
   <si>
@@ -76,10 +73,13 @@
     <t>Allowance/Adjustments for Trade/Accounts Receivable, Current</t>
   </si>
   <si>
-    <t>Prepayments and Deposits, Current</t>
-  </si>
-  <si>
-    <t>Assets Held for Sale/Discontinued Operations, Current</t>
+    <t>Other Receivables, Current</t>
+  </si>
+  <si>
+    <t>Other Current Assets</t>
+  </si>
+  <si>
+    <t>Deferred Tax Assets, Current</t>
   </si>
   <si>
     <t>Total Non-Current Assets</t>
@@ -97,13 +97,16 @@
     <t>Land and Improvements</t>
   </si>
   <si>
-    <t>Buildings and Improvements</t>
+    <t>Leasehold and Improvements</t>
   </si>
   <si>
     <t>Machinery, Furniture and Equipment</t>
   </si>
   <si>
-    <t>Construction in Progress and Advance Payments</t>
+    <t>Plant and Machinery</t>
+  </si>
+  <si>
+    <t>Leased Property, Plant and Equipment</t>
   </si>
   <si>
     <t>Accumulated Depreciation and Impairment</t>
@@ -112,6 +115,30 @@
     <t>Accumulated Depreciation</t>
   </si>
   <si>
+    <t>Total Long Term Investments</t>
+  </si>
+  <si>
+    <t>Investment in Financial Assets, Non-Current</t>
+  </si>
+  <si>
+    <t>Other Financial Assets, Non-Current</t>
+  </si>
+  <si>
+    <t>Financial Investment Securities, Available-for-Sale &amp; Held-to-Maturity, Non-Current</t>
+  </si>
+  <si>
+    <t>Available-for-Sale Securities, Non-Current</t>
+  </si>
+  <si>
+    <t>Other Investments, Non-Current</t>
+  </si>
+  <si>
+    <t>Deferred Tax Assets, Non-Current</t>
+  </si>
+  <si>
+    <t>Other Non-Current Assets</t>
+  </si>
+  <si>
     <t>Net Intangible Assets</t>
   </si>
   <si>
@@ -127,15 +154,9 @@
     <t>Trademarks and Patents</t>
   </si>
   <si>
-    <t>Customer Relationships</t>
-  </si>
-  <si>
     <t>Other Intangible Assets</t>
   </si>
   <si>
-    <t>Licenses and Rights</t>
-  </si>
-  <si>
     <t>Accumulated Amortization and Impairment</t>
   </si>
   <si>
@@ -145,33 +166,12 @@
     <t>Accumulated Amortization of Intangibles other than Goodwill</t>
   </si>
   <si>
+    <t>Accumulated Amortization of Other Intangible Assets</t>
+  </si>
+  <si>
     <t>Accumulated Amortization of Trademarks and Patents</t>
   </si>
   <si>
-    <t>Accumulated Amortization of Customer Relationships</t>
-  </si>
-  <si>
-    <t>Accumulated Amortization of Other Intangible Assets</t>
-  </si>
-  <si>
-    <t>Accumulated Amortization of Licences and Rights</t>
-  </si>
-  <si>
-    <t>Total Long Term Investments</t>
-  </si>
-  <si>
-    <t>Long Term Equity Investments</t>
-  </si>
-  <si>
-    <t>Other Investments, Non-Current</t>
-  </si>
-  <si>
-    <t>Deferred Tax Assets, Non-Current</t>
-  </si>
-  <si>
-    <t>Other Non-Current Assets</t>
-  </si>
-  <si>
     <t>Total Liabilities</t>
   </si>
   <si>
@@ -190,9 +190,6 @@
     <t>Taxes Payable, Current</t>
   </si>
   <si>
-    <t>Other Payable, Current</t>
-  </si>
-  <si>
     <t>Accrued Expenses, Current</t>
   </si>
   <si>
@@ -205,25 +202,31 @@
     <t>Current Debt</t>
   </si>
   <si>
+    <t>Commercial Paper</t>
+  </si>
+  <si>
     <t>Current Portion of Long Term Debt and Capital Lease</t>
   </si>
   <si>
     <t>Current Portion of Long Term Debt</t>
   </si>
   <si>
-    <t>Provisions, Current</t>
-  </si>
-  <si>
-    <t>Provision for Employee Entitlements, Current</t>
-  </si>
-  <si>
-    <t>Discontinued Operations Liabilities, Current</t>
-  </si>
-  <si>
-    <t>Tax Liabilities, Current</t>
-  </si>
-  <si>
-    <t>Deferred Tax Liabilities, Current</t>
+    <t>Other Current Portion of LT Debt</t>
+  </si>
+  <si>
+    <t>Bank/Institutional Loans, Current Portion of LT Debt</t>
+  </si>
+  <si>
+    <t>Capital Lease Obligations, Current</t>
+  </si>
+  <si>
+    <t>Deferred Liabilities, Current</t>
+  </si>
+  <si>
+    <t>Deferred Income/Customer Advances/Billings in Excess of Cost, Current</t>
+  </si>
+  <si>
+    <t>Other Current Liabilities</t>
   </si>
   <si>
     <t>Total Non-Current Liabilities</t>
@@ -238,13 +241,37 @@
     <t>Long Term Debt</t>
   </si>
   <si>
+    <t>Notes Payables, Non-Current</t>
+  </si>
+  <si>
+    <t>Bank/Institutional Loans, Non-Current</t>
+  </si>
+  <si>
+    <t>Capital Lease Obligations, Non-Current</t>
+  </si>
+  <si>
+    <t>Payables and Accrued Expenses, Non-Current</t>
+  </si>
+  <si>
+    <t>Trade and Other Payables, Non-Current</t>
+  </si>
+  <si>
+    <t>Taxes Payable, Non-Current</t>
+  </si>
+  <si>
+    <t>Other Non-Current Liabilities</t>
+  </si>
+  <si>
     <t>Tax Liabilities, Non-Current</t>
   </si>
   <si>
     <t>Deferred Tax Liabilities, Non-Current</t>
   </si>
   <si>
-    <t>Other Non-Current Liabilities</t>
+    <t>Deferred Liabilities, Non-Current</t>
+  </si>
+  <si>
+    <t>Deferred Income/Customer Advances/Billings in Excess of Cost, Non-Current</t>
   </si>
   <si>
     <t>Total Equity</t>
@@ -259,22 +286,13 @@
     <t>Capital Stock</t>
   </si>
   <si>
-    <t>Common Stock</t>
-  </si>
-  <si>
-    <t>Additional Paid in Capital/Share Premium</t>
-  </si>
-  <si>
-    <t>Treasury Stock</t>
-  </si>
-  <si>
     <t>Retained Earnings/Accumulated Deficit</t>
   </si>
   <si>
     <t>Reserves/Accumulated Comprehensive Income/Losses</t>
   </si>
   <si>
-    <t>Non-Controlling/Minority Interests in Equity</t>
+    <t>Other Reserves/Accum.Comp.Inc</t>
   </si>
   <si>
     <t>Debt Maturity Schedule Total</t>
@@ -283,9 +301,15 @@
     <t>Debt due in Year 1</t>
   </si>
   <si>
+    <t>Debt due in Year 2</t>
+  </si>
+  <si>
     <t>Debt due in Year 3</t>
   </si>
   <si>
+    <t>Debt due in Year 4</t>
+  </si>
+  <si>
     <t>Debt due in Year 5</t>
   </si>
   <si>
@@ -295,6 +319,30 @@
     <t>Debt - Interests Charges and Other Adjustments</t>
   </si>
   <si>
+    <t>Capital Lease Obligation Maturity Schedule Total</t>
+  </si>
+  <si>
+    <t>Capital Lease due in Year 1</t>
+  </si>
+  <si>
+    <t>Capital Lease due in Year 2</t>
+  </si>
+  <si>
+    <t>Capital Lease due in Year 3</t>
+  </si>
+  <si>
+    <t>Capital Lease due in Year 4</t>
+  </si>
+  <si>
+    <t>Capital Lease due in Year 5</t>
+  </si>
+  <si>
+    <t>Capital Lease due Beyond</t>
+  </si>
+  <si>
+    <t>Capital Lease - Interests Charges and Other Adjustments</t>
+  </si>
+  <si>
     <t>Operating Lease Obligation Maturity Schedule Total</t>
   </si>
   <si>
@@ -310,15 +358,60 @@
     <t>Operating Lease due in Year 4</t>
   </si>
   <si>
-    <t>Operating Lease due in Year 5</t>
-  </si>
-  <si>
     <t>Operating Lease due Beyond</t>
   </si>
   <si>
     <t>Operating Lease - Interests Charges and Other Adjustments</t>
   </si>
   <si>
+    <t>Total Lease Liability</t>
+  </si>
+  <si>
+    <t>Total Lease Liability - Due in year 1</t>
+  </si>
+  <si>
+    <t>Total Lease Liability - Due in year 2</t>
+  </si>
+  <si>
+    <t>Total Lease Liability - Due in year 3</t>
+  </si>
+  <si>
+    <t>Total Lease Liability - Due in year 4</t>
+  </si>
+  <si>
+    <t>Total Lease Liability - Due in year 5</t>
+  </si>
+  <si>
+    <t>Total Lease Liability - Beyond</t>
+  </si>
+  <si>
+    <t>Total Lease Liability - Interest Charges and Other Adjustments</t>
+  </si>
+  <si>
+    <t>Total Contractual Obligations</t>
+  </si>
+  <si>
+    <t>Total Contractual Obligations due in year 1</t>
+  </si>
+  <si>
+    <t>Total Contractual Obligations due in year 2</t>
+  </si>
+  <si>
+    <t>Total Contractual Obligations due in year 3</t>
+  </si>
+  <si>
+    <t>Total Contractual Obligations due in year 4</t>
+  </si>
+  <si>
+    <t>Total Contractual Obligations due in year 5</t>
+  </si>
+  <si>
+    <t>Total Contractual Obligations due Beyond</t>
+  </si>
+  <si>
+    <t>Total Contractual Obligations - Interests Charges and Other Adjustments</t>
+  </si>
+  <si>
     <t>Other Contractual Obligations Maturity Schedule Total</t>
   </si>
   <si>
@@ -334,70 +427,7 @@
     <t>Other Contractual Obligations due Beyond</t>
   </si>
   <si>
-    <t>Total Lease Liability</t>
-  </si>
-  <si>
-    <t>Total Lease Liability - Due in year 1</t>
-  </si>
-  <si>
-    <t>Total Lease Liability - Due in year 2</t>
-  </si>
-  <si>
-    <t>Total Lease Liability - Due in year 3</t>
-  </si>
-  <si>
-    <t>Total Lease Liability - Due in year 4</t>
-  </si>
-  <si>
-    <t>Total Lease Liability - Due in year 5</t>
-  </si>
-  <si>
-    <t>Total Lease Liability - Beyond</t>
-  </si>
-  <si>
-    <t>Total Lease Liability - Interest Charges and Other Adjustments</t>
-  </si>
-  <si>
-    <t>Total Contractual Obligations</t>
-  </si>
-  <si>
-    <t>Total Contractual Obligations due in year 1</t>
-  </si>
-  <si>
-    <t>Total Contractual Obligations due in year 2</t>
-  </si>
-  <si>
-    <t>Total Contractual Obligations due in year 3</t>
-  </si>
-  <si>
-    <t>Total Contractual Obligations due in year 4</t>
-  </si>
-  <si>
-    <t>Total Contractual Obligations due in year 5</t>
-  </si>
-  <si>
-    <t>Total Contractual Obligations due Beyond</t>
-  </si>
-  <si>
-    <t>Total Contractual Obligations - Interests Charges and Other Adjustments</t>
-  </si>
-  <si>
-    <t>Capital Lease Obligation Maturity Schedule Total</t>
-  </si>
-  <si>
-    <t>Capital Lease due in Year 1</t>
-  </si>
-  <si>
-    <t>Capital Lease due in Year 3</t>
-  </si>
-  <si>
-    <t>Capital Lease due in Year 5</t>
-  </si>
-  <si>
-    <t>Capital Lease due Beyond</t>
-  </si>
-  <si>
-    <t>Fiscal year ends in Dec 31 | USD</t>
+    <t>Fiscal year ends in Sep 30 | USD</t>
   </si>
 </sst>
 </file>
@@ -755,7 +785,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F123"/>
+  <dimension ref="A1:F134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -786,19 +816,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>87896000000</v>
+        <v>323888000000</v>
       </c>
       <c r="C2">
-        <v>83216000000</v>
+        <v>351002000000</v>
       </c>
       <c r="D2">
-        <v>86381000000</v>
+        <v>352755000000</v>
       </c>
       <c r="E2">
-        <v>87296000000</v>
+        <v>352583000000</v>
       </c>
       <c r="F2">
-        <v>94354000000</v>
+        <v>364980000000</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -806,19 +836,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>36545000000</v>
+        <v>143713000000</v>
       </c>
       <c r="C3">
-        <v>30634000000</v>
+        <v>134836000000</v>
       </c>
       <c r="D3">
-        <v>20411000000</v>
+        <v>135405000000</v>
       </c>
       <c r="E3">
-        <v>19240000000</v>
+        <v>143566000000</v>
       </c>
       <c r="F3">
-        <v>22545000000</v>
+        <v>152987000000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -826,19 +856,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>20675000000</v>
+        <v>90943000000</v>
       </c>
       <c r="C4">
-        <v>15964000000</v>
+        <v>62639000000</v>
       </c>
       <c r="D4">
-        <v>11175000000</v>
+        <v>48304000000</v>
       </c>
       <c r="E4">
-        <v>10914000000</v>
+        <v>61555000000</v>
       </c>
       <c r="F4">
-        <v>12625000000</v>
+        <v>65171000000</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -846,19 +876,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>6006000000</v>
+        <v>38016000000</v>
       </c>
       <c r="C5">
-        <v>8926000000</v>
+        <v>34940000000</v>
       </c>
       <c r="D5">
-        <v>6480000000</v>
+        <v>23646000000</v>
       </c>
       <c r="E5">
-        <v>6795000000</v>
+        <v>29965000000</v>
       </c>
       <c r="F5">
-        <v>9684000000</v>
+        <v>29943000000</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -866,19 +896,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>14669000000</v>
+        <v>17773000000</v>
       </c>
       <c r="C6">
-        <v>7038000000</v>
+        <v>17305000000</v>
       </c>
       <c r="D6">
-        <v>4695000000</v>
+        <v>18546000000</v>
       </c>
       <c r="E6">
-        <v>4119000000</v>
+        <v>28359000000</v>
       </c>
       <c r="F6">
-        <v>2941000000</v>
+        <v>27199000000</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -886,19 +916,19 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>14669000000</v>
+        <v>20243000000</v>
       </c>
       <c r="C7">
-        <v>7038000000</v>
+        <v>17635000000</v>
       </c>
       <c r="D7">
-        <v>4695000000</v>
+        <v>5100000000</v>
       </c>
       <c r="E7">
-        <v>4119000000</v>
+        <v>1606000000</v>
       </c>
       <c r="F7">
-        <v>2941000000</v>
+        <v>2744000000</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -906,19 +936,19 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>2655000000</v>
+        <v>52927000000</v>
       </c>
       <c r="C8">
-        <v>2766000000</v>
+        <v>27699000000</v>
       </c>
       <c r="D8">
-        <v>3379000000</v>
+        <v>24658000000</v>
       </c>
       <c r="E8">
-        <v>3266000000</v>
+        <v>31590000000</v>
       </c>
       <c r="F8">
-        <v>3414000000</v>
+        <v>35228000000</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -926,19 +956,19 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>1729000000</v>
+        <v>52927000000</v>
       </c>
       <c r="C9">
-        <v>1862000000</v>
+        <v>27699000000</v>
       </c>
       <c r="D9">
-        <v>2180000000</v>
+        <v>24658000000</v>
       </c>
       <c r="E9">
-        <v>2106000000</v>
+        <v>31590000000</v>
       </c>
       <c r="F9">
-        <v>2133000000</v>
+        <v>35228000000</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -946,19 +976,19 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>693000000</v>
+        <v>4061000000</v>
       </c>
       <c r="C10">
-        <v>692000000</v>
+        <v>6580000000</v>
       </c>
       <c r="D10">
-        <v>851000000</v>
+        <v>4946000000</v>
       </c>
       <c r="E10">
-        <v>791000000</v>
+        <v>6331000000</v>
       </c>
       <c r="F10">
-        <v>982000000</v>
+        <v>7286000000</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -966,19 +996,19 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>233000000</v>
+        <v>37445000000</v>
       </c>
       <c r="C11">
-        <v>212000000</v>
+        <v>51506000000</v>
       </c>
       <c r="D11">
-        <v>348000000</v>
+        <v>60932000000</v>
       </c>
       <c r="E11">
-        <v>369000000</v>
+        <v>60985000000</v>
       </c>
       <c r="F11">
-        <v>299000000</v>
+        <v>66243000000</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -986,79 +1016,49 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>3667000000</v>
+        <v>16120000000</v>
       </c>
       <c r="C12">
-        <v>3396000000</v>
+        <v>26278000000</v>
       </c>
       <c r="D12">
-        <v>3971000000</v>
+        <v>28184000000</v>
       </c>
       <c r="E12">
-        <v>3144000000</v>
+        <v>29508000000</v>
       </c>
       <c r="F12">
-        <v>3512000000</v>
+        <v>33410000000</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B13">
-        <v>3667000000</v>
-      </c>
-      <c r="C13">
-        <v>3396000000</v>
-      </c>
-      <c r="D13">
-        <v>3971000000</v>
-      </c>
-      <c r="E13">
-        <v>3144000000</v>
-      </c>
-      <c r="F13">
-        <v>3512000000</v>
-      </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="B14">
-        <v>4144000000</v>
-      </c>
-      <c r="C14">
-        <v>3885000000</v>
-      </c>
-      <c r="D14">
-        <v>4495000000</v>
-      </c>
-      <c r="E14">
-        <v>3670000000</v>
-      </c>
-      <c r="F14">
-        <v>4028000000</v>
-      </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>19</v>
       </c>
       <c r="B15">
-        <v>-477000000</v>
+        <v>21325000000</v>
       </c>
       <c r="C15">
-        <v>-489000000</v>
+        <v>25228000000</v>
       </c>
       <c r="D15">
-        <v>-524000000</v>
+        <v>32748000000</v>
       </c>
       <c r="E15">
-        <v>-526000000</v>
+        <v>31477000000</v>
       </c>
       <c r="F15">
-        <v>-516000000</v>
+        <v>32833000000</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1066,50 +1066,44 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>2000000000</v>
+        <v>11264000000</v>
       </c>
       <c r="C16">
-        <v>1962000000</v>
+        <v>14111000000</v>
       </c>
       <c r="D16">
-        <v>1886000000</v>
+        <v>21223000000</v>
       </c>
       <c r="E16">
-        <v>1916000000</v>
+        <v>14695000000</v>
       </c>
       <c r="F16">
-        <v>2994000000</v>
+        <v>14287000000</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>21</v>
       </c>
-      <c r="B17">
-        <v>7548000000</v>
-      </c>
-      <c r="C17">
-        <v>6546000000</v>
-      </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>22</v>
       </c>
       <c r="B18">
-        <v>51351000000</v>
+        <v>180175000000</v>
       </c>
       <c r="C18">
-        <v>52582000000</v>
+        <v>216166000000</v>
       </c>
       <c r="D18">
-        <v>65970000000</v>
+        <v>217350000000</v>
       </c>
       <c r="E18">
-        <v>68056000000</v>
+        <v>209017000000</v>
       </c>
       <c r="F18">
-        <v>71809000000</v>
+        <v>211993000000</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1117,19 +1111,19 @@
         <v>23</v>
       </c>
       <c r="B19">
-        <v>8203000000</v>
+        <v>45336000000</v>
       </c>
       <c r="C19">
-        <v>8232000000</v>
+        <v>49527000000</v>
       </c>
       <c r="D19">
-        <v>10838000000</v>
+        <v>52534000000</v>
       </c>
       <c r="E19">
-        <v>10777000000</v>
+        <v>43715000000</v>
       </c>
       <c r="F19">
-        <v>9920000000</v>
+        <v>45680000000</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1137,19 +1131,19 @@
         <v>24</v>
       </c>
       <c r="B20">
-        <v>16449000000</v>
+        <v>112096000000</v>
       </c>
       <c r="C20">
-        <v>16245000000</v>
+        <v>119810000000</v>
       </c>
       <c r="D20">
-        <v>18921000000</v>
+        <v>124874000000</v>
       </c>
       <c r="E20">
-        <v>19700000000</v>
+        <v>114599000000</v>
       </c>
       <c r="F20">
-        <v>18862000000</v>
+        <v>119128000000</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1157,19 +1151,19 @@
         <v>25</v>
       </c>
       <c r="B21">
-        <v>4251000000</v>
+        <v>28235000000</v>
       </c>
       <c r="C21">
-        <v>4323000000</v>
+        <v>31064000000</v>
       </c>
       <c r="D21">
-        <v>5235000000</v>
+        <v>33397000000</v>
       </c>
       <c r="E21">
-        <v>5458000000</v>
+        <v>36285000000</v>
       </c>
       <c r="F21">
-        <v>5001000000</v>
+        <v>38923000000</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1177,19 +1171,19 @@
         <v>26</v>
       </c>
       <c r="B22">
-        <v>334000000</v>
+        <v>17952000000</v>
       </c>
       <c r="C22">
-        <v>485000000</v>
+        <v>20041000000</v>
       </c>
       <c r="D22">
-        <v>659000000</v>
+        <v>22126000000</v>
       </c>
       <c r="E22">
-        <v>676000000</v>
+        <v>23446000000</v>
       </c>
       <c r="F22">
-        <v>652000000</v>
+        <v>24690000000</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1197,19 +1191,19 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>3917000000</v>
+        <v>10283000000</v>
       </c>
       <c r="C23">
-        <v>3838000000</v>
+        <v>11023000000</v>
       </c>
       <c r="D23">
-        <v>4576000000</v>
+        <v>11271000000</v>
       </c>
       <c r="E23">
-        <v>4782000000</v>
+        <v>12839000000</v>
       </c>
       <c r="F23">
-        <v>4349000000</v>
+        <v>14233000000</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1217,44 +1211,53 @@
         <v>28</v>
       </c>
       <c r="B24">
-        <v>12198000000</v>
+        <v>75291000000</v>
       </c>
       <c r="C24">
-        <v>11922000000</v>
+        <v>78659000000</v>
       </c>
       <c r="D24">
-        <v>13686000000</v>
+        <v>81060000000</v>
       </c>
       <c r="E24">
-        <v>14242000000</v>
+        <v>78314000000</v>
       </c>
       <c r="F24">
-        <v>13861000000</v>
+        <v>80205000000</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>29</v>
       </c>
+      <c r="B25">
+        <v>75291000000</v>
+      </c>
+      <c r="C25">
+        <v>78659000000</v>
+      </c>
+      <c r="D25">
+        <v>81060000000</v>
+      </c>
+      <c r="E25">
+        <v>78314000000</v>
+      </c>
+      <c r="F25">
+        <v>80205000000</v>
+      </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>30</v>
       </c>
       <c r="B26">
-        <v>-8246000000</v>
+        <v>8570000000</v>
       </c>
       <c r="C26">
-        <v>-8013000000</v>
+        <v>10087000000</v>
       </c>
       <c r="D26">
-        <v>-8083000000</v>
-      </c>
-      <c r="E26">
-        <v>-8923000000</v>
-      </c>
-      <c r="F26">
-        <v>-8942000000</v>
+        <v>10417000000</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1262,19 +1265,19 @@
         <v>31</v>
       </c>
       <c r="B27">
-        <v>-8246000000</v>
+        <v>-66760000000</v>
       </c>
       <c r="C27">
-        <v>-8013000000</v>
+        <v>-70283000000</v>
       </c>
       <c r="D27">
-        <v>-8083000000</v>
+        <v>-72340000000</v>
       </c>
       <c r="E27">
-        <v>-8923000000</v>
+        <v>-70884000000</v>
       </c>
       <c r="F27">
-        <v>-8942000000</v>
+        <v>-73448000000</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1282,19 +1285,19 @@
         <v>32</v>
       </c>
       <c r="B28">
-        <v>16636000000</v>
+        <v>-66760000000</v>
       </c>
       <c r="C28">
-        <v>17270000000</v>
+        <v>-70283000000</v>
       </c>
       <c r="D28">
-        <v>26766000000</v>
+        <v>-72340000000</v>
       </c>
       <c r="E28">
-        <v>28550000000</v>
+        <v>-70884000000</v>
       </c>
       <c r="F28">
-        <v>34613000000</v>
+        <v>-73448000000</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1302,99 +1305,60 @@
         <v>33</v>
       </c>
       <c r="B29">
-        <v>17068000000</v>
+        <v>100887000000</v>
       </c>
       <c r="C29">
-        <v>17591000000</v>
+        <v>127877000000</v>
       </c>
       <c r="D29">
-        <v>27166000000</v>
+        <v>120805000000</v>
       </c>
       <c r="E29">
-        <v>28898000000</v>
+        <v>100544000000</v>
       </c>
       <c r="F29">
-        <v>34837000000</v>
+        <v>91479000000</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>34</v>
       </c>
-      <c r="B30">
-        <v>9401000000</v>
-      </c>
-      <c r="C30">
-        <v>10263000000</v>
-      </c>
       <c r="D30">
-        <v>16764000000</v>
+        <v>120805000000</v>
       </c>
       <c r="E30">
-        <v>17506000000</v>
+        <v>100544000000</v>
       </c>
       <c r="F30">
-        <v>19363000000</v>
+        <v>91479000000</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>35</v>
       </c>
-      <c r="B31">
-        <v>7667000000</v>
-      </c>
-      <c r="C31">
-        <v>7328000000</v>
-      </c>
       <c r="D31">
-        <v>10402000000</v>
-      </c>
-      <c r="E31">
-        <v>11392000000</v>
+        <v>120805000000</v>
       </c>
       <c r="F31">
-        <v>15474000000</v>
+        <v>91479000000</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>36</v>
       </c>
-      <c r="B32">
-        <v>6911000000</v>
-      </c>
-      <c r="C32">
-        <v>6868000000</v>
-      </c>
-      <c r="D32">
-        <v>9443000000</v>
-      </c>
       <c r="E32">
-        <v>10640000000</v>
-      </c>
-      <c r="F32">
-        <v>14654000000</v>
+        <v>100544000000</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>37</v>
       </c>
-      <c r="B33">
-        <v>205000000</v>
-      </c>
-      <c r="C33">
-        <v>185000000</v>
-      </c>
-      <c r="D33">
-        <v>344000000</v>
-      </c>
       <c r="E33">
-        <v>195000000</v>
-      </c>
-      <c r="F33">
-        <v>336000000</v>
+        <v>100544000000</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1402,33 +1366,21 @@
         <v>38</v>
       </c>
       <c r="B34">
-        <v>200000000</v>
+        <v>100887000000</v>
       </c>
       <c r="C34">
-        <v>194000000</v>
-      </c>
-      <c r="D34">
-        <v>165000000</v>
-      </c>
-      <c r="E34">
-        <v>557000000</v>
-      </c>
-      <c r="F34">
-        <v>484000000</v>
+        <v>127877000000</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>39</v>
       </c>
-      <c r="B35">
-        <v>351000000</v>
-      </c>
-      <c r="C35">
-        <v>81000000</v>
-      </c>
-      <c r="D35">
-        <v>450000000</v>
+      <c r="E35">
+        <v>17852000000</v>
+      </c>
+      <c r="F35">
+        <v>19499000000</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1436,250 +1388,94 @@
         <v>40</v>
       </c>
       <c r="B36">
-        <v>-432000000</v>
+        <v>33952000000</v>
       </c>
       <c r="C36">
-        <v>-321000000</v>
+        <v>38762000000</v>
       </c>
       <c r="D36">
-        <v>-400000000</v>
+        <v>44011000000</v>
       </c>
       <c r="E36">
-        <v>-348000000</v>
+        <v>46906000000</v>
       </c>
       <c r="F36">
-        <v>-224000000</v>
+        <v>55335000000</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>41</v>
       </c>
-      <c r="B37">
-        <v>-432000000</v>
-      </c>
-      <c r="C37">
-        <v>-321000000</v>
-      </c>
-      <c r="D37">
-        <v>-400000000</v>
-      </c>
-      <c r="E37">
-        <v>-348000000</v>
-      </c>
-      <c r="F37">
-        <v>-224000000</v>
-      </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>42</v>
       </c>
-      <c r="B38">
-        <v>-432000000</v>
-      </c>
-      <c r="C38">
-        <v>-321000000</v>
-      </c>
-      <c r="D38">
-        <v>-400000000</v>
-      </c>
-      <c r="E38">
-        <v>-348000000</v>
-      </c>
-      <c r="F38">
-        <v>-224000000</v>
-      </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>43</v>
       </c>
-      <c r="B39">
-        <v>-73000000</v>
-      </c>
-      <c r="C39">
-        <v>-91000000</v>
-      </c>
-      <c r="D39">
-        <v>-99000000</v>
-      </c>
-      <c r="E39">
-        <v>-77000000</v>
-      </c>
-      <c r="F39">
-        <v>-87000000</v>
-      </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>44</v>
       </c>
-      <c r="B40">
-        <v>-143000000</v>
-      </c>
-      <c r="C40">
-        <v>-151000000</v>
-      </c>
-      <c r="D40">
-        <v>-177000000</v>
-      </c>
-      <c r="E40">
-        <v>-61000000</v>
-      </c>
-      <c r="F40">
-        <v>-86000000</v>
-      </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>45</v>
       </c>
-      <c r="B41">
-        <v>-64000000</v>
-      </c>
-      <c r="C41">
-        <v>-61000000</v>
-      </c>
-      <c r="D41">
-        <v>-30000000</v>
-      </c>
-      <c r="E41">
-        <v>-210000000</v>
-      </c>
-      <c r="F41">
-        <v>-51000000</v>
-      </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>46</v>
       </c>
-      <c r="B42">
-        <v>-152000000</v>
-      </c>
-      <c r="C42">
-        <v>-18000000</v>
-      </c>
-      <c r="D42">
-        <v>-94000000</v>
-      </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>47</v>
       </c>
-      <c r="B43">
-        <v>21952000000</v>
-      </c>
-      <c r="C43">
-        <v>20274000000</v>
-      </c>
-      <c r="D43">
-        <v>19879000000</v>
-      </c>
-      <c r="E43">
-        <v>20085000000</v>
-      </c>
-      <c r="F43">
-        <v>18416000000</v>
-      </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>48</v>
       </c>
-      <c r="B44">
-        <v>20856000000</v>
-      </c>
-      <c r="C44">
-        <v>19407000000</v>
-      </c>
-      <c r="D44">
-        <v>19025000000</v>
-      </c>
-      <c r="E44">
-        <v>19273000000</v>
-      </c>
-      <c r="F44">
-        <v>17598000000</v>
-      </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>49</v>
       </c>
-      <c r="B45">
-        <v>1096000000</v>
-      </c>
-      <c r="C45">
-        <v>867000000</v>
-      </c>
-      <c r="D45">
-        <v>854000000</v>
-      </c>
-      <c r="E45">
-        <v>812000000</v>
-      </c>
-      <c r="F45">
-        <v>818000000</v>
-      </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>50</v>
       </c>
-      <c r="C46">
-        <v>2667000000</v>
-      </c>
-      <c r="D46">
-        <v>2412000000</v>
-      </c>
-      <c r="E46">
-        <v>2460000000</v>
-      </c>
-      <c r="F46">
-        <v>2129000000</v>
-      </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>51</v>
       </c>
-      <c r="B47">
-        <v>4560000000</v>
-      </c>
-      <c r="C47">
-        <v>4139000000</v>
-      </c>
-      <c r="D47">
-        <v>6075000000</v>
-      </c>
-      <c r="E47">
-        <v>6184000000</v>
-      </c>
-      <c r="F47">
-        <v>6731000000</v>
-      </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>52</v>
       </c>
       <c r="B48">
-        <v>68919000000</v>
+        <v>258549000000</v>
       </c>
       <c r="C48">
-        <v>64158000000</v>
+        <v>287912000000</v>
       </c>
       <c r="D48">
-        <v>65283000000</v>
+        <v>302083000000</v>
       </c>
       <c r="E48">
-        <v>66012000000</v>
+        <v>290437000000</v>
       </c>
       <c r="F48">
-        <v>69494000000</v>
+        <v>308030000000</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1687,19 +1483,19 @@
         <v>53</v>
       </c>
       <c r="B49">
-        <v>27194000000</v>
+        <v>105392000000</v>
       </c>
       <c r="C49">
-        <v>29223000000</v>
+        <v>125481000000</v>
       </c>
       <c r="D49">
-        <v>26973000000</v>
+        <v>153982000000</v>
       </c>
       <c r="E49">
-        <v>14601000000</v>
+        <v>145308000000</v>
       </c>
       <c r="F49">
-        <v>19950000000</v>
+        <v>176392000000</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1707,19 +1503,19 @@
         <v>54</v>
       </c>
       <c r="B50">
-        <v>8304000000</v>
+        <v>42296000000</v>
       </c>
       <c r="C50">
-        <v>8416000000</v>
+        <v>54763000000</v>
       </c>
       <c r="D50">
-        <v>10705000000</v>
+        <v>64115000000</v>
       </c>
       <c r="E50">
-        <v>11324000000</v>
+        <v>71430000000</v>
       </c>
       <c r="F50">
-        <v>14254000000</v>
+        <v>95561000000</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1727,19 +1523,19 @@
         <v>55</v>
       </c>
       <c r="B51">
-        <v>3045000000</v>
+        <v>42296000000</v>
       </c>
       <c r="C51">
-        <v>3191000000</v>
+        <v>54763000000</v>
       </c>
       <c r="D51">
-        <v>4660000000</v>
+        <v>64115000000</v>
       </c>
       <c r="E51">
-        <v>5885000000</v>
+        <v>71430000000</v>
       </c>
       <c r="F51">
-        <v>6406000000</v>
+        <v>95561000000</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1747,70 +1543,55 @@
         <v>56</v>
       </c>
       <c r="B52">
-        <v>2288000000</v>
+        <v>42296000000</v>
       </c>
       <c r="C52">
-        <v>2498000000</v>
+        <v>54763000000</v>
       </c>
       <c r="D52">
-        <v>3804000000</v>
+        <v>64115000000</v>
       </c>
       <c r="E52">
-        <v>3517000000</v>
+        <v>62611000000</v>
       </c>
       <c r="F52">
-        <v>4602000000</v>
+        <v>68960000000</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>57</v>
       </c>
-      <c r="B53">
-        <v>757000000</v>
-      </c>
-      <c r="C53">
-        <v>693000000</v>
-      </c>
-      <c r="D53">
-        <v>856000000</v>
-      </c>
       <c r="E53">
-        <v>1231000000</v>
+        <v>8819000000</v>
       </c>
       <c r="F53">
-        <v>686000000</v>
+        <v>26601000000</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>58</v>
       </c>
-      <c r="E54">
-        <v>1137000000</v>
-      </c>
-      <c r="F54">
-        <v>1118000000</v>
-      </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>59</v>
       </c>
       <c r="B55">
-        <v>5259000000</v>
+        <v>15229000000</v>
       </c>
       <c r="C55">
-        <v>5225000000</v>
+        <v>17141000000</v>
       </c>
       <c r="D55">
-        <v>6045000000</v>
+        <v>22773000000</v>
       </c>
       <c r="E55">
-        <v>5439000000</v>
+        <v>17382000000</v>
       </c>
       <c r="F55">
-        <v>7848000000</v>
+        <v>20879000000</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1818,19 +1599,19 @@
         <v>60</v>
       </c>
       <c r="B56">
-        <v>16503000000</v>
+        <v>15229000000</v>
       </c>
       <c r="C56">
-        <v>18191000000</v>
+        <v>17141000000</v>
       </c>
       <c r="D56">
-        <v>15247000000</v>
+        <v>22773000000</v>
       </c>
       <c r="E56">
-        <v>2668000000</v>
+        <v>17382000000</v>
       </c>
       <c r="F56">
-        <v>4645000000</v>
+        <v>20879000000</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1838,19 +1619,19 @@
         <v>61</v>
       </c>
       <c r="B57">
-        <v>16503000000</v>
+        <v>4996000000</v>
       </c>
       <c r="C57">
-        <v>18191000000</v>
+        <v>6000000000</v>
       </c>
       <c r="D57">
-        <v>15247000000</v>
+        <v>9982000000</v>
       </c>
       <c r="E57">
-        <v>2668000000</v>
+        <v>5985000000</v>
       </c>
       <c r="F57">
-        <v>4645000000</v>
+        <v>9967000000</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1858,19 +1639,19 @@
         <v>62</v>
       </c>
       <c r="B58">
-        <v>13205000000</v>
+        <v>4996000000</v>
       </c>
       <c r="C58">
-        <v>13194000000</v>
+        <v>6000000000</v>
       </c>
       <c r="D58">
-        <v>10994000000</v>
+        <v>9982000000</v>
       </c>
       <c r="E58">
-        <v>2183000000</v>
+        <v>5985000000</v>
       </c>
       <c r="F58">
-        <v>3307000000</v>
+        <v>9967000000</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1878,19 +1659,19 @@
         <v>63</v>
       </c>
       <c r="B59">
-        <v>3298000000</v>
+        <v>10233000000</v>
       </c>
       <c r="C59">
-        <v>4997000000</v>
+        <v>11141000000</v>
       </c>
       <c r="D59">
-        <v>4253000000</v>
+        <v>12791000000</v>
       </c>
       <c r="E59">
-        <v>485000000</v>
+        <v>11397000000</v>
       </c>
       <c r="F59">
-        <v>1338000000</v>
+        <v>10912000000</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1898,39 +1679,36 @@
         <v>64</v>
       </c>
       <c r="B60">
-        <v>3298000000</v>
+        <v>8773000000</v>
       </c>
       <c r="C60">
-        <v>4997000000</v>
+        <v>9613000000</v>
       </c>
       <c r="D60">
-        <v>4253000000</v>
+        <v>11128000000</v>
       </c>
       <c r="E60">
-        <v>485000000</v>
+        <v>9822000000</v>
       </c>
       <c r="F60">
-        <v>1338000000</v>
+        <v>10912000000</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>65</v>
       </c>
-      <c r="B61">
-        <v>854000000</v>
-      </c>
       <c r="C61">
-        <v>894000000</v>
+        <v>9613000000</v>
       </c>
       <c r="D61">
-        <v>1021000000</v>
+        <v>11128000000</v>
       </c>
       <c r="E61">
-        <v>609000000</v>
+        <v>9822000000</v>
       </c>
       <c r="F61">
-        <v>1051000000</v>
+        <v>10912000000</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1938,19 +1716,7 @@
         <v>66</v>
       </c>
       <c r="B62">
-        <v>854000000</v>
-      </c>
-      <c r="C62">
-        <v>894000000</v>
-      </c>
-      <c r="D62">
-        <v>1021000000</v>
-      </c>
-      <c r="E62">
-        <v>609000000</v>
-      </c>
-      <c r="F62">
-        <v>1051000000</v>
+        <v>8773000000</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1958,10 +1724,16 @@
         <v>67</v>
       </c>
       <c r="B63">
-        <v>1533000000</v>
+        <v>1460000000</v>
       </c>
       <c r="C63">
-        <v>1722000000</v>
+        <v>1528000000</v>
+      </c>
+      <c r="D63">
+        <v>1663000000</v>
+      </c>
+      <c r="E63">
+        <v>1575000000</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1969,7 +1741,19 @@
         <v>68</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>6643000000</v>
+      </c>
+      <c r="C64">
+        <v>7612000000</v>
+      </c>
+      <c r="D64">
+        <v>7912000000</v>
+      </c>
+      <c r="E64">
+        <v>8061000000</v>
+      </c>
+      <c r="F64">
+        <v>8249000000</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1977,7 +1761,19 @@
         <v>69</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>6643000000</v>
+      </c>
+      <c r="C65">
+        <v>7612000000</v>
+      </c>
+      <c r="D65">
+        <v>7912000000</v>
+      </c>
+      <c r="E65">
+        <v>8061000000</v>
+      </c>
+      <c r="F65">
+        <v>8249000000</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1985,19 +1781,19 @@
         <v>70</v>
       </c>
       <c r="B66">
-        <v>41725000000</v>
+        <v>41224000000</v>
       </c>
       <c r="C66">
-        <v>34935000000</v>
+        <v>45965000000</v>
       </c>
       <c r="D66">
-        <v>38310000000</v>
+        <v>59182000000</v>
       </c>
       <c r="E66">
-        <v>51411000000</v>
+        <v>48435000000</v>
       </c>
       <c r="F66">
-        <v>49544000000</v>
+        <v>51703000000</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2005,19 +1801,19 @@
         <v>71</v>
       </c>
       <c r="B67">
-        <v>31182000000</v>
+        <v>153157000000</v>
       </c>
       <c r="C67">
-        <v>25364000000</v>
+        <v>162431000000</v>
       </c>
       <c r="D67">
-        <v>27516000000</v>
+        <v>148101000000</v>
       </c>
       <c r="E67">
-        <v>40125000000</v>
+        <v>145129000000</v>
       </c>
       <c r="F67">
-        <v>38116000000</v>
+        <v>131638000000</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2025,19 +1821,19 @@
         <v>72</v>
       </c>
       <c r="B68">
-        <v>31182000000</v>
+        <v>107049000000</v>
       </c>
       <c r="C68">
-        <v>25364000000</v>
+        <v>119381000000</v>
       </c>
       <c r="D68">
-        <v>27516000000</v>
+        <v>109707000000</v>
       </c>
       <c r="E68">
-        <v>40125000000</v>
+        <v>106548000000</v>
       </c>
       <c r="F68">
-        <v>38116000000</v>
+        <v>85750000000</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2045,19 +1841,19 @@
         <v>73</v>
       </c>
       <c r="B69">
-        <v>31182000000</v>
+        <v>107049000000</v>
       </c>
       <c r="C69">
-        <v>25364000000</v>
+        <v>119381000000</v>
       </c>
       <c r="D69">
-        <v>27516000000</v>
+        <v>109707000000</v>
       </c>
       <c r="E69">
-        <v>40125000000</v>
+        <v>106548000000</v>
       </c>
       <c r="F69">
-        <v>38116000000</v>
+        <v>85750000000</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2065,39 +1861,36 @@
         <v>74</v>
       </c>
       <c r="B70">
-        <v>2522000000</v>
+        <v>98667000000</v>
       </c>
       <c r="C70">
-        <v>1933000000</v>
+        <v>109106000000</v>
       </c>
       <c r="D70">
-        <v>2284000000</v>
+        <v>98959000000</v>
       </c>
       <c r="E70">
-        <v>1833000000</v>
+        <v>95281000000</v>
       </c>
       <c r="F70">
-        <v>2821000000</v>
+        <v>85750000000</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>75</v>
       </c>
-      <c r="B71">
-        <v>2522000000</v>
-      </c>
       <c r="C71">
-        <v>1933000000</v>
+        <v>109106000000</v>
       </c>
       <c r="D71">
-        <v>2284000000</v>
+        <v>98959000000</v>
       </c>
       <c r="E71">
-        <v>1833000000</v>
+        <v>95281000000</v>
       </c>
       <c r="F71">
-        <v>2821000000</v>
+        <v>85750000000</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2105,19 +1898,7 @@
         <v>76</v>
       </c>
       <c r="B72">
-        <v>8021000000</v>
-      </c>
-      <c r="C72">
-        <v>7638000000</v>
-      </c>
-      <c r="D72">
-        <v>8510000000</v>
-      </c>
-      <c r="E72">
-        <v>9453000000</v>
-      </c>
-      <c r="F72">
-        <v>8607000000</v>
+        <v>98667000000</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2125,19 +1906,16 @@
         <v>77</v>
       </c>
       <c r="B73">
-        <v>18977000000</v>
+        <v>8382000000</v>
       </c>
       <c r="C73">
-        <v>19058000000</v>
+        <v>10275000000</v>
       </c>
       <c r="D73">
-        <v>21098000000</v>
+        <v>10748000000</v>
       </c>
       <c r="E73">
-        <v>21284000000</v>
-      </c>
-      <c r="F73">
-        <v>24860000000</v>
+        <v>11267000000</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2145,19 +1923,19 @@
         <v>78</v>
       </c>
       <c r="B74">
-        <v>17072000000</v>
+        <v>28170000000</v>
       </c>
       <c r="C74">
-        <v>16981000000</v>
+        <v>24689000000</v>
       </c>
       <c r="D74">
-        <v>18981000000</v>
+        <v>16657000000</v>
       </c>
       <c r="E74">
-        <v>19299000000</v>
+        <v>15457000000</v>
       </c>
       <c r="F74">
-        <v>22999000000</v>
+        <v>9254000000</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2165,19 +1943,19 @@
         <v>79</v>
       </c>
       <c r="B75">
-        <v>-33053000000</v>
+        <v>28170000000</v>
       </c>
       <c r="C75">
-        <v>-33439000000</v>
+        <v>24689000000</v>
       </c>
       <c r="D75">
-        <v>-33330000000</v>
+        <v>16657000000</v>
       </c>
       <c r="E75">
-        <v>-32655000000</v>
+        <v>15457000000</v>
       </c>
       <c r="F75">
-        <v>-31765000000</v>
+        <v>9254000000</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2185,19 +1963,19 @@
         <v>80</v>
       </c>
       <c r="B76">
-        <v>17624000000</v>
+        <v>28170000000</v>
       </c>
       <c r="C76">
-        <v>18280000000</v>
+        <v>24689000000</v>
       </c>
       <c r="D76">
-        <v>18914000000</v>
+        <v>16657000000</v>
       </c>
       <c r="E76">
-        <v>19361000000</v>
+        <v>15457000000</v>
       </c>
       <c r="F76">
-        <v>19876000000</v>
+        <v>9254000000</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2205,119 +1983,59 @@
         <v>81</v>
       </c>
       <c r="B77">
-        <v>1760000000</v>
+        <v>17938000000</v>
       </c>
       <c r="C77">
-        <v>1760000000</v>
+        <v>18361000000</v>
       </c>
       <c r="D77">
-        <v>1760000000</v>
+        <v>21737000000</v>
       </c>
       <c r="E77">
-        <v>1760000000</v>
+        <v>23124000000</v>
       </c>
       <c r="F77">
-        <v>1760000000</v>
+        <v>36634000000</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
         <v>82</v>
       </c>
-      <c r="B78">
-        <v>15864000000</v>
-      </c>
-      <c r="C78">
-        <v>16520000000</v>
-      </c>
-      <c r="D78">
-        <v>17154000000</v>
-      </c>
-      <c r="E78">
-        <v>17601000000</v>
-      </c>
-      <c r="F78">
-        <v>18116000000</v>
-      </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
         <v>83</v>
       </c>
-      <c r="B79">
-        <v>-50677000000</v>
-      </c>
-      <c r="C79">
-        <v>-51719000000</v>
-      </c>
-      <c r="D79">
-        <v>-52244000000</v>
-      </c>
-      <c r="E79">
-        <v>-52016000000</v>
-      </c>
-      <c r="F79">
-        <v>-51641000000</v>
-      </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
         <v>84</v>
       </c>
-      <c r="B80">
-        <v>60430000000</v>
-      </c>
-      <c r="C80">
-        <v>63234000000</v>
-      </c>
-      <c r="D80">
-        <v>65855000000</v>
-      </c>
-      <c r="E80">
-        <v>66555000000</v>
-      </c>
-      <c r="F80">
-        <v>69094000000</v>
-      </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
         <v>85</v>
       </c>
-      <c r="B81">
-        <v>-10305000000</v>
-      </c>
-      <c r="C81">
-        <v>-12814000000</v>
-      </c>
-      <c r="D81">
-        <v>-13544000000</v>
-      </c>
-      <c r="E81">
-        <v>-14601000000</v>
-      </c>
-      <c r="F81">
-        <v>-14330000000</v>
-      </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
         <v>86</v>
       </c>
       <c r="B82">
-        <v>1905000000</v>
+        <v>65339000000</v>
       </c>
       <c r="C82">
-        <v>2077000000</v>
+        <v>63090000000</v>
       </c>
       <c r="D82">
-        <v>2117000000</v>
+        <v>50672000000</v>
       </c>
       <c r="E82">
-        <v>1985000000</v>
+        <v>62146000000</v>
       </c>
       <c r="F82">
-        <v>1861000000</v>
+        <v>56950000000</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2325,19 +2043,19 @@
         <v>87</v>
       </c>
       <c r="B83">
-        <v>47685000000</v>
+        <v>65339000000</v>
       </c>
       <c r="C83">
-        <v>43555000000</v>
+        <v>63090000000</v>
       </c>
       <c r="D83">
-        <v>42763000000</v>
+        <v>50672000000</v>
       </c>
       <c r="E83">
-        <v>42259000000</v>
+        <v>62146000000</v>
       </c>
       <c r="F83">
-        <v>42486000000</v>
+        <v>56950000000</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2345,19 +2063,19 @@
         <v>88</v>
       </c>
       <c r="B84">
-        <v>16505000000</v>
+        <v>50779000000</v>
       </c>
       <c r="C84">
-        <v>18193000000</v>
+        <v>57365000000</v>
       </c>
       <c r="D84">
-        <v>15247000000</v>
+        <v>64849000000</v>
       </c>
       <c r="E84">
-        <v>2668000000</v>
+        <v>73812000000</v>
       </c>
       <c r="F84">
-        <v>4640000000</v>
+        <v>83276000000</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2365,19 +2083,19 @@
         <v>89</v>
       </c>
       <c r="B85">
-        <v>9501000000</v>
+        <v>50779000000</v>
       </c>
       <c r="C85">
-        <v>7203000000</v>
+        <v>57365000000</v>
       </c>
       <c r="D85">
-        <v>7507000000</v>
+        <v>64849000000</v>
       </c>
       <c r="E85">
-        <v>5604000000</v>
+        <v>73812000000</v>
       </c>
       <c r="F85">
-        <v>2192000000</v>
+        <v>83276000000</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2385,19 +2103,19 @@
         <v>90</v>
       </c>
       <c r="B86">
-        <v>5398000000</v>
+        <v>14966000000</v>
       </c>
       <c r="C86">
-        <v>6463000000</v>
+        <v>5562000000</v>
       </c>
       <c r="D86">
-        <v>6035000000</v>
+        <v>-3068000000</v>
       </c>
       <c r="E86">
-        <v>4816000000</v>
+        <v>-214000000</v>
       </c>
       <c r="F86">
-        <v>1732000000</v>
+        <v>-19154000000</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2405,19 +2123,19 @@
         <v>91</v>
       </c>
       <c r="B87">
-        <v>16183000000</v>
+        <v>-406000000</v>
       </c>
       <c r="C87">
-        <v>11564000000</v>
+        <v>163000000</v>
       </c>
       <c r="D87">
-        <v>13475000000</v>
+        <v>-11109000000</v>
       </c>
       <c r="E87">
-        <v>29171000000</v>
+        <v>-11452000000</v>
       </c>
       <c r="F87">
-        <v>33922000000</v>
+        <v>-7172000000</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2425,13 +2143,19 @@
         <v>92</v>
       </c>
       <c r="B88">
-        <v>98000000</v>
+        <v>-406000000</v>
       </c>
       <c r="C88">
-        <v>132000000</v>
+        <v>163000000</v>
       </c>
       <c r="D88">
-        <v>499000000</v>
+        <v>-11109000000</v>
+      </c>
+      <c r="E88">
+        <v>-11452000000</v>
+      </c>
+      <c r="F88">
+        <v>-7172000000</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2439,19 +2163,19 @@
         <v>93</v>
       </c>
       <c r="B89">
-        <v>542000000</v>
+        <v>112436000000</v>
       </c>
       <c r="C89">
-        <v>500000000</v>
+        <v>124719000000</v>
       </c>
       <c r="D89">
-        <v>1392000000</v>
+        <v>120069000000</v>
       </c>
       <c r="E89">
-        <v>1622000000</v>
+        <v>111088000000</v>
       </c>
       <c r="F89">
-        <v>1471000000</v>
+        <v>106629000000</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2459,19 +2183,19 @@
         <v>94</v>
       </c>
       <c r="B90">
-        <v>130000000</v>
+        <v>13746000000</v>
       </c>
       <c r="C90">
-        <v>144000000</v>
+        <v>15583000000</v>
       </c>
       <c r="D90">
-        <v>297000000</v>
+        <v>21121000000</v>
       </c>
       <c r="E90">
-        <v>340000000</v>
+        <v>15928000000</v>
       </c>
       <c r="F90">
-        <v>324000000</v>
+        <v>20897000000</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2479,19 +2203,19 @@
         <v>95</v>
       </c>
       <c r="B91">
-        <v>85000000</v>
+        <v>9569000000</v>
       </c>
       <c r="C91">
-        <v>84000000</v>
+        <v>11391000000</v>
       </c>
       <c r="D91">
-        <v>260000000</v>
+        <v>9910000000</v>
       </c>
       <c r="E91">
-        <v>299000000</v>
+        <v>10775000000</v>
       </c>
       <c r="F91">
-        <v>284000000</v>
+        <v>12342000000</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2499,19 +2223,19 @@
         <v>96</v>
       </c>
       <c r="B92">
-        <v>69000000</v>
+        <v>11389000000</v>
       </c>
       <c r="C92">
-        <v>70000000</v>
+        <v>10202000000</v>
       </c>
       <c r="D92">
-        <v>221000000</v>
+        <v>10645000000</v>
       </c>
       <c r="E92">
-        <v>252000000</v>
+        <v>12265000000</v>
       </c>
       <c r="F92">
-        <v>231000000</v>
+        <v>9936000000</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2519,19 +2243,19 @@
         <v>97</v>
       </c>
       <c r="B93">
-        <v>59000000</v>
+        <v>10115000000</v>
       </c>
       <c r="C93">
-        <v>60000000</v>
+        <v>10914000000</v>
       </c>
       <c r="D93">
-        <v>179000000</v>
+        <v>11209000000</v>
       </c>
       <c r="E93">
-        <v>207000000</v>
+        <v>9786000000</v>
       </c>
       <c r="F93">
-        <v>190000000</v>
+        <v>7800000000</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2539,19 +2263,19 @@
         <v>98</v>
       </c>
       <c r="B94">
-        <v>52000000</v>
+        <v>10914000000</v>
       </c>
       <c r="C94">
-        <v>42000000</v>
+        <v>11408000000</v>
       </c>
       <c r="D94">
-        <v>144000000</v>
+        <v>9631000000</v>
       </c>
       <c r="E94">
-        <v>170000000</v>
+        <v>7800000000</v>
       </c>
       <c r="F94">
-        <v>142000000</v>
+        <v>5153000000</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2559,33 +2283,39 @@
         <v>99</v>
       </c>
       <c r="B95">
-        <v>147000000</v>
+        <v>55341000000</v>
       </c>
       <c r="C95">
-        <v>100000000</v>
+        <v>64565000000</v>
       </c>
       <c r="D95">
-        <v>444000000</v>
+        <v>59290000000</v>
       </c>
       <c r="E95">
-        <v>565000000</v>
+        <v>56003000000</v>
       </c>
       <c r="F95">
-        <v>476000000</v>
+        <v>51180000000</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
         <v>100</v>
       </c>
+      <c r="B96">
+        <v>1362000000</v>
+      </c>
+      <c r="C96">
+        <v>656000000</v>
+      </c>
       <c r="D96">
-        <v>-153000000</v>
+        <v>-1737000000</v>
       </c>
       <c r="E96">
-        <v>-211000000</v>
+        <v>-1469000000</v>
       </c>
       <c r="F96">
-        <v>-176000000</v>
+        <v>-679000000</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2593,19 +2323,19 @@
         <v>101</v>
       </c>
       <c r="B97">
-        <v>30530000000</v>
+        <v>661000000</v>
       </c>
       <c r="C97">
-        <v>29093000000</v>
+        <v>848000000</v>
       </c>
       <c r="D97">
-        <v>28871000000</v>
+        <v>941000000</v>
       </c>
       <c r="E97">
-        <v>35192000000</v>
+        <v>1024000000</v>
       </c>
       <c r="F97">
-        <v>40929000000</v>
+        <v>896000000</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2613,19 +2343,19 @@
         <v>102</v>
       </c>
       <c r="B98">
-        <v>13091000000</v>
+        <v>43000000</v>
       </c>
       <c r="C98">
-        <v>13238000000</v>
+        <v>104000000</v>
       </c>
       <c r="D98">
-        <v>13301000000</v>
+        <v>155000000</v>
       </c>
       <c r="E98">
-        <v>14427000000</v>
+        <v>196000000</v>
       </c>
       <c r="F98">
-        <v>17239000000</v>
+        <v>171000000</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2633,19 +2363,19 @@
         <v>103</v>
       </c>
       <c r="B99">
-        <v>4121000000</v>
+        <v>43000000</v>
       </c>
       <c r="C99">
-        <v>3956000000</v>
+        <v>123000000</v>
       </c>
       <c r="D99">
-        <v>4111000000</v>
+        <v>130000000</v>
       </c>
       <c r="E99">
-        <v>4662000000</v>
+        <v>151000000</v>
       </c>
       <c r="F99">
-        <v>6352000000</v>
+        <v>131000000</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2653,19 +2383,19 @@
         <v>104</v>
       </c>
       <c r="B100">
-        <v>2893000000</v>
+        <v>54000000</v>
       </c>
       <c r="C100">
-        <v>3236000000</v>
+        <v>99000000</v>
       </c>
       <c r="D100">
-        <v>3831000000</v>
+        <v>81000000</v>
       </c>
       <c r="E100">
-        <v>4702000000</v>
+        <v>120000000</v>
       </c>
       <c r="F100">
-        <v>4561000000</v>
+        <v>59000000</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2673,19 +2403,19 @@
         <v>105</v>
       </c>
       <c r="B101">
-        <v>10425000000</v>
+        <v>30000000</v>
       </c>
       <c r="C101">
-        <v>8663000000</v>
+        <v>46000000</v>
       </c>
       <c r="D101">
-        <v>7628000000</v>
+        <v>48000000</v>
       </c>
       <c r="E101">
-        <v>11401000000</v>
+        <v>52000000</v>
       </c>
       <c r="F101">
-        <v>12777000000</v>
+        <v>38000000</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2693,19 +2423,19 @@
         <v>106</v>
       </c>
       <c r="B102">
-        <v>542000000</v>
+        <v>25000000</v>
       </c>
       <c r="C102">
-        <v>1195000000</v>
+        <v>26000000</v>
       </c>
       <c r="D102">
-        <v>1392000000</v>
+        <v>34000000</v>
       </c>
       <c r="E102">
-        <v>1622000000</v>
+        <v>34000000</v>
       </c>
       <c r="F102">
-        <v>1471000000</v>
+        <v>36000000</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2713,19 +2443,19 @@
         <v>107</v>
       </c>
       <c r="B103">
-        <v>130000000</v>
+        <v>895000000</v>
       </c>
       <c r="C103">
-        <v>325000000</v>
+        <v>868000000</v>
       </c>
       <c r="D103">
-        <v>297000000</v>
+        <v>906000000</v>
       </c>
       <c r="E103">
-        <v>340000000</v>
+        <v>872000000</v>
       </c>
       <c r="F103">
-        <v>324000000</v>
+        <v>837000000</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2733,19 +2463,19 @@
         <v>108</v>
       </c>
       <c r="B104">
-        <v>85000000</v>
+        <v>-429000000</v>
       </c>
       <c r="C104">
-        <v>84000000</v>
+        <v>-418000000</v>
       </c>
       <c r="D104">
-        <v>260000000</v>
+        <v>-413000000</v>
       </c>
       <c r="E104">
-        <v>299000000</v>
+        <v>-401000000</v>
       </c>
       <c r="F104">
-        <v>284000000</v>
+        <v>-376000000</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2753,19 +2483,19 @@
         <v>109</v>
       </c>
       <c r="B105">
-        <v>69000000</v>
+        <v>9181000000</v>
       </c>
       <c r="C105">
-        <v>280000000</v>
+        <v>10955000000</v>
       </c>
       <c r="D105">
-        <v>221000000</v>
+        <v>11470000000</v>
       </c>
       <c r="E105">
-        <v>252000000</v>
+        <v>11818000000</v>
       </c>
       <c r="F105">
-        <v>231000000</v>
+        <v>11534000000</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2773,19 +2503,19 @@
         <v>110</v>
       </c>
       <c r="B106">
-        <v>59000000</v>
+        <v>1493000000</v>
       </c>
       <c r="C106">
-        <v>60000000</v>
+        <v>1629000000</v>
       </c>
       <c r="D106">
-        <v>179000000</v>
+        <v>1758000000</v>
       </c>
       <c r="E106">
-        <v>207000000</v>
+        <v>1719000000</v>
       </c>
       <c r="F106">
-        <v>190000000</v>
+        <v>1820000000</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2793,19 +2523,19 @@
         <v>111</v>
       </c>
       <c r="B107">
-        <v>52000000</v>
+        <v>1461000000</v>
       </c>
       <c r="C107">
-        <v>185000000</v>
+        <v>1560000000</v>
       </c>
       <c r="D107">
-        <v>144000000</v>
+        <v>1742000000</v>
       </c>
       <c r="E107">
-        <v>170000000</v>
+        <v>1875000000</v>
       </c>
       <c r="F107">
-        <v>142000000</v>
+        <v>1914000000</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2813,33 +2543,39 @@
         <v>112</v>
       </c>
       <c r="B108">
-        <v>147000000</v>
+        <v>1317000000</v>
       </c>
       <c r="C108">
-        <v>261000000</v>
+        <v>1499000000</v>
       </c>
       <c r="D108">
-        <v>444000000</v>
+        <v>1677000000</v>
       </c>
       <c r="E108">
-        <v>565000000</v>
+        <v>1732000000</v>
       </c>
       <c r="F108">
-        <v>476000000</v>
+        <v>1674000000</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
         <v>113</v>
       </c>
+      <c r="B109">
+        <v>1068000000</v>
+      </c>
+      <c r="C109">
+        <v>1251000000</v>
+      </c>
       <c r="D109">
-        <v>-153000000</v>
+        <v>1382000000</v>
       </c>
       <c r="E109">
-        <v>-211000000</v>
+        <v>1351000000</v>
       </c>
       <c r="F109">
-        <v>-176000000</v>
+        <v>1360000000</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2847,19 +2583,19 @@
         <v>114</v>
       </c>
       <c r="B110">
-        <v>78757000000</v>
+        <v>960000000</v>
       </c>
       <c r="C110">
-        <v>73843000000</v>
+        <v>1061000000</v>
       </c>
       <c r="D110">
-        <v>73026000000</v>
+        <v>1143000000</v>
       </c>
       <c r="E110">
-        <v>79073000000</v>
+        <v>1181000000</v>
       </c>
       <c r="F110">
-        <v>84886000000</v>
+        <v>1187000000</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2867,184 +2603,404 @@
         <v>115</v>
       </c>
       <c r="B111">
-        <v>29726000000</v>
+        <v>3845000000</v>
       </c>
       <c r="C111">
-        <v>31756000000</v>
+        <v>5187000000</v>
       </c>
       <c r="D111">
-        <v>28845000000</v>
+        <v>5080000000</v>
       </c>
       <c r="E111">
-        <v>17435000000</v>
+        <v>5983000000</v>
       </c>
       <c r="F111">
-        <v>22203000000</v>
+        <v>5563000000</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B112">
-        <v>85000000</v>
+        <v>-963000000</v>
       </c>
       <c r="C112">
-        <v>84000000</v>
+        <v>-1232000000</v>
       </c>
       <c r="D112">
-        <v>260000000</v>
+        <v>-1312000000</v>
       </c>
       <c r="E112">
-        <v>299000000</v>
+        <v>-2023000000</v>
       </c>
       <c r="F112">
-        <v>284000000</v>
+        <v>-1984000000</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B113">
-        <v>13691000000</v>
+        <v>9842000000</v>
       </c>
       <c r="C113">
-        <v>11439000000</v>
+        <v>11803000000</v>
       </c>
       <c r="D113">
-        <v>11839000000</v>
+        <v>12411000000</v>
       </c>
       <c r="E113">
-        <v>10518000000</v>
+        <v>12842000000</v>
       </c>
       <c r="F113">
-        <v>8775000000</v>
+        <v>12430000000</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B114">
-        <v>59000000</v>
+        <v>1536000000</v>
       </c>
       <c r="C114">
-        <v>60000000</v>
+        <v>1733000000</v>
       </c>
       <c r="D114">
-        <v>179000000</v>
+        <v>1913000000</v>
       </c>
       <c r="E114">
-        <v>207000000</v>
+        <v>1915000000</v>
       </c>
       <c r="F114">
-        <v>190000000</v>
+        <v>1991000000</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B115">
-        <v>8343000000</v>
+        <v>1504000000</v>
       </c>
       <c r="C115">
-        <v>9884000000</v>
+        <v>1683000000</v>
       </c>
       <c r="D115">
-        <v>10010000000</v>
+        <v>1872000000</v>
       </c>
       <c r="E115">
-        <v>9688000000</v>
+        <v>2026000000</v>
       </c>
       <c r="F115">
-        <v>6435000000</v>
+        <v>2045000000</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B116">
-        <v>26755000000</v>
+        <v>1371000000</v>
       </c>
       <c r="C116">
-        <v>20488000000</v>
+        <v>1598000000</v>
       </c>
       <c r="D116">
-        <v>21547000000</v>
+        <v>1758000000</v>
       </c>
       <c r="E116">
-        <v>41137000000</v>
+        <v>1852000000</v>
       </c>
       <c r="F116">
-        <v>47175000000</v>
+        <v>1733000000</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B117">
-        <v>98000000</v>
+        <v>1098000000</v>
       </c>
       <c r="C117">
-        <v>132000000</v>
+        <v>1297000000</v>
       </c>
       <c r="D117">
-        <v>346000000</v>
+        <v>1430000000</v>
       </c>
       <c r="E117">
-        <v>-211000000</v>
+        <v>1403000000</v>
       </c>
       <c r="F117">
-        <v>-176000000</v>
+        <v>1398000000</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>122</v>
+        <v>121</v>
+      </c>
+      <c r="B118">
+        <v>985000000</v>
       </c>
       <c r="C118">
-        <v>695000000</v>
+        <v>1087000000</v>
+      </c>
+      <c r="D118">
+        <v>1177000000</v>
+      </c>
+      <c r="E118">
+        <v>1215000000</v>
+      </c>
+      <c r="F118">
+        <v>1223000000</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>123</v>
+        <v>122</v>
+      </c>
+      <c r="B119">
+        <v>4740000000</v>
       </c>
       <c r="C119">
-        <v>181000000</v>
+        <v>6055000000</v>
+      </c>
+      <c r="D119">
+        <v>5986000000</v>
+      </c>
+      <c r="E119">
+        <v>6855000000</v>
+      </c>
+      <c r="F119">
+        <v>6400000000</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>124</v>
+        <v>123</v>
+      </c>
+      <c r="B120">
+        <v>-1392000000</v>
       </c>
       <c r="C120">
-        <v>210000000</v>
+        <v>-1650000000</v>
+      </c>
+      <c r="D120">
+        <v>-1725000000</v>
+      </c>
+      <c r="E120">
+        <v>-2424000000</v>
+      </c>
+      <c r="F120">
+        <v>-2360000000</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>125</v>
+        <v>124</v>
+      </c>
+      <c r="B121">
+        <v>211258000000</v>
       </c>
       <c r="C121">
-        <v>143000000</v>
+        <v>136522000000</v>
+      </c>
+      <c r="D121">
+        <v>132480000000</v>
+      </c>
+      <c r="E121">
+        <v>123930000000</v>
+      </c>
+      <c r="F121">
+        <v>119059000000</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>126</v>
+        <v>125</v>
+      </c>
+      <c r="B122">
+        <v>70954000000</v>
       </c>
       <c r="C122">
-        <v>161000000</v>
+        <v>17316000000</v>
+      </c>
+      <c r="D122">
+        <v>23034000000</v>
+      </c>
+      <c r="E122">
+        <v>17843000000</v>
+      </c>
+      <c r="F122">
+        <v>22888000000</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
+        <v>126</v>
+      </c>
+      <c r="B123">
+        <v>11073000000</v>
+      </c>
+      <c r="C123">
+        <v>13074000000</v>
+      </c>
+      <c r="D123">
+        <v>11782000000</v>
+      </c>
+      <c r="E123">
+        <v>12801000000</v>
+      </c>
+      <c r="F123">
+        <v>14387000000</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" t="s">
         <v>127</v>
+      </c>
+      <c r="B124">
+        <v>23268000000</v>
+      </c>
+      <c r="C124">
+        <v>11800000000</v>
+      </c>
+      <c r="D124">
+        <v>12403000000</v>
+      </c>
+      <c r="E124">
+        <v>14117000000</v>
+      </c>
+      <c r="F124">
+        <v>11669000000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" t="s">
+        <v>128</v>
+      </c>
+      <c r="B125">
+        <v>11213000000</v>
+      </c>
+      <c r="C125">
+        <v>12211000000</v>
+      </c>
+      <c r="D125">
+        <v>12639000000</v>
+      </c>
+      <c r="E125">
+        <v>11189000000</v>
+      </c>
+      <c r="F125">
+        <v>9198000000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" t="s">
+        <v>129</v>
+      </c>
+      <c r="B126">
+        <v>25315000000</v>
+      </c>
+      <c r="C126">
+        <v>12495000000</v>
+      </c>
+      <c r="D126">
+        <v>10808000000</v>
+      </c>
+      <c r="E126">
+        <v>9015000000</v>
+      </c>
+      <c r="F126">
+        <v>6376000000</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" t="s">
+        <v>130</v>
+      </c>
+      <c r="B127">
+        <v>69465000000</v>
+      </c>
+      <c r="C127">
+        <v>70620000000</v>
+      </c>
+      <c r="D127">
+        <v>65276000000</v>
+      </c>
+      <c r="E127">
+        <v>62858000000</v>
+      </c>
+      <c r="F127">
+        <v>57580000000</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" t="s">
+        <v>131</v>
+      </c>
+      <c r="B128">
+        <v>-30000000</v>
+      </c>
+      <c r="C128">
+        <v>-994000000</v>
+      </c>
+      <c r="D128">
+        <v>-3462000000</v>
+      </c>
+      <c r="E128">
+        <v>-3893000000</v>
+      </c>
+      <c r="F128">
+        <v>-3039000000</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>132</v>
+      </c>
+      <c r="B129">
+        <v>88980000000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>133</v>
+      </c>
+      <c r="B130">
+        <v>55672000000</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>134</v>
+      </c>
+      <c r="B131">
+        <v>10508000000</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>135</v>
+      </c>
+      <c r="B132">
+        <v>13416000000</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>136</v>
+      </c>
+      <c r="B133">
+        <v>9384000000</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/balance_sheet.xlsx
+++ b/balance_sheet.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="138">
-  <si>
-    <t>AAPL_balance-sheet_Annual_As_Originally_Reported</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="168">
+  <si>
+    <t>TSLA_balance-sheet_Annual_As_Originally_Reported</t>
   </si>
   <si>
     <t>2020</t>
@@ -58,28 +58,34 @@
     <t>Other Short Term Investments</t>
   </si>
   <si>
+    <t>Available-for-Sale Securities, Current</t>
+  </si>
+  <si>
     <t>Inventories</t>
   </si>
   <si>
+    <t>Raw Materials, Consumables and Supplies</t>
+  </si>
+  <si>
+    <t>Work-in-Process</t>
+  </si>
+  <si>
+    <t>Finished Goods and Merchandise</t>
+  </si>
+  <si>
+    <t>Other Inventories</t>
+  </si>
+  <si>
     <t>Trade and Other Receivables, Current</t>
   </si>
   <si>
     <t>Trade/Accounts Receivable, Current</t>
   </si>
   <si>
-    <t>Gross Trade/Accounts Receivable, Current</t>
-  </si>
-  <si>
-    <t>Allowance/Adjustments for Trade/Accounts Receivable, Current</t>
-  </si>
-  <si>
-    <t>Other Receivables, Current</t>
-  </si>
-  <si>
     <t>Other Current Assets</t>
   </si>
   <si>
-    <t>Deferred Tax Assets, Current</t>
+    <t>Cash Restricted or Pledged, Current</t>
   </si>
   <si>
     <t>Total Non-Current Assets</t>
@@ -100,37 +106,103 @@
     <t>Leasehold and Improvements</t>
   </si>
   <si>
+    <t>Buildings and Improvements</t>
+  </si>
+  <si>
     <t>Machinery, Furniture and Equipment</t>
   </si>
   <si>
     <t>Plant and Machinery</t>
   </si>
   <si>
+    <t>Furniture, Fixtures and Office Equipment</t>
+  </si>
+  <si>
+    <t>Flight, Fleet, Vehicle and Related Equipment</t>
+  </si>
+  <si>
+    <t>Utility Plant</t>
+  </si>
+  <si>
+    <t>Electric Utility Plant</t>
+  </si>
+  <si>
+    <t>Construction in Progress and Advance Payments</t>
+  </si>
+  <si>
     <t>Leased Property, Plant and Equipment</t>
   </si>
   <si>
+    <t>Other Property, Plant and Equipment</t>
+  </si>
+  <si>
     <t>Accumulated Depreciation and Impairment</t>
   </si>
   <si>
     <t>Accumulated Depreciation</t>
   </si>
   <si>
-    <t>Total Long Term Investments</t>
-  </si>
-  <si>
-    <t>Investment in Financial Assets, Non-Current</t>
-  </si>
-  <si>
-    <t>Other Financial Assets, Non-Current</t>
-  </si>
-  <si>
-    <t>Financial Investment Securities, Available-for-Sale &amp; Held-to-Maturity, Non-Current</t>
-  </si>
-  <si>
-    <t>Available-for-Sale Securities, Non-Current</t>
-  </si>
-  <si>
-    <t>Other Investments, Non-Current</t>
+    <t>Accumulated Depreciation of Machinery, Furniture and Equipment</t>
+  </si>
+  <si>
+    <t>Accumulated Depreciation of Flight, Fleet, Vehicle and Related Equipments</t>
+  </si>
+  <si>
+    <t>Accumulated Depreciation of Utility Plant</t>
+  </si>
+  <si>
+    <t>Accumulated Depreciation of Electric Utility Plant</t>
+  </si>
+  <si>
+    <t>Accumulated Depreciation of Other Property, Plant and Equipment</t>
+  </si>
+  <si>
+    <t>Net Intangible Assets</t>
+  </si>
+  <si>
+    <t>Gross Goodwill and Other Intangible Assets</t>
+  </si>
+  <si>
+    <t>Goodwill</t>
+  </si>
+  <si>
+    <t>Intangibles other than Goodwill</t>
+  </si>
+  <si>
+    <t>Other Intangible Assets</t>
+  </si>
+  <si>
+    <t>Trademarks and Patents</t>
+  </si>
+  <si>
+    <t>Software and Technology</t>
+  </si>
+  <si>
+    <t>Licenses and Rights</t>
+  </si>
+  <si>
+    <t>Research and Development</t>
+  </si>
+  <si>
+    <t>Accumulated Amortization and Impairment</t>
+  </si>
+  <si>
+    <t>Accumulated Amortization of Intangible Assets</t>
+  </si>
+  <si>
+    <t>Accumulated Amortization of Intangibles other than Goodwill</t>
+  </si>
+  <si>
+    <t>Accumulated Amortization of Trademarks and Patents</t>
+  </si>
+  <si>
+    <t>Accumulated Amortization of Software and Technology</t>
+  </si>
+  <si>
+    <t>Accumulated Amortization of Other Intangible Assets</t>
+  </si>
+  <si>
+    <t>Accumulated Amortization of Research and Development</t>
   </si>
   <si>
     <t>Deferred Tax Assets, Non-Current</t>
@@ -139,37 +211,13 @@
     <t>Other Non-Current Assets</t>
   </si>
   <si>
-    <t>Net Intangible Assets</t>
-  </si>
-  <si>
-    <t>Gross Goodwill and Other Intangible Assets</t>
-  </si>
-  <si>
-    <t>Goodwill</t>
-  </si>
-  <si>
-    <t>Intangibles other than Goodwill</t>
-  </si>
-  <si>
-    <t>Trademarks and Patents</t>
-  </si>
-  <si>
-    <t>Other Intangible Assets</t>
-  </si>
-  <si>
-    <t>Accumulated Amortization and Impairment</t>
-  </si>
-  <si>
-    <t>Accumulated Amortization of Intangible Assets</t>
-  </si>
-  <si>
-    <t>Accumulated Amortization of Intangibles other than Goodwill</t>
-  </si>
-  <si>
-    <t>Accumulated Amortization of Other Intangible Assets</t>
-  </si>
-  <si>
-    <t>Accumulated Amortization of Trademarks and Patents</t>
+    <t>Trade and Other Receivables, Non-Current</t>
+  </si>
+  <si>
+    <t>Notes Receivable, Non-Current</t>
+  </si>
+  <si>
+    <t>Cash Restricted or Pledged, Non-Current</t>
   </si>
   <si>
     <t>Total Liabilities</t>
@@ -190,6 +238,9 @@
     <t>Taxes Payable, Current</t>
   </si>
   <si>
+    <t>Interest Payable, Current</t>
+  </si>
+  <si>
     <t>Accrued Expenses, Current</t>
   </si>
   <si>
@@ -199,25 +250,37 @@
     <t>Current Debt and Capital Lease Obligation</t>
   </si>
   <si>
+    <t>Current Portion of Long Term Debt and Capital Lease</t>
+  </si>
+  <si>
+    <t>Current Portion of Long Term Debt</t>
+  </si>
+  <si>
+    <t>Bank/Institutional Loans, Current Portion of LT Debt</t>
+  </si>
+  <si>
+    <t>Other Current Portion of LT Debt</t>
+  </si>
+  <si>
+    <t>Convertible Loans/Debentures, Current Portion of LT Debt</t>
+  </si>
+  <si>
+    <t>Capital Lease Obligations, Current</t>
+  </si>
+  <si>
     <t>Current Debt</t>
   </si>
   <si>
-    <t>Commercial Paper</t>
-  </si>
-  <si>
-    <t>Current Portion of Long Term Debt and Capital Lease</t>
-  </si>
-  <si>
-    <t>Current Portion of Long Term Debt</t>
-  </si>
-  <si>
-    <t>Other Current Portion of LT Debt</t>
-  </si>
-  <si>
-    <t>Bank/Institutional Loans, Current Portion of LT Debt</t>
-  </si>
-  <si>
-    <t>Capital Lease Obligations, Current</t>
+    <t>Other Loans, Current Debt</t>
+  </si>
+  <si>
+    <t>Bank/Credit Facilities, Current Debt</t>
+  </si>
+  <si>
+    <t>Provisions, Current</t>
+  </si>
+  <si>
+    <t>Other Provisions, Current</t>
   </si>
   <si>
     <t>Deferred Liabilities, Current</t>
@@ -247,16 +310,31 @@
     <t>Bank/Institutional Loans, Non-Current</t>
   </si>
   <si>
+    <t>Other Loans, Non-Current</t>
+  </si>
+  <si>
+    <t>Convertible Debentures/Loans, Non-Current</t>
+  </si>
+  <si>
+    <t>Borrowings from Associates and Related Parties, Non-Current</t>
+  </si>
+  <si>
     <t>Capital Lease Obligations, Non-Current</t>
   </si>
   <si>
-    <t>Payables and Accrued Expenses, Non-Current</t>
-  </si>
-  <si>
-    <t>Trade and Other Payables, Non-Current</t>
-  </si>
-  <si>
-    <t>Taxes Payable, Non-Current</t>
+    <t>Provisions, Non-Current</t>
+  </si>
+  <si>
+    <t>Other Provisions, Non-Current</t>
+  </si>
+  <si>
+    <t>Deferred Liabilities, Non-Current</t>
+  </si>
+  <si>
+    <t>Deferred Income/Customer Advances/Billings in Excess of Cost, Non-Current</t>
+  </si>
+  <si>
+    <t>Other Deferred Liabilities, Non-Current</t>
   </si>
   <si>
     <t>Other Non-Current Liabilities</t>
@@ -268,12 +346,6 @@
     <t>Deferred Tax Liabilities, Non-Current</t>
   </si>
   <si>
-    <t>Deferred Liabilities, Non-Current</t>
-  </si>
-  <si>
-    <t>Deferred Income/Customer Advances/Billings in Excess of Cost, Non-Current</t>
-  </si>
-  <si>
     <t>Total Equity</t>
   </si>
   <si>
@@ -286,6 +358,15 @@
     <t>Capital Stock</t>
   </si>
   <si>
+    <t>Common Stock</t>
+  </si>
+  <si>
+    <t>Preferred Stock</t>
+  </si>
+  <si>
+    <t>Additional Paid in Capital/Share Premium</t>
+  </si>
+  <si>
     <t>Retained Earnings/Accumulated Deficit</t>
   </si>
   <si>
@@ -295,6 +376,9 @@
     <t>Other Reserves/Accum.Comp.Inc</t>
   </si>
   <si>
+    <t>Non-Controlling/Minority Interests in Equity</t>
+  </si>
+  <si>
     <t>Debt Maturity Schedule Total</t>
   </si>
   <si>
@@ -418,16 +502,22 @@
     <t>Other Contractual Obligations due in Year 1</t>
   </si>
   <si>
+    <t>Other Contractual Obligations due in Year 2</t>
+  </si>
+  <si>
     <t>Other Contractual Obligations due in Year 3</t>
   </si>
   <si>
+    <t>Other Contractual Obligations due in Year 4</t>
+  </si>
+  <si>
     <t>Other Contractual Obligations due in Year 5</t>
   </si>
   <si>
     <t>Other Contractual Obligations due Beyond</t>
   </si>
   <si>
-    <t>Fiscal year ends in Sep 30 | USD</t>
+    <t>Fiscal year ends in Dec 31 | USD</t>
   </si>
 </sst>
 </file>
@@ -785,7 +875,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F134"/>
+  <dimension ref="A1:F164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -816,19 +906,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>323888000000</v>
+        <v>52148000000</v>
       </c>
       <c r="C2">
-        <v>351002000000</v>
+        <v>62131000000</v>
       </c>
       <c r="D2">
-        <v>352755000000</v>
+        <v>82338000000</v>
       </c>
       <c r="E2">
-        <v>352583000000</v>
+        <v>106618000000</v>
       </c>
       <c r="F2">
-        <v>364980000000</v>
+        <v>122070000000</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -836,19 +926,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>143713000000</v>
+        <v>26717000000</v>
       </c>
       <c r="C3">
-        <v>134836000000</v>
+        <v>27100000000</v>
       </c>
       <c r="D3">
-        <v>135405000000</v>
+        <v>40917000000</v>
       </c>
       <c r="E3">
-        <v>143566000000</v>
+        <v>49616000000</v>
       </c>
       <c r="F3">
-        <v>152987000000</v>
+        <v>58360000000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -856,19 +946,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>90943000000</v>
+        <v>19384000000</v>
       </c>
       <c r="C4">
-        <v>62639000000</v>
+        <v>17707000000</v>
       </c>
       <c r="D4">
-        <v>48304000000</v>
+        <v>22185000000</v>
       </c>
       <c r="E4">
-        <v>61555000000</v>
+        <v>29094000000</v>
       </c>
       <c r="F4">
-        <v>65171000000</v>
+        <v>36563000000</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -876,119 +966,86 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>38016000000</v>
+        <v>19384000000</v>
       </c>
       <c r="C5">
-        <v>34940000000</v>
+        <v>17576000000</v>
       </c>
       <c r="D5">
-        <v>23646000000</v>
+        <v>16253000000</v>
       </c>
       <c r="E5">
-        <v>29965000000</v>
+        <v>16398000000</v>
       </c>
       <c r="F5">
-        <v>29943000000</v>
+        <v>16139000000</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6">
-        <v>17773000000</v>
-      </c>
-      <c r="C6">
-        <v>17305000000</v>
-      </c>
       <c r="D6">
-        <v>18546000000</v>
+        <v>13965000000</v>
       </c>
       <c r="E6">
-        <v>28359000000</v>
+        <v>15903000000</v>
       </c>
       <c r="F6">
-        <v>27199000000</v>
+        <v>14386000000</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7">
-        <v>20243000000</v>
-      </c>
-      <c r="C7">
-        <v>17635000000</v>
-      </c>
       <c r="D7">
-        <v>5100000000</v>
+        <v>2288000000</v>
       </c>
       <c r="E7">
-        <v>1606000000</v>
+        <v>495000000</v>
       </c>
       <c r="F7">
-        <v>2744000000</v>
+        <v>1753000000</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8">
-        <v>52927000000</v>
-      </c>
       <c r="C8">
-        <v>27699000000</v>
+        <v>131000000</v>
       </c>
       <c r="D8">
-        <v>24658000000</v>
+        <v>5932000000</v>
       </c>
       <c r="E8">
-        <v>31590000000</v>
+        <v>12696000000</v>
       </c>
       <c r="F8">
-        <v>35228000000</v>
+        <v>20424000000</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9">
-        <v>52927000000</v>
-      </c>
-      <c r="C9">
-        <v>27699000000</v>
-      </c>
       <c r="D9">
-        <v>24658000000</v>
+        <v>5932000000</v>
       </c>
       <c r="E9">
-        <v>31590000000</v>
+        <v>12696000000</v>
       </c>
       <c r="F9">
-        <v>35228000000</v>
+        <v>20424000000</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B10">
-        <v>4061000000</v>
-      </c>
       <c r="C10">
-        <v>6580000000</v>
-      </c>
-      <c r="D10">
-        <v>4946000000</v>
-      </c>
-      <c r="E10">
-        <v>6331000000</v>
-      </c>
-      <c r="F10">
-        <v>7286000000</v>
+        <v>131000000</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -996,19 +1053,19 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>37445000000</v>
+        <v>4101000000</v>
       </c>
       <c r="C11">
-        <v>51506000000</v>
+        <v>5757000000</v>
       </c>
       <c r="D11">
-        <v>60932000000</v>
+        <v>12839000000</v>
       </c>
       <c r="E11">
-        <v>60985000000</v>
+        <v>13626000000</v>
       </c>
       <c r="F11">
-        <v>66243000000</v>
+        <v>12017000000</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1016,49 +1073,79 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>16120000000</v>
+        <v>1508000000</v>
       </c>
       <c r="C12">
-        <v>26278000000</v>
+        <v>2816000000</v>
       </c>
       <c r="D12">
-        <v>28184000000</v>
+        <v>6137000000</v>
       </c>
       <c r="E12">
-        <v>29508000000</v>
+        <v>5390000000</v>
       </c>
       <c r="F12">
-        <v>33410000000</v>
+        <v>5242000000</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>17</v>
       </c>
+      <c r="B13">
+        <v>493000000</v>
+      </c>
+      <c r="C13">
+        <v>1089000000</v>
+      </c>
+      <c r="D13">
+        <v>2385000000</v>
+      </c>
+      <c r="E13">
+        <v>2016000000</v>
+      </c>
+      <c r="F13">
+        <v>1532000000</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>18</v>
       </c>
+      <c r="B14">
+        <v>1666000000</v>
+      </c>
+      <c r="C14">
+        <v>1277000000</v>
+      </c>
+      <c r="D14">
+        <v>3475000000</v>
+      </c>
+      <c r="E14">
+        <v>5049000000</v>
+      </c>
+      <c r="F14">
+        <v>3940000000</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>19</v>
       </c>
       <c r="B15">
-        <v>21325000000</v>
+        <v>434000000</v>
       </c>
       <c r="C15">
-        <v>25228000000</v>
+        <v>575000000</v>
       </c>
       <c r="D15">
-        <v>32748000000</v>
+        <v>842000000</v>
       </c>
       <c r="E15">
-        <v>31477000000</v>
+        <v>1171000000</v>
       </c>
       <c r="F15">
-        <v>32833000000</v>
+        <v>1303000000</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1066,84 +1153,84 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>11264000000</v>
+        <v>1886000000</v>
       </c>
       <c r="C16">
-        <v>14111000000</v>
+        <v>1913000000</v>
       </c>
       <c r="D16">
-        <v>21223000000</v>
+        <v>2952000000</v>
       </c>
       <c r="E16">
-        <v>14695000000</v>
+        <v>3508000000</v>
       </c>
       <c r="F16">
-        <v>14287000000</v>
+        <v>4418000000</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>21</v>
       </c>
+      <c r="B17">
+        <v>1886000000</v>
+      </c>
+      <c r="C17">
+        <v>1913000000</v>
+      </c>
+      <c r="D17">
+        <v>2952000000</v>
+      </c>
+      <c r="E17">
+        <v>3508000000</v>
+      </c>
+      <c r="F17">
+        <v>4418000000</v>
+      </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>22</v>
       </c>
       <c r="B18">
-        <v>180175000000</v>
+        <v>1346000000</v>
       </c>
       <c r="C18">
-        <v>216166000000</v>
+        <v>1723000000</v>
       </c>
       <c r="D18">
-        <v>217350000000</v>
+        <v>2941000000</v>
       </c>
       <c r="E18">
-        <v>209017000000</v>
+        <v>3388000000</v>
       </c>
       <c r="F18">
-        <v>211993000000</v>
+        <v>5362000000</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>23</v>
       </c>
-      <c r="B19">
-        <v>45336000000</v>
-      </c>
-      <c r="C19">
-        <v>49527000000</v>
-      </c>
-      <c r="D19">
-        <v>52534000000</v>
-      </c>
-      <c r="E19">
-        <v>43715000000</v>
-      </c>
-      <c r="F19">
-        <v>45680000000</v>
-      </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>24</v>
       </c>
       <c r="B20">
-        <v>112096000000</v>
+        <v>25434000000</v>
       </c>
       <c r="C20">
-        <v>119810000000</v>
+        <v>35027000000</v>
       </c>
       <c r="D20">
-        <v>124874000000</v>
+        <v>41426000000</v>
       </c>
       <c r="E20">
-        <v>114599000000</v>
+        <v>57002000000</v>
       </c>
       <c r="F20">
-        <v>119128000000</v>
+        <v>63716000000</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1151,19 +1238,19 @@
         <v>25</v>
       </c>
       <c r="B21">
-        <v>28235000000</v>
+        <v>23378000000</v>
       </c>
       <c r="C21">
-        <v>31064000000</v>
+        <v>31172000000</v>
       </c>
       <c r="D21">
-        <v>33397000000</v>
+        <v>36640000000</v>
       </c>
       <c r="E21">
-        <v>36285000000</v>
+        <v>45123000000</v>
       </c>
       <c r="F21">
-        <v>38923000000</v>
+        <v>51507000000</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1171,19 +1258,19 @@
         <v>26</v>
       </c>
       <c r="B22">
-        <v>17952000000</v>
+        <v>29896000000</v>
       </c>
       <c r="C22">
-        <v>20041000000</v>
+        <v>39863000000</v>
       </c>
       <c r="D22">
-        <v>22126000000</v>
+        <v>48139000000</v>
       </c>
       <c r="E22">
-        <v>23446000000</v>
+        <v>60203000000</v>
       </c>
       <c r="F22">
-        <v>24690000000</v>
+        <v>70405000000</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1191,19 +1278,19 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>10283000000</v>
+        <v>5083000000</v>
       </c>
       <c r="C23">
-        <v>11023000000</v>
+        <v>6501000000</v>
       </c>
       <c r="D23">
-        <v>11271000000</v>
+        <v>10117000000</v>
       </c>
       <c r="E23">
-        <v>12839000000</v>
+        <v>12673000000</v>
       </c>
       <c r="F23">
-        <v>14233000000</v>
+        <v>14365000000</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1211,19 +1298,19 @@
         <v>28</v>
       </c>
       <c r="B24">
-        <v>75291000000</v>
+        <v>3662000000</v>
       </c>
       <c r="C24">
-        <v>78659000000</v>
+        <v>4675000000</v>
       </c>
       <c r="D24">
-        <v>81060000000</v>
+        <v>7751000000</v>
       </c>
       <c r="E24">
-        <v>78314000000</v>
+        <v>9505000000</v>
       </c>
       <c r="F24">
-        <v>80205000000</v>
+        <v>10677000000</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1231,53 +1318,44 @@
         <v>29</v>
       </c>
       <c r="B25">
-        <v>75291000000</v>
+        <v>1421000000</v>
       </c>
       <c r="C25">
-        <v>78659000000</v>
+        <v>1826000000</v>
       </c>
       <c r="D25">
-        <v>81060000000</v>
+        <v>2366000000</v>
       </c>
       <c r="E25">
-        <v>78314000000</v>
+        <v>3168000000</v>
       </c>
       <c r="F25">
-        <v>80205000000</v>
+        <v>3688000000</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>30</v>
       </c>
-      <c r="B26">
-        <v>8570000000</v>
-      </c>
-      <c r="C26">
-        <v>10087000000</v>
-      </c>
-      <c r="D26">
-        <v>10417000000</v>
-      </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>31</v>
       </c>
       <c r="B27">
-        <v>-66760000000</v>
+        <v>12889000000</v>
       </c>
       <c r="C27">
-        <v>-70283000000</v>
+        <v>16647000000</v>
       </c>
       <c r="D27">
-        <v>-72340000000</v>
+        <v>21710000000</v>
       </c>
       <c r="E27">
-        <v>-70884000000</v>
+        <v>27540000000</v>
       </c>
       <c r="F27">
-        <v>-73448000000</v>
+        <v>28272000000</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1285,19 +1363,19 @@
         <v>32</v>
       </c>
       <c r="B28">
-        <v>-66760000000</v>
+        <v>8493000000</v>
       </c>
       <c r="C28">
-        <v>-70283000000</v>
+        <v>9953000000</v>
       </c>
       <c r="D28">
-        <v>-72340000000</v>
+        <v>13558000000</v>
       </c>
       <c r="E28">
-        <v>-70884000000</v>
+        <v>16372000000</v>
       </c>
       <c r="F28">
-        <v>-73448000000</v>
+        <v>18339000000</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1305,60 +1383,99 @@
         <v>33</v>
       </c>
       <c r="B29">
-        <v>100887000000</v>
+        <v>856000000</v>
       </c>
       <c r="C29">
-        <v>127877000000</v>
+        <v>1414000000</v>
       </c>
       <c r="D29">
-        <v>120805000000</v>
+        <v>2072000000</v>
       </c>
       <c r="E29">
-        <v>100544000000</v>
+        <v>3799000000</v>
       </c>
       <c r="F29">
-        <v>91479000000</v>
+        <v>2902000000</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>34</v>
       </c>
+      <c r="B30">
+        <v>3540000000</v>
+      </c>
+      <c r="C30">
+        <v>5280000000</v>
+      </c>
       <c r="D30">
-        <v>120805000000</v>
+        <v>6080000000</v>
       </c>
       <c r="E30">
-        <v>100544000000</v>
+        <v>7369000000</v>
       </c>
       <c r="F30">
-        <v>91479000000</v>
+        <v>7031000000</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>35</v>
       </c>
+      <c r="B31">
+        <v>6861000000</v>
+      </c>
+      <c r="C31">
+        <v>6913000000</v>
+      </c>
       <c r="D31">
-        <v>120805000000</v>
+        <v>6889000000</v>
+      </c>
+      <c r="E31">
+        <v>6859000000</v>
       </c>
       <c r="F31">
-        <v>91479000000</v>
+        <v>6790000000</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>36</v>
       </c>
+      <c r="B32">
+        <v>6861000000</v>
+      </c>
+      <c r="C32">
+        <v>6913000000</v>
+      </c>
+      <c r="D32">
+        <v>6889000000</v>
+      </c>
       <c r="E32">
-        <v>100544000000</v>
+        <v>6859000000</v>
+      </c>
+      <c r="F32">
+        <v>6790000000</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>37</v>
       </c>
+      <c r="B33">
+        <v>1694000000</v>
+      </c>
+      <c r="C33">
+        <v>5598000000</v>
+      </c>
+      <c r="D33">
+        <v>4281000000</v>
+      </c>
       <c r="E33">
-        <v>100544000000</v>
+        <v>5804000000</v>
+      </c>
+      <c r="F33">
+        <v>6783000000</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1366,21 +1483,39 @@
         <v>38</v>
       </c>
       <c r="B34">
-        <v>100887000000</v>
+        <v>1558000000</v>
       </c>
       <c r="C34">
-        <v>127877000000</v>
+        <v>2016000000</v>
+      </c>
+      <c r="D34">
+        <v>2563000000</v>
+      </c>
+      <c r="E34">
+        <v>4180000000</v>
+      </c>
+      <c r="F34">
+        <v>5160000000</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>39</v>
       </c>
+      <c r="B35">
+        <v>1811000000</v>
+      </c>
+      <c r="C35">
+        <v>2188000000</v>
+      </c>
+      <c r="D35">
+        <v>2579000000</v>
+      </c>
       <c r="E35">
-        <v>17852000000</v>
+        <v>3147000000</v>
       </c>
       <c r="F35">
-        <v>19499000000</v>
+        <v>9035000000</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1388,94 +1523,250 @@
         <v>40</v>
       </c>
       <c r="B36">
-        <v>33952000000</v>
+        <v>-6518000000</v>
       </c>
       <c r="C36">
-        <v>38762000000</v>
+        <v>-8691000000</v>
       </c>
       <c r="D36">
-        <v>44011000000</v>
+        <v>-11499000000</v>
       </c>
       <c r="E36">
-        <v>46906000000</v>
+        <v>-15080000000</v>
       </c>
       <c r="F36">
-        <v>55335000000</v>
+        <v>-18898000000</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>41</v>
       </c>
+      <c r="B37">
+        <v>-6518000000</v>
+      </c>
+      <c r="C37">
+        <v>-8691000000</v>
+      </c>
+      <c r="D37">
+        <v>-11499000000</v>
+      </c>
+      <c r="E37">
+        <v>-15080000000</v>
+      </c>
+      <c r="F37">
+        <v>-18898000000</v>
+      </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>42</v>
       </c>
+      <c r="B38">
+        <v>-446000000</v>
+      </c>
+      <c r="C38">
+        <v>-773000000</v>
+      </c>
+      <c r="D38">
+        <v>-1040000000</v>
+      </c>
+      <c r="E38">
+        <v>-1380000000</v>
+      </c>
+      <c r="F38">
+        <v>-1450000000</v>
+      </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>43</v>
       </c>
+      <c r="B39">
+        <v>-446000000</v>
+      </c>
+      <c r="C39">
+        <v>-773000000</v>
+      </c>
+      <c r="D39">
+        <v>-1040000000</v>
+      </c>
+      <c r="E39">
+        <v>-1380000000</v>
+      </c>
+      <c r="F39">
+        <v>-1450000000</v>
+      </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>44</v>
       </c>
+      <c r="B40">
+        <v>-955000000</v>
+      </c>
+      <c r="C40">
+        <v>-1187000000</v>
+      </c>
+      <c r="D40">
+        <v>-1418000000</v>
+      </c>
+      <c r="E40">
+        <v>-1643000000</v>
+      </c>
+      <c r="F40">
+        <v>-1860000000</v>
+      </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>45</v>
       </c>
+      <c r="B41">
+        <v>-955000000</v>
+      </c>
+      <c r="C41">
+        <v>-1187000000</v>
+      </c>
+      <c r="D41">
+        <v>-1418000000</v>
+      </c>
+      <c r="E41">
+        <v>-1643000000</v>
+      </c>
+      <c r="F41">
+        <v>-1860000000</v>
+      </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>46</v>
       </c>
+      <c r="B42">
+        <v>-5117000000</v>
+      </c>
+      <c r="C42">
+        <v>-6731000000</v>
+      </c>
+      <c r="D42">
+        <v>-9041000000</v>
+      </c>
+      <c r="E42">
+        <v>-12057000000</v>
+      </c>
+      <c r="F42">
+        <v>-15588000000</v>
+      </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>47</v>
       </c>
+      <c r="B43">
+        <v>520000000</v>
+      </c>
+      <c r="C43">
+        <v>1717000000</v>
+      </c>
+      <c r="D43">
+        <v>593000000</v>
+      </c>
+      <c r="E43">
+        <v>615000000</v>
+      </c>
+      <c r="F43">
+        <v>1470000000</v>
+      </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>48</v>
       </c>
+      <c r="B44">
+        <v>682000000</v>
+      </c>
+      <c r="C44">
+        <v>1929000000</v>
+      </c>
+      <c r="D44">
+        <v>593000000</v>
+      </c>
+      <c r="E44">
+        <v>615000000</v>
+      </c>
+      <c r="F44">
+        <v>1470000000</v>
+      </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>49</v>
       </c>
+      <c r="B45">
+        <v>207000000</v>
+      </c>
+      <c r="C45">
+        <v>200000000</v>
+      </c>
+      <c r="D45">
+        <v>194000000</v>
+      </c>
+      <c r="E45">
+        <v>253000000</v>
+      </c>
+      <c r="F45">
+        <v>244000000</v>
+      </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>50</v>
       </c>
+      <c r="B46">
+        <v>475000000</v>
+      </c>
+      <c r="C46">
+        <v>1729000000</v>
+      </c>
+      <c r="D46">
+        <v>399000000</v>
+      </c>
+      <c r="E46">
+        <v>362000000</v>
+      </c>
+      <c r="F46">
+        <v>1226000000</v>
+      </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>51</v>
       </c>
+      <c r="B47">
+        <v>152000000</v>
+      </c>
+      <c r="C47">
+        <v>1410000000</v>
+      </c>
+      <c r="D47">
+        <v>399000000</v>
+      </c>
+      <c r="E47">
+        <v>362000000</v>
+      </c>
+      <c r="F47">
+        <v>1226000000</v>
+      </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>52</v>
       </c>
       <c r="B48">
-        <v>258549000000</v>
+        <v>3000000</v>
       </c>
       <c r="C48">
-        <v>287912000000</v>
-      </c>
-      <c r="D48">
-        <v>302083000000</v>
-      </c>
-      <c r="E48">
-        <v>290437000000</v>
-      </c>
-      <c r="F48">
-        <v>308030000000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1483,19 +1774,10 @@
         <v>53</v>
       </c>
       <c r="B49">
-        <v>105392000000</v>
+        <v>305000000</v>
       </c>
       <c r="C49">
-        <v>125481000000</v>
-      </c>
-      <c r="D49">
-        <v>153982000000</v>
-      </c>
-      <c r="E49">
-        <v>145308000000</v>
-      </c>
-      <c r="F49">
-        <v>176392000000</v>
+        <v>302000000</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1503,19 +1785,10 @@
         <v>54</v>
       </c>
       <c r="B50">
-        <v>42296000000</v>
+        <v>15000000</v>
       </c>
       <c r="C50">
-        <v>54763000000</v>
-      </c>
-      <c r="D50">
-        <v>64115000000</v>
-      </c>
-      <c r="E50">
-        <v>71430000000</v>
-      </c>
-      <c r="F50">
-        <v>95561000000</v>
+        <v>15000000</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1523,19 +1796,7 @@
         <v>55</v>
       </c>
       <c r="B51">
-        <v>42296000000</v>
-      </c>
-      <c r="C51">
-        <v>54763000000</v>
-      </c>
-      <c r="D51">
-        <v>64115000000</v>
-      </c>
-      <c r="E51">
-        <v>71430000000</v>
-      </c>
-      <c r="F51">
-        <v>95561000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1543,55 +1804,43 @@
         <v>56</v>
       </c>
       <c r="B52">
-        <v>42296000000</v>
+        <v>-162000000</v>
       </c>
       <c r="C52">
-        <v>54763000000</v>
-      </c>
-      <c r="D52">
-        <v>64115000000</v>
-      </c>
-      <c r="E52">
-        <v>62611000000</v>
-      </c>
-      <c r="F52">
-        <v>68960000000</v>
+        <v>-212000000</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>57</v>
       </c>
-      <c r="E53">
-        <v>8819000000</v>
-      </c>
-      <c r="F53">
-        <v>26601000000</v>
+      <c r="B53">
+        <v>-162000000</v>
+      </c>
+      <c r="C53">
+        <v>-212000000</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>58</v>
       </c>
+      <c r="B54">
+        <v>-162000000</v>
+      </c>
+      <c r="C54">
+        <v>-212000000</v>
+      </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>59</v>
       </c>
       <c r="B55">
-        <v>15229000000</v>
+        <v>-1000000</v>
       </c>
       <c r="C55">
-        <v>17141000000</v>
-      </c>
-      <c r="D55">
-        <v>22773000000</v>
-      </c>
-      <c r="E55">
-        <v>17382000000</v>
-      </c>
-      <c r="F55">
-        <v>20879000000</v>
+        <v>-1000000</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1599,19 +1848,10 @@
         <v>60</v>
       </c>
       <c r="B56">
-        <v>15229000000</v>
+        <v>-111000000</v>
       </c>
       <c r="C56">
-        <v>17141000000</v>
-      </c>
-      <c r="D56">
-        <v>22773000000</v>
-      </c>
-      <c r="E56">
-        <v>17382000000</v>
-      </c>
-      <c r="F56">
-        <v>20879000000</v>
+        <v>-150000000</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1619,59 +1859,26 @@
         <v>61</v>
       </c>
       <c r="B57">
-        <v>4996000000</v>
+        <v>-50000000</v>
       </c>
       <c r="C57">
-        <v>6000000000</v>
-      </c>
-      <c r="D57">
-        <v>9982000000</v>
-      </c>
-      <c r="E57">
-        <v>5985000000</v>
-      </c>
-      <c r="F57">
-        <v>9967000000</v>
+        <v>-61000000</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>62</v>
       </c>
-      <c r="B58">
-        <v>4996000000</v>
-      </c>
-      <c r="C58">
-        <v>6000000000</v>
-      </c>
-      <c r="D58">
-        <v>9982000000</v>
-      </c>
-      <c r="E58">
-        <v>5985000000</v>
-      </c>
-      <c r="F58">
-        <v>9967000000</v>
-      </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>63</v>
       </c>
-      <c r="B59">
-        <v>10233000000</v>
-      </c>
-      <c r="C59">
-        <v>11141000000</v>
-      </c>
-      <c r="D59">
-        <v>12791000000</v>
-      </c>
       <c r="E59">
-        <v>11397000000</v>
+        <v>6733000000</v>
       </c>
       <c r="F59">
-        <v>10912000000</v>
+        <v>6524000000</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1679,81 +1886,54 @@
         <v>64</v>
       </c>
       <c r="B60">
-        <v>8773000000</v>
+        <v>1536000000</v>
       </c>
       <c r="C60">
-        <v>9613000000</v>
+        <v>2138000000</v>
       </c>
       <c r="D60">
-        <v>11128000000</v>
+        <v>4193000000</v>
       </c>
       <c r="E60">
-        <v>9822000000</v>
+        <v>4531000000</v>
       </c>
       <c r="F60">
-        <v>10912000000</v>
+        <v>4215000000</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>65</v>
       </c>
-      <c r="C61">
-        <v>9613000000</v>
-      </c>
-      <c r="D61">
-        <v>11128000000</v>
-      </c>
-      <c r="E61">
-        <v>9822000000</v>
-      </c>
-      <c r="F61">
-        <v>10912000000</v>
-      </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>66</v>
       </c>
-      <c r="B62">
-        <v>8773000000</v>
-      </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
         <v>67</v>
       </c>
-      <c r="B63">
-        <v>1460000000</v>
-      </c>
-      <c r="C63">
-        <v>1528000000</v>
-      </c>
-      <c r="D63">
-        <v>1663000000</v>
-      </c>
-      <c r="E63">
-        <v>1575000000</v>
-      </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
         <v>68</v>
       </c>
       <c r="B64">
-        <v>6643000000</v>
+        <v>28469000000</v>
       </c>
       <c r="C64">
-        <v>7612000000</v>
+        <v>30548000000</v>
       </c>
       <c r="D64">
-        <v>7912000000</v>
+        <v>36440000000</v>
       </c>
       <c r="E64">
-        <v>8061000000</v>
+        <v>43009000000</v>
       </c>
       <c r="F64">
-        <v>8249000000</v>
+        <v>48390000000</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1761,19 +1941,19 @@
         <v>69</v>
       </c>
       <c r="B65">
-        <v>6643000000</v>
+        <v>14248000000</v>
       </c>
       <c r="C65">
-        <v>7612000000</v>
+        <v>19705000000</v>
       </c>
       <c r="D65">
-        <v>7912000000</v>
+        <v>26709000000</v>
       </c>
       <c r="E65">
-        <v>8061000000</v>
+        <v>28748000000</v>
       </c>
       <c r="F65">
-        <v>8249000000</v>
+        <v>28821000000</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1781,19 +1961,19 @@
         <v>70</v>
       </c>
       <c r="B66">
-        <v>41224000000</v>
+        <v>8962000000</v>
       </c>
       <c r="C66">
-        <v>45965000000</v>
+        <v>14114000000</v>
       </c>
       <c r="D66">
-        <v>59182000000</v>
+        <v>20263000000</v>
       </c>
       <c r="E66">
-        <v>48435000000</v>
+        <v>19681000000</v>
       </c>
       <c r="F66">
-        <v>51703000000</v>
+        <v>17626000000</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1801,19 +1981,19 @@
         <v>71</v>
       </c>
       <c r="B67">
-        <v>153157000000</v>
+        <v>6905000000</v>
       </c>
       <c r="C67">
-        <v>162431000000</v>
+        <v>11163000000</v>
       </c>
       <c r="D67">
-        <v>148101000000</v>
+        <v>16490000000</v>
       </c>
       <c r="E67">
-        <v>145129000000</v>
+        <v>15635000000</v>
       </c>
       <c r="F67">
-        <v>131638000000</v>
+        <v>13841000000</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1821,19 +2001,19 @@
         <v>72</v>
       </c>
       <c r="B68">
-        <v>107049000000</v>
+        <v>6051000000</v>
       </c>
       <c r="C68">
-        <v>119381000000</v>
+        <v>10025000000</v>
       </c>
       <c r="D68">
-        <v>109707000000</v>
+        <v>15255000000</v>
       </c>
       <c r="E68">
-        <v>106548000000</v>
+        <v>14431000000</v>
       </c>
       <c r="F68">
-        <v>85750000000</v>
+        <v>12474000000</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1841,19 +2021,19 @@
         <v>73</v>
       </c>
       <c r="B69">
-        <v>107049000000</v>
+        <v>777000000</v>
       </c>
       <c r="C69">
-        <v>119381000000</v>
+        <v>1122000000</v>
       </c>
       <c r="D69">
-        <v>109707000000</v>
+        <v>1235000000</v>
       </c>
       <c r="E69">
-        <v>106548000000</v>
+        <v>1204000000</v>
       </c>
       <c r="F69">
-        <v>85750000000</v>
+        <v>1367000000</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1861,36 +2041,30 @@
         <v>74</v>
       </c>
       <c r="B70">
-        <v>98667000000</v>
+        <v>77000000</v>
       </c>
       <c r="C70">
-        <v>109106000000</v>
-      </c>
-      <c r="D70">
-        <v>98959000000</v>
-      </c>
-      <c r="E70">
-        <v>95281000000</v>
-      </c>
-      <c r="F70">
-        <v>85750000000</v>
+        <v>16000000</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>75</v>
       </c>
+      <c r="B71">
+        <v>2057000000</v>
+      </c>
       <c r="C71">
-        <v>109106000000</v>
+        <v>2951000000</v>
       </c>
       <c r="D71">
-        <v>98959000000</v>
+        <v>3773000000</v>
       </c>
       <c r="E71">
-        <v>95281000000</v>
+        <v>4046000000</v>
       </c>
       <c r="F71">
-        <v>85750000000</v>
+        <v>3785000000</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1898,7 +2072,19 @@
         <v>76</v>
       </c>
       <c r="B72">
-        <v>98667000000</v>
+        <v>2418000000</v>
+      </c>
+      <c r="C72">
+        <v>1957000000</v>
+      </c>
+      <c r="D72">
+        <v>1987000000</v>
+      </c>
+      <c r="E72">
+        <v>3045000000</v>
+      </c>
+      <c r="F72">
+        <v>3263000000</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1906,16 +2092,19 @@
         <v>77</v>
       </c>
       <c r="B73">
-        <v>8382000000</v>
+        <v>2418000000</v>
       </c>
       <c r="C73">
-        <v>10275000000</v>
+        <v>1957000000</v>
       </c>
       <c r="D73">
-        <v>10748000000</v>
+        <v>1987000000</v>
       </c>
       <c r="E73">
-        <v>11267000000</v>
+        <v>3045000000</v>
+      </c>
+      <c r="F73">
+        <v>3263000000</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1923,19 +2112,19 @@
         <v>78</v>
       </c>
       <c r="B74">
-        <v>28170000000</v>
+        <v>2418000000</v>
       </c>
       <c r="C74">
-        <v>24689000000</v>
+        <v>1957000000</v>
       </c>
       <c r="D74">
-        <v>16657000000</v>
+        <v>1987000000</v>
       </c>
       <c r="E74">
-        <v>15457000000</v>
+        <v>3045000000</v>
       </c>
       <c r="F74">
-        <v>9254000000</v>
+        <v>3263000000</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1943,19 +2132,19 @@
         <v>79</v>
       </c>
       <c r="B75">
-        <v>28170000000</v>
+        <v>1758000000</v>
       </c>
       <c r="C75">
-        <v>24689000000</v>
+        <v>1088000000</v>
       </c>
       <c r="D75">
-        <v>16657000000</v>
+        <v>1016000000</v>
       </c>
       <c r="E75">
-        <v>15457000000</v>
+        <v>1975000000</v>
       </c>
       <c r="F75">
-        <v>9254000000</v>
+        <v>2343000000</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1963,19 +2152,19 @@
         <v>80</v>
       </c>
       <c r="B76">
-        <v>28170000000</v>
+        <v>178000000</v>
       </c>
       <c r="C76">
-        <v>24689000000</v>
+        <v>0</v>
       </c>
       <c r="D76">
-        <v>16657000000</v>
+        <v>0</v>
       </c>
       <c r="E76">
-        <v>15457000000</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>9254000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1983,30 +2172,48 @@
         <v>81</v>
       </c>
       <c r="B77">
-        <v>17938000000</v>
+        <v>1576000000</v>
       </c>
       <c r="C77">
-        <v>18361000000</v>
+        <v>1088000000</v>
       </c>
       <c r="D77">
-        <v>21737000000</v>
+        <v>1016000000</v>
       </c>
       <c r="E77">
-        <v>23124000000</v>
+        <v>1975000000</v>
       </c>
       <c r="F77">
-        <v>36634000000</v>
+        <v>2343000000</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
         <v>82</v>
       </c>
+      <c r="B78">
+        <v>4000000</v>
+      </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
         <v>83</v>
       </c>
+      <c r="B79">
+        <v>660000000</v>
+      </c>
+      <c r="C79">
+        <v>869000000</v>
+      </c>
+      <c r="D79">
+        <v>971000000</v>
+      </c>
+      <c r="E79">
+        <v>1070000000</v>
+      </c>
+      <c r="F79">
+        <v>920000000</v>
+      </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
@@ -2022,40 +2229,25 @@
       <c r="A82" t="s">
         <v>86</v>
       </c>
-      <c r="B82">
-        <v>65339000000</v>
-      </c>
-      <c r="C82">
-        <v>63090000000</v>
-      </c>
-      <c r="D82">
-        <v>50672000000</v>
-      </c>
-      <c r="E82">
-        <v>62146000000</v>
-      </c>
-      <c r="F82">
-        <v>56950000000</v>
-      </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
         <v>87</v>
       </c>
       <c r="B83">
-        <v>65339000000</v>
+        <v>417000000</v>
       </c>
       <c r="C83">
-        <v>63090000000</v>
+        <v>968000000</v>
       </c>
       <c r="D83">
-        <v>50672000000</v>
+        <v>1295000000</v>
       </c>
       <c r="E83">
-        <v>62146000000</v>
+        <v>1765000000</v>
       </c>
       <c r="F83">
-        <v>56950000000</v>
+        <v>2222000000</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2063,19 +2255,19 @@
         <v>88</v>
       </c>
       <c r="B84">
-        <v>50779000000</v>
+        <v>417000000</v>
       </c>
       <c r="C84">
-        <v>57365000000</v>
+        <v>968000000</v>
       </c>
       <c r="D84">
-        <v>64849000000</v>
+        <v>1295000000</v>
       </c>
       <c r="E84">
-        <v>73812000000</v>
+        <v>1765000000</v>
       </c>
       <c r="F84">
-        <v>83276000000</v>
+        <v>2222000000</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2083,19 +2275,19 @@
         <v>89</v>
       </c>
       <c r="B85">
-        <v>50779000000</v>
+        <v>2210000000</v>
       </c>
       <c r="C85">
-        <v>57365000000</v>
+        <v>2372000000</v>
       </c>
       <c r="D85">
-        <v>64849000000</v>
+        <v>2810000000</v>
       </c>
       <c r="E85">
-        <v>73812000000</v>
+        <v>3740000000</v>
       </c>
       <c r="F85">
-        <v>83276000000</v>
+        <v>4161000000</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2103,19 +2295,19 @@
         <v>90</v>
       </c>
       <c r="B86">
-        <v>14966000000</v>
+        <v>2210000000</v>
       </c>
       <c r="C86">
-        <v>5562000000</v>
+        <v>2372000000</v>
       </c>
       <c r="D86">
-        <v>-3068000000</v>
+        <v>2810000000</v>
       </c>
       <c r="E86">
-        <v>-214000000</v>
+        <v>3740000000</v>
       </c>
       <c r="F86">
-        <v>-19154000000</v>
+        <v>4161000000</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2123,19 +2315,19 @@
         <v>91</v>
       </c>
       <c r="B87">
-        <v>-406000000</v>
+        <v>241000000</v>
       </c>
       <c r="C87">
-        <v>163000000</v>
+        <v>294000000</v>
       </c>
       <c r="D87">
-        <v>-11109000000</v>
+        <v>354000000</v>
       </c>
       <c r="E87">
-        <v>-11452000000</v>
+        <v>517000000</v>
       </c>
       <c r="F87">
-        <v>-7172000000</v>
+        <v>1549000000</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2143,19 +2335,19 @@
         <v>92</v>
       </c>
       <c r="B88">
-        <v>-406000000</v>
+        <v>14221000000</v>
       </c>
       <c r="C88">
-        <v>163000000</v>
+        <v>10843000000</v>
       </c>
       <c r="D88">
-        <v>-11109000000</v>
+        <v>9731000000</v>
       </c>
       <c r="E88">
-        <v>-11452000000</v>
+        <v>14261000000</v>
       </c>
       <c r="F88">
-        <v>-7172000000</v>
+        <v>19569000000</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2163,19 +2355,19 @@
         <v>93</v>
       </c>
       <c r="B89">
-        <v>112436000000</v>
+        <v>10861000000</v>
       </c>
       <c r="C89">
-        <v>124719000000</v>
+        <v>6916000000</v>
       </c>
       <c r="D89">
-        <v>120069000000</v>
+        <v>3761000000</v>
       </c>
       <c r="E89">
-        <v>111088000000</v>
+        <v>6528000000</v>
       </c>
       <c r="F89">
-        <v>106629000000</v>
+        <v>10360000000</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2183,19 +2375,19 @@
         <v>94</v>
       </c>
       <c r="B90">
-        <v>13746000000</v>
+        <v>10861000000</v>
       </c>
       <c r="C90">
-        <v>15583000000</v>
+        <v>6916000000</v>
       </c>
       <c r="D90">
-        <v>21121000000</v>
+        <v>3761000000</v>
       </c>
       <c r="E90">
-        <v>15928000000</v>
+        <v>6528000000</v>
       </c>
       <c r="F90">
-        <v>20897000000</v>
+        <v>10360000000</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2203,19 +2395,19 @@
         <v>95</v>
       </c>
       <c r="B91">
-        <v>9569000000</v>
+        <v>8513000000</v>
       </c>
       <c r="C91">
-        <v>11391000000</v>
+        <v>4254000000</v>
       </c>
       <c r="D91">
-        <v>9910000000</v>
+        <v>1029000000</v>
       </c>
       <c r="E91">
-        <v>10775000000</v>
+        <v>2682000000</v>
       </c>
       <c r="F91">
-        <v>12342000000</v>
+        <v>5535000000</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2223,19 +2415,19 @@
         <v>96</v>
       </c>
       <c r="B92">
-        <v>11389000000</v>
+        <v>5186000000</v>
       </c>
       <c r="C92">
-        <v>10202000000</v>
+        <v>2602000000</v>
       </c>
       <c r="D92">
-        <v>10645000000</v>
+        <v>670000000</v>
       </c>
       <c r="E92">
-        <v>12265000000</v>
+        <v>2352000000</v>
       </c>
       <c r="F92">
-        <v>9936000000</v>
+        <v>2496000000</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2243,19 +2435,16 @@
         <v>97</v>
       </c>
       <c r="B93">
-        <v>10115000000</v>
+        <v>1995000000</v>
       </c>
       <c r="C93">
-        <v>10914000000</v>
+        <v>1250000000</v>
       </c>
       <c r="D93">
-        <v>11209000000</v>
-      </c>
-      <c r="E93">
-        <v>9786000000</v>
+        <v>0</v>
       </c>
       <c r="F93">
-        <v>7800000000</v>
+        <v>2740000000</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2263,19 +2452,19 @@
         <v>98</v>
       </c>
       <c r="B94">
-        <v>10914000000</v>
+        <v>1281000000</v>
       </c>
       <c r="C94">
-        <v>11408000000</v>
+        <v>402000000</v>
       </c>
       <c r="D94">
-        <v>9631000000</v>
+        <v>359000000</v>
       </c>
       <c r="E94">
-        <v>7800000000</v>
+        <v>330000000</v>
       </c>
       <c r="F94">
-        <v>5153000000</v>
+        <v>299000000</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2283,59 +2472,35 @@
         <v>99</v>
       </c>
       <c r="B95">
-        <v>55341000000</v>
+        <v>51000000</v>
       </c>
       <c r="C95">
-        <v>64565000000</v>
-      </c>
-      <c r="D95">
-        <v>59290000000</v>
-      </c>
-      <c r="E95">
-        <v>56003000000</v>
-      </c>
-      <c r="F95">
-        <v>51180000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
         <v>100</v>
       </c>
-      <c r="B96">
-        <v>1362000000</v>
-      </c>
-      <c r="C96">
-        <v>656000000</v>
-      </c>
-      <c r="D96">
-        <v>-1737000000</v>
-      </c>
-      <c r="E96">
-        <v>-1469000000</v>
-      </c>
-      <c r="F96">
-        <v>-679000000</v>
-      </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
         <v>101</v>
       </c>
       <c r="B97">
-        <v>661000000</v>
+        <v>2348000000</v>
       </c>
       <c r="C97">
-        <v>848000000</v>
+        <v>2662000000</v>
       </c>
       <c r="D97">
-        <v>941000000</v>
+        <v>2732000000</v>
       </c>
       <c r="E97">
-        <v>1024000000</v>
+        <v>3846000000</v>
       </c>
       <c r="F97">
-        <v>896000000</v>
+        <v>4825000000</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2343,19 +2508,19 @@
         <v>102</v>
       </c>
       <c r="B98">
-        <v>43000000</v>
+        <v>1489000000</v>
       </c>
       <c r="C98">
-        <v>104000000</v>
+        <v>1531000000</v>
       </c>
       <c r="D98">
-        <v>155000000</v>
+        <v>2531000000</v>
       </c>
       <c r="E98">
-        <v>196000000</v>
+        <v>3606000000</v>
       </c>
       <c r="F98">
-        <v>171000000</v>
+        <v>4799000000</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2363,19 +2528,19 @@
         <v>103</v>
       </c>
       <c r="B99">
-        <v>43000000</v>
+        <v>1489000000</v>
       </c>
       <c r="C99">
-        <v>123000000</v>
+        <v>1531000000</v>
       </c>
       <c r="D99">
-        <v>130000000</v>
+        <v>2531000000</v>
       </c>
       <c r="E99">
-        <v>151000000</v>
+        <v>3606000000</v>
       </c>
       <c r="F99">
-        <v>131000000</v>
+        <v>4799000000</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2383,19 +2548,19 @@
         <v>104</v>
       </c>
       <c r="B100">
-        <v>54000000</v>
+        <v>1284000000</v>
       </c>
       <c r="C100">
-        <v>99000000</v>
+        <v>2052000000</v>
       </c>
       <c r="D100">
-        <v>81000000</v>
+        <v>2804000000</v>
       </c>
       <c r="E100">
-        <v>120000000</v>
+        <v>3251000000</v>
       </c>
       <c r="F100">
-        <v>59000000</v>
+        <v>3317000000</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2403,59 +2568,44 @@
         <v>105</v>
       </c>
       <c r="B101">
-        <v>30000000</v>
+        <v>1284000000</v>
       </c>
       <c r="C101">
-        <v>46000000</v>
+        <v>2052000000</v>
       </c>
       <c r="D101">
-        <v>48000000</v>
+        <v>2804000000</v>
       </c>
       <c r="E101">
-        <v>52000000</v>
+        <v>3251000000</v>
       </c>
       <c r="F101">
-        <v>38000000</v>
+        <v>3317000000</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
         <v>106</v>
       </c>
-      <c r="B102">
-        <v>25000000</v>
-      </c>
-      <c r="C102">
-        <v>26000000</v>
-      </c>
-      <c r="D102">
-        <v>34000000</v>
-      </c>
-      <c r="E102">
-        <v>34000000</v>
-      </c>
-      <c r="F102">
-        <v>36000000</v>
-      </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
         <v>107</v>
       </c>
       <c r="B103">
-        <v>895000000</v>
+        <v>436000000</v>
       </c>
       <c r="C103">
-        <v>868000000</v>
+        <v>320000000</v>
       </c>
       <c r="D103">
-        <v>906000000</v>
+        <v>553000000</v>
       </c>
       <c r="E103">
-        <v>872000000</v>
+        <v>876000000</v>
       </c>
       <c r="F103">
-        <v>837000000</v>
+        <v>1093000000</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2463,19 +2613,13 @@
         <v>108</v>
       </c>
       <c r="B104">
-        <v>-429000000</v>
+        <v>151000000</v>
       </c>
       <c r="C104">
-        <v>-418000000</v>
+        <v>24000000</v>
       </c>
       <c r="D104">
-        <v>-413000000</v>
-      </c>
-      <c r="E104">
-        <v>-401000000</v>
-      </c>
-      <c r="F104">
-        <v>-376000000</v>
+        <v>82000000</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2483,19 +2627,13 @@
         <v>109</v>
       </c>
       <c r="B105">
-        <v>9181000000</v>
+        <v>151000000</v>
       </c>
       <c r="C105">
-        <v>10955000000</v>
+        <v>24000000</v>
       </c>
       <c r="D105">
-        <v>11470000000</v>
-      </c>
-      <c r="E105">
-        <v>11818000000</v>
-      </c>
-      <c r="F105">
-        <v>11534000000</v>
+        <v>82000000</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2503,19 +2641,19 @@
         <v>110</v>
       </c>
       <c r="B106">
-        <v>1493000000</v>
+        <v>23679000000</v>
       </c>
       <c r="C106">
-        <v>1629000000</v>
+        <v>31583000000</v>
       </c>
       <c r="D106">
-        <v>1758000000</v>
+        <v>45898000000</v>
       </c>
       <c r="E106">
-        <v>1719000000</v>
+        <v>63609000000</v>
       </c>
       <c r="F106">
-        <v>1820000000</v>
+        <v>73680000000</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2523,19 +2661,19 @@
         <v>111</v>
       </c>
       <c r="B107">
-        <v>1461000000</v>
+        <v>22225000000</v>
       </c>
       <c r="C107">
-        <v>1560000000</v>
+        <v>30189000000</v>
       </c>
       <c r="D107">
-        <v>1742000000</v>
+        <v>44704000000</v>
       </c>
       <c r="E107">
-        <v>1875000000</v>
+        <v>62634000000</v>
       </c>
       <c r="F107">
-        <v>1914000000</v>
+        <v>72913000000</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2543,19 +2681,19 @@
         <v>112</v>
       </c>
       <c r="B108">
-        <v>1317000000</v>
+        <v>27261000000</v>
       </c>
       <c r="C108">
-        <v>1499000000</v>
+        <v>29804000000</v>
       </c>
       <c r="D108">
-        <v>1677000000</v>
+        <v>32180000000</v>
       </c>
       <c r="E108">
-        <v>1732000000</v>
+        <v>34895000000</v>
       </c>
       <c r="F108">
-        <v>1674000000</v>
+        <v>38374000000</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2563,19 +2701,19 @@
         <v>113</v>
       </c>
       <c r="B109">
-        <v>1068000000</v>
+        <v>27261000000</v>
       </c>
       <c r="C109">
-        <v>1251000000</v>
+        <v>29804000000</v>
       </c>
       <c r="D109">
-        <v>1382000000</v>
+        <v>32180000000</v>
       </c>
       <c r="E109">
-        <v>1351000000</v>
+        <v>34895000000</v>
       </c>
       <c r="F109">
-        <v>1360000000</v>
+        <v>38374000000</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2583,19 +2721,19 @@
         <v>114</v>
       </c>
       <c r="B110">
-        <v>960000000</v>
+        <v>1000000</v>
       </c>
       <c r="C110">
-        <v>1061000000</v>
+        <v>1000000</v>
       </c>
       <c r="D110">
-        <v>1143000000</v>
+        <v>3000000</v>
       </c>
       <c r="E110">
-        <v>1181000000</v>
+        <v>3000000</v>
       </c>
       <c r="F110">
-        <v>1187000000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2603,404 +2741,977 @@
         <v>115</v>
       </c>
       <c r="B111">
-        <v>3845000000</v>
+        <v>0</v>
       </c>
       <c r="C111">
-        <v>5187000000</v>
+        <v>0</v>
       </c>
       <c r="D111">
-        <v>5080000000</v>
+        <v>0</v>
       </c>
       <c r="E111">
-        <v>5983000000</v>
+        <v>0</v>
       </c>
       <c r="F111">
-        <v>5563000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B112">
-        <v>-963000000</v>
+        <v>27260000000</v>
       </c>
       <c r="C112">
-        <v>-1232000000</v>
+        <v>29803000000</v>
       </c>
       <c r="D112">
-        <v>-1312000000</v>
+        <v>32177000000</v>
       </c>
       <c r="E112">
-        <v>-2023000000</v>
+        <v>34892000000</v>
       </c>
       <c r="F112">
-        <v>-1984000000</v>
+        <v>38371000000</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B113">
-        <v>9842000000</v>
+        <v>-5399000000</v>
       </c>
       <c r="C113">
-        <v>11803000000</v>
+        <v>331000000</v>
       </c>
       <c r="D113">
-        <v>12411000000</v>
+        <v>12885000000</v>
       </c>
       <c r="E113">
-        <v>12842000000</v>
+        <v>27882000000</v>
       </c>
       <c r="F113">
-        <v>12430000000</v>
+        <v>35209000000</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B114">
-        <v>1536000000</v>
+        <v>363000000</v>
       </c>
       <c r="C114">
-        <v>1733000000</v>
+        <v>54000000</v>
       </c>
       <c r="D114">
-        <v>1913000000</v>
+        <v>-361000000</v>
       </c>
       <c r="E114">
-        <v>1915000000</v>
+        <v>-143000000</v>
       </c>
       <c r="F114">
-        <v>1991000000</v>
+        <v>-670000000</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B115">
-        <v>1504000000</v>
+        <v>363000000</v>
       </c>
       <c r="C115">
-        <v>1683000000</v>
+        <v>54000000</v>
       </c>
       <c r="D115">
-        <v>1872000000</v>
+        <v>-361000000</v>
       </c>
       <c r="E115">
-        <v>2026000000</v>
+        <v>-143000000</v>
       </c>
       <c r="F115">
-        <v>2045000000</v>
+        <v>-670000000</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B116">
-        <v>1371000000</v>
+        <v>1454000000</v>
       </c>
       <c r="C116">
-        <v>1598000000</v>
+        <v>1394000000</v>
       </c>
       <c r="D116">
-        <v>1758000000</v>
+        <v>1194000000</v>
       </c>
       <c r="E116">
-        <v>1852000000</v>
+        <v>975000000</v>
       </c>
       <c r="F116">
-        <v>1733000000</v>
+        <v>767000000</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B117">
-        <v>1098000000</v>
+        <v>10220000000</v>
       </c>
       <c r="C117">
-        <v>1297000000</v>
+        <v>5380000000</v>
       </c>
       <c r="D117">
-        <v>1430000000</v>
+        <v>2045000000</v>
       </c>
       <c r="E117">
-        <v>1403000000</v>
+        <v>4657000000</v>
       </c>
       <c r="F117">
-        <v>1398000000</v>
+        <v>7878000000</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B118">
-        <v>985000000</v>
+        <v>1818000000</v>
       </c>
       <c r="C118">
-        <v>1087000000</v>
+        <v>1095000000</v>
       </c>
       <c r="D118">
-        <v>1177000000</v>
+        <v>1020000000</v>
       </c>
       <c r="E118">
-        <v>1215000000</v>
+        <v>1978000000</v>
       </c>
       <c r="F118">
-        <v>1223000000</v>
+        <v>2353000000</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B119">
-        <v>4740000000</v>
+        <v>1935000000</v>
       </c>
       <c r="C119">
-        <v>6055000000</v>
+        <v>2456000000</v>
       </c>
       <c r="D119">
-        <v>5986000000</v>
+        <v>685000000</v>
       </c>
       <c r="E119">
-        <v>6855000000</v>
+        <v>1667000000</v>
       </c>
       <c r="F119">
-        <v>6400000000</v>
+        <v>4116000000</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B120">
-        <v>-1392000000</v>
+        <v>2406000000</v>
       </c>
       <c r="C120">
-        <v>-1650000000</v>
+        <v>1060000000</v>
       </c>
       <c r="D120">
-        <v>-1725000000</v>
+        <v>39000000</v>
       </c>
       <c r="E120">
-        <v>-2424000000</v>
+        <v>494000000</v>
       </c>
       <c r="F120">
-        <v>-2360000000</v>
+        <v>699000000</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B121">
-        <v>211258000000</v>
+        <v>1851000000</v>
       </c>
       <c r="C121">
-        <v>136522000000</v>
+        <v>178000000</v>
       </c>
       <c r="D121">
-        <v>132480000000</v>
+        <v>35000000</v>
       </c>
       <c r="E121">
-        <v>123930000000</v>
+        <v>276000000</v>
       </c>
       <c r="F121">
-        <v>119059000000</v>
+        <v>243000000</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B122">
-        <v>70954000000</v>
+        <v>1979000000</v>
       </c>
       <c r="C122">
-        <v>17316000000</v>
+        <v>64000000</v>
       </c>
       <c r="D122">
-        <v>23034000000</v>
+        <v>25000000</v>
       </c>
       <c r="E122">
-        <v>17843000000</v>
+        <v>44000000</v>
       </c>
       <c r="F122">
-        <v>22888000000</v>
+        <v>95000000</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B123">
-        <v>11073000000</v>
+        <v>580000000</v>
       </c>
       <c r="C123">
-        <v>13074000000</v>
+        <v>527000000</v>
       </c>
       <c r="D123">
-        <v>11782000000</v>
+        <v>257000000</v>
       </c>
       <c r="E123">
-        <v>12801000000</v>
+        <v>224000000</v>
       </c>
       <c r="F123">
-        <v>14387000000</v>
+        <v>401000000</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B124">
-        <v>23268000000</v>
-      </c>
-      <c r="C124">
-        <v>11800000000</v>
+        <v>-349000000</v>
       </c>
       <c r="D124">
-        <v>12403000000</v>
+        <v>-16000000</v>
       </c>
       <c r="E124">
-        <v>14117000000</v>
+        <v>-26000000</v>
       </c>
       <c r="F124">
-        <v>11669000000</v>
+        <v>-29000000</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B125">
-        <v>11213000000</v>
+        <v>1468000000</v>
       </c>
       <c r="C125">
-        <v>12211000000</v>
+        <v>1492000000</v>
       </c>
       <c r="D125">
-        <v>12639000000</v>
+        <v>1054000000</v>
       </c>
       <c r="E125">
-        <v>11189000000</v>
+        <v>573000000</v>
       </c>
       <c r="F125">
-        <v>9198000000</v>
+        <v>335000000</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B126">
-        <v>25315000000</v>
+        <v>462000000</v>
       </c>
       <c r="C126">
-        <v>12495000000</v>
+        <v>587000000</v>
       </c>
       <c r="D126">
-        <v>10808000000</v>
+        <v>534000000</v>
       </c>
       <c r="E126">
-        <v>9015000000</v>
+        <v>418000000</v>
       </c>
       <c r="F126">
-        <v>6376000000</v>
+        <v>122000000</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B127">
-        <v>69465000000</v>
+        <v>446000000</v>
       </c>
       <c r="C127">
-        <v>70620000000</v>
+        <v>524000000</v>
       </c>
       <c r="D127">
-        <v>65276000000</v>
+        <v>387000000</v>
       </c>
       <c r="E127">
-        <v>62858000000</v>
+        <v>81000000</v>
       </c>
       <c r="F127">
-        <v>57580000000</v>
+        <v>84000000</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B128">
-        <v>-30000000</v>
+        <v>412000000</v>
       </c>
       <c r="C128">
-        <v>-994000000</v>
+        <v>381000000</v>
       </c>
       <c r="D128">
-        <v>-3462000000</v>
+        <v>122000000</v>
       </c>
       <c r="E128">
-        <v>-3893000000</v>
+        <v>57000000</v>
       </c>
       <c r="F128">
-        <v>-3039000000</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
+        <v>69000000</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
       <c r="A129" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B129">
-        <v>88980000000</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
+        <v>299000000</v>
+      </c>
+      <c r="C129">
+        <v>102000000</v>
+      </c>
+      <c r="D129">
+        <v>52000000</v>
+      </c>
+      <c r="E129">
+        <v>38000000</v>
+      </c>
+      <c r="F129">
+        <v>27000000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
       <c r="A130" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B130">
-        <v>55672000000</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
+        <v>9000000</v>
+      </c>
+      <c r="C130">
+        <v>45000000</v>
+      </c>
+      <c r="D130">
+        <v>31000000</v>
+      </c>
+      <c r="E130">
+        <v>2000000</v>
+      </c>
+      <c r="F130">
+        <v>22000000</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
       <c r="A131" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B131">
-        <v>10508000000</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
+        <v>7000000</v>
+      </c>
+      <c r="C131">
+        <v>9000000</v>
+      </c>
+      <c r="D131">
+        <v>4000000</v>
+      </c>
+      <c r="E131">
+        <v>4000000</v>
+      </c>
+      <c r="F131">
+        <v>45000000</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
       <c r="A132" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B132">
-        <v>13416000000</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
+        <v>-167000000</v>
+      </c>
+      <c r="C132">
+        <v>-156000000</v>
+      </c>
+      <c r="D132">
+        <v>-76000000</v>
+      </c>
+      <c r="E132">
+        <v>-27000000</v>
+      </c>
+      <c r="F132">
+        <v>-34000000</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
       <c r="A133" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B133">
-        <v>9384000000</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
+        <v>1540000000</v>
+      </c>
+      <c r="C133">
+        <v>2039000000</v>
+      </c>
+      <c r="D133">
+        <v>2649000000</v>
+      </c>
+      <c r="E133">
+        <v>4343000000</v>
+      </c>
+      <c r="F133">
+        <v>5410000000</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
       <c r="A134" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="B134">
+        <v>366000000</v>
+      </c>
+      <c r="C134">
+        <v>458000000</v>
+      </c>
+      <c r="D134">
+        <v>610000000</v>
+      </c>
+      <c r="E134">
+        <v>892000000</v>
+      </c>
+      <c r="F134">
+        <v>1066000000</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" t="s">
+        <v>139</v>
+      </c>
+      <c r="B135">
+        <v>327000000</v>
+      </c>
+      <c r="C135">
+        <v>412000000</v>
+      </c>
+      <c r="D135">
+        <v>558000000</v>
+      </c>
+      <c r="E135">
+        <v>831000000</v>
+      </c>
+      <c r="F135">
+        <v>958000000</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" t="s">
+        <v>140</v>
+      </c>
+      <c r="B136">
+        <v>279000000</v>
+      </c>
+      <c r="C136">
+        <v>366000000</v>
+      </c>
+      <c r="D136">
+        <v>490000000</v>
+      </c>
+      <c r="E136">
+        <v>706000000</v>
+      </c>
+      <c r="F136">
+        <v>843000000</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" t="s">
+        <v>141</v>
+      </c>
+      <c r="B137">
+        <v>245000000</v>
+      </c>
+      <c r="C137">
+        <v>319000000</v>
+      </c>
+      <c r="D137">
+        <v>383000000</v>
+      </c>
+      <c r="E137">
+        <v>603000000</v>
+      </c>
+      <c r="F137">
+        <v>742000000</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" t="s">
+        <v>142</v>
+      </c>
+      <c r="B138">
+        <v>204000000</v>
+      </c>
+      <c r="C138">
+        <v>232000000</v>
+      </c>
+      <c r="D138">
+        <v>300000000</v>
+      </c>
+      <c r="E138">
+        <v>508000000</v>
+      </c>
+      <c r="F138">
+        <v>642000000</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" t="s">
+        <v>143</v>
+      </c>
+      <c r="B139">
+        <v>425000000</v>
+      </c>
+      <c r="C139">
+        <v>595000000</v>
+      </c>
+      <c r="D139">
+        <v>805000000</v>
+      </c>
+      <c r="E139">
+        <v>1820000000</v>
+      </c>
+      <c r="F139">
+        <v>2428000000</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" t="s">
+        <v>143</v>
+      </c>
+      <c r="B140">
+        <v>-306000000</v>
+      </c>
+      <c r="C140">
+        <v>-343000000</v>
+      </c>
+      <c r="D140">
+        <v>-497000000</v>
+      </c>
+      <c r="E140">
+        <v>-1017000000</v>
+      </c>
+      <c r="F140">
+        <v>-1269000000</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" t="s">
+        <v>144</v>
+      </c>
+      <c r="B141">
+        <v>3008000000</v>
+      </c>
+      <c r="C141">
+        <v>3531000000</v>
+      </c>
+      <c r="D141">
+        <v>3703000000</v>
+      </c>
+      <c r="E141">
+        <v>4916000000</v>
+      </c>
+      <c r="F141">
+        <v>5745000000</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" t="s">
+        <v>145</v>
+      </c>
+      <c r="B142">
+        <v>828000000</v>
+      </c>
+      <c r="C142">
+        <v>1045000000</v>
+      </c>
+      <c r="D142">
+        <v>1144000000</v>
+      </c>
+      <c r="E142">
+        <v>1310000000</v>
+      </c>
+      <c r="F142">
+        <v>1188000000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" t="s">
+        <v>146</v>
+      </c>
+      <c r="B143">
+        <v>773000000</v>
+      </c>
+      <c r="C143">
+        <v>936000000</v>
+      </c>
+      <c r="D143">
+        <v>945000000</v>
+      </c>
+      <c r="E143">
+        <v>912000000</v>
+      </c>
+      <c r="F143">
+        <v>1042000000</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" t="s">
+        <v>147</v>
+      </c>
+      <c r="B144">
+        <v>691000000</v>
+      </c>
+      <c r="C144">
+        <v>747000000</v>
+      </c>
+      <c r="D144">
+        <v>612000000</v>
+      </c>
+      <c r="E144">
+        <v>763000000</v>
+      </c>
+      <c r="F144">
+        <v>912000000</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" t="s">
+        <v>148</v>
+      </c>
+      <c r="B145">
+        <v>544000000</v>
+      </c>
+      <c r="C145">
+        <v>421000000</v>
+      </c>
+      <c r="D145">
+        <v>435000000</v>
+      </c>
+      <c r="E145">
+        <v>641000000</v>
+      </c>
+      <c r="F145">
+        <v>769000000</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" t="s">
+        <v>149</v>
+      </c>
+      <c r="B146">
+        <v>213000000</v>
+      </c>
+      <c r="C146">
+        <v>277000000</v>
+      </c>
+      <c r="D146">
+        <v>331000000</v>
+      </c>
+      <c r="E146">
+        <v>510000000</v>
+      </c>
+      <c r="F146">
+        <v>664000000</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" t="s">
+        <v>150</v>
+      </c>
+      <c r="B147">
+        <v>432000000</v>
+      </c>
+      <c r="C147">
+        <v>604000000</v>
+      </c>
+      <c r="D147">
+        <v>809000000</v>
+      </c>
+      <c r="E147">
+        <v>1824000000</v>
+      </c>
+      <c r="F147">
+        <v>2473000000</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" t="s">
+        <v>151</v>
+      </c>
+      <c r="B148">
+        <v>-473000000</v>
+      </c>
+      <c r="C148">
+        <v>-499000000</v>
+      </c>
+      <c r="D148">
+        <v>-573000000</v>
+      </c>
+      <c r="E148">
+        <v>-1044000000</v>
+      </c>
+      <c r="F148">
+        <v>-1303000000</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" t="s">
+        <v>152</v>
+      </c>
+      <c r="B149">
+        <v>31546000000</v>
+      </c>
+      <c r="C149">
+        <v>8911000000</v>
+      </c>
+      <c r="D149">
+        <v>5748000000</v>
+      </c>
+      <c r="E149">
+        <v>9573000000</v>
+      </c>
+      <c r="F149">
+        <v>13623000000</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" t="s">
+        <v>153</v>
+      </c>
+      <c r="B150">
+        <v>13129000000</v>
+      </c>
+      <c r="C150">
+        <v>2140000000</v>
+      </c>
+      <c r="D150">
+        <v>2164000000</v>
+      </c>
+      <c r="E150">
+        <v>3288000000</v>
+      </c>
+      <c r="F150">
+        <v>3541000000</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" t="s">
+        <v>154</v>
+      </c>
+      <c r="B151">
+        <v>5451000000</v>
+      </c>
+      <c r="C151">
+        <v>3392000000</v>
+      </c>
+      <c r="D151">
+        <v>1630000000</v>
+      </c>
+      <c r="E151">
+        <v>2579000000</v>
+      </c>
+      <c r="F151">
+        <v>5158000000</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" t="s">
+        <v>155</v>
+      </c>
+      <c r="B152">
+        <v>5377000000</v>
+      </c>
+      <c r="C152">
+        <v>1807000000</v>
+      </c>
+      <c r="D152">
+        <v>651000000</v>
+      </c>
+      <c r="E152">
+        <v>1257000000</v>
+      </c>
+      <c r="F152">
+        <v>1611000000</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" t="s">
+        <v>156</v>
+      </c>
+      <c r="B153">
+        <v>4272000000</v>
+      </c>
+      <c r="C153">
+        <v>599000000</v>
+      </c>
+      <c r="D153">
+        <v>470000000</v>
+      </c>
+      <c r="E153">
+        <v>917000000</v>
+      </c>
+      <c r="F153">
+        <v>1012000000</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" t="s">
+        <v>157</v>
+      </c>
+      <c r="B154">
+        <v>3057000000</v>
+      </c>
+      <c r="C154">
+        <v>341000000</v>
+      </c>
+      <c r="D154">
+        <v>356000000</v>
+      </c>
+      <c r="E154">
+        <v>554000000</v>
+      </c>
+      <c r="F154">
+        <v>759000000</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" t="s">
+        <v>158</v>
+      </c>
+      <c r="B155">
+        <v>1082000000</v>
+      </c>
+      <c r="C155">
+        <v>1131000000</v>
+      </c>
+      <c r="D155">
+        <v>1066000000</v>
+      </c>
+      <c r="E155">
+        <v>2048000000</v>
+      </c>
+      <c r="F155">
+        <v>2874000000</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" t="s">
+        <v>159</v>
+      </c>
+      <c r="B156">
+        <v>-822000000</v>
+      </c>
+      <c r="C156">
+        <v>-499000000</v>
+      </c>
+      <c r="D156">
+        <v>-589000000</v>
+      </c>
+      <c r="E156">
+        <v>-1070000000</v>
+      </c>
+      <c r="F156">
+        <v>-1332000000</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" t="s">
+        <v>160</v>
+      </c>
+      <c r="B157">
+        <v>18318000000</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" t="s">
+        <v>161</v>
+      </c>
+      <c r="B158">
+        <v>10483000000</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" t="s">
+        <v>162</v>
+      </c>
+      <c r="B159">
+        <v>2743000000</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" t="s">
+        <v>163</v>
+      </c>
+      <c r="B160">
+        <v>2280000000</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" t="s">
+        <v>164</v>
+      </c>
+      <c r="B161">
+        <v>1877000000</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" t="s">
+        <v>165</v>
+      </c>
+      <c r="B162">
+        <v>865000000</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" t="s">
+        <v>166</v>
+      </c>
+      <c r="B163">
+        <v>70000000</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/balance_sheet.xlsx
+++ b/balance_sheet.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="168">
-  <si>
-    <t>TSLA_balance-sheet_Annual_As_Originally_Reported</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="138">
+  <si>
+    <t>AAPL_balance-sheet_Annual_As_Originally_Reported</t>
   </si>
   <si>
     <t>2020</t>
@@ -58,34 +58,28 @@
     <t>Other Short Term Investments</t>
   </si>
   <si>
-    <t>Available-for-Sale Securities, Current</t>
-  </si>
-  <si>
     <t>Inventories</t>
   </si>
   <si>
-    <t>Raw Materials, Consumables and Supplies</t>
-  </si>
-  <si>
-    <t>Work-in-Process</t>
-  </si>
-  <si>
-    <t>Finished Goods and Merchandise</t>
-  </si>
-  <si>
-    <t>Other Inventories</t>
-  </si>
-  <si>
     <t>Trade and Other Receivables, Current</t>
   </si>
   <si>
     <t>Trade/Accounts Receivable, Current</t>
   </si>
   <si>
+    <t>Gross Trade/Accounts Receivable, Current</t>
+  </si>
+  <si>
+    <t>Allowance/Adjustments for Trade/Accounts Receivable, Current</t>
+  </si>
+  <si>
+    <t>Other Receivables, Current</t>
+  </si>
+  <si>
     <t>Other Current Assets</t>
   </si>
   <si>
-    <t>Cash Restricted or Pledged, Current</t>
+    <t>Deferred Tax Assets, Current</t>
   </si>
   <si>
     <t>Total Non-Current Assets</t>
@@ -106,55 +100,43 @@
     <t>Leasehold and Improvements</t>
   </si>
   <si>
-    <t>Buildings and Improvements</t>
-  </si>
-  <si>
     <t>Machinery, Furniture and Equipment</t>
   </si>
   <si>
     <t>Plant and Machinery</t>
   </si>
   <si>
-    <t>Furniture, Fixtures and Office Equipment</t>
-  </si>
-  <si>
-    <t>Flight, Fleet, Vehicle and Related Equipment</t>
-  </si>
-  <si>
-    <t>Utility Plant</t>
-  </si>
-  <si>
-    <t>Electric Utility Plant</t>
-  </si>
-  <si>
-    <t>Construction in Progress and Advance Payments</t>
-  </si>
-  <si>
     <t>Leased Property, Plant and Equipment</t>
   </si>
   <si>
-    <t>Other Property, Plant and Equipment</t>
-  </si>
-  <si>
     <t>Accumulated Depreciation and Impairment</t>
   </si>
   <si>
     <t>Accumulated Depreciation</t>
   </si>
   <si>
-    <t>Accumulated Depreciation of Machinery, Furniture and Equipment</t>
-  </si>
-  <si>
-    <t>Accumulated Depreciation of Flight, Fleet, Vehicle and Related Equipments</t>
-  </si>
-  <si>
-    <t>Accumulated Depreciation of Utility Plant</t>
-  </si>
-  <si>
-    <t>Accumulated Depreciation of Electric Utility Plant</t>
-  </si>
-  <si>
-    <t>Accumulated Depreciation of Other Property, Plant and Equipment</t>
+    <t>Total Long Term Investments</t>
+  </si>
+  <si>
+    <t>Investment in Financial Assets, Non-Current</t>
+  </si>
+  <si>
+    <t>Other Financial Assets, Non-Current</t>
+  </si>
+  <si>
+    <t>Financial Investment Securities, Available-for-Sale &amp; Held-to-Maturity, Non-Current</t>
+  </si>
+  <si>
+    <t>Available-for-Sale Securities, Non-Current</t>
+  </si>
+  <si>
+    <t>Other Investments, Non-Current</t>
+  </si>
+  <si>
+    <t>Deferred Tax Assets, Non-Current</t>
+  </si>
+  <si>
+    <t>Other Non-Current Assets</t>
   </si>
   <si>
     <t>Net Intangible Assets</t>
@@ -169,21 +151,12 @@
     <t>Intangibles other than Goodwill</t>
   </si>
   <si>
+    <t>Trademarks and Patents</t>
+  </si>
+  <si>
     <t>Other Intangible Assets</t>
   </si>
   <si>
-    <t>Trademarks and Patents</t>
-  </si>
-  <si>
-    <t>Software and Technology</t>
-  </si>
-  <si>
-    <t>Licenses and Rights</t>
-  </si>
-  <si>
-    <t>Research and Development</t>
-  </si>
-  <si>
     <t>Accumulated Amortization and Impairment</t>
   </si>
   <si>
@@ -193,33 +166,12 @@
     <t>Accumulated Amortization of Intangibles other than Goodwill</t>
   </si>
   <si>
+    <t>Accumulated Amortization of Other Intangible Assets</t>
+  </si>
+  <si>
     <t>Accumulated Amortization of Trademarks and Patents</t>
   </si>
   <si>
-    <t>Accumulated Amortization of Software and Technology</t>
-  </si>
-  <si>
-    <t>Accumulated Amortization of Other Intangible Assets</t>
-  </si>
-  <si>
-    <t>Accumulated Amortization of Research and Development</t>
-  </si>
-  <si>
-    <t>Deferred Tax Assets, Non-Current</t>
-  </si>
-  <si>
-    <t>Other Non-Current Assets</t>
-  </si>
-  <si>
-    <t>Trade and Other Receivables, Non-Current</t>
-  </si>
-  <si>
-    <t>Notes Receivable, Non-Current</t>
-  </si>
-  <si>
-    <t>Cash Restricted or Pledged, Non-Current</t>
-  </si>
-  <si>
     <t>Total Liabilities</t>
   </si>
   <si>
@@ -238,9 +190,6 @@
     <t>Taxes Payable, Current</t>
   </si>
   <si>
-    <t>Interest Payable, Current</t>
-  </si>
-  <si>
     <t>Accrued Expenses, Current</t>
   </si>
   <si>
@@ -250,39 +199,27 @@
     <t>Current Debt and Capital Lease Obligation</t>
   </si>
   <si>
+    <t>Current Debt</t>
+  </si>
+  <si>
+    <t>Commercial Paper</t>
+  </si>
+  <si>
     <t>Current Portion of Long Term Debt and Capital Lease</t>
   </si>
   <si>
     <t>Current Portion of Long Term Debt</t>
   </si>
   <si>
+    <t>Other Current Portion of LT Debt</t>
+  </si>
+  <si>
     <t>Bank/Institutional Loans, Current Portion of LT Debt</t>
   </si>
   <si>
-    <t>Other Current Portion of LT Debt</t>
-  </si>
-  <si>
-    <t>Convertible Loans/Debentures, Current Portion of LT Debt</t>
-  </si>
-  <si>
     <t>Capital Lease Obligations, Current</t>
   </si>
   <si>
-    <t>Current Debt</t>
-  </si>
-  <si>
-    <t>Other Loans, Current Debt</t>
-  </si>
-  <si>
-    <t>Bank/Credit Facilities, Current Debt</t>
-  </si>
-  <si>
-    <t>Provisions, Current</t>
-  </si>
-  <si>
-    <t>Other Provisions, Current</t>
-  </si>
-  <si>
     <t>Deferred Liabilities, Current</t>
   </si>
   <si>
@@ -310,22 +247,25 @@
     <t>Bank/Institutional Loans, Non-Current</t>
   </si>
   <si>
-    <t>Other Loans, Non-Current</t>
-  </si>
-  <si>
-    <t>Convertible Debentures/Loans, Non-Current</t>
-  </si>
-  <si>
-    <t>Borrowings from Associates and Related Parties, Non-Current</t>
-  </si>
-  <si>
     <t>Capital Lease Obligations, Non-Current</t>
   </si>
   <si>
-    <t>Provisions, Non-Current</t>
-  </si>
-  <si>
-    <t>Other Provisions, Non-Current</t>
+    <t>Payables and Accrued Expenses, Non-Current</t>
+  </si>
+  <si>
+    <t>Trade and Other Payables, Non-Current</t>
+  </si>
+  <si>
+    <t>Taxes Payable, Non-Current</t>
+  </si>
+  <si>
+    <t>Other Non-Current Liabilities</t>
+  </si>
+  <si>
+    <t>Tax Liabilities, Non-Current</t>
+  </si>
+  <si>
+    <t>Deferred Tax Liabilities, Non-Current</t>
   </si>
   <si>
     <t>Deferred Liabilities, Non-Current</t>
@@ -334,18 +274,6 @@
     <t>Deferred Income/Customer Advances/Billings in Excess of Cost, Non-Current</t>
   </si>
   <si>
-    <t>Other Deferred Liabilities, Non-Current</t>
-  </si>
-  <si>
-    <t>Other Non-Current Liabilities</t>
-  </si>
-  <si>
-    <t>Tax Liabilities, Non-Current</t>
-  </si>
-  <si>
-    <t>Deferred Tax Liabilities, Non-Current</t>
-  </si>
-  <si>
     <t>Total Equity</t>
   </si>
   <si>
@@ -358,15 +286,6 @@
     <t>Capital Stock</t>
   </si>
   <si>
-    <t>Common Stock</t>
-  </si>
-  <si>
-    <t>Preferred Stock</t>
-  </si>
-  <si>
-    <t>Additional Paid in Capital/Share Premium</t>
-  </si>
-  <si>
     <t>Retained Earnings/Accumulated Deficit</t>
   </si>
   <si>
@@ -376,9 +295,6 @@
     <t>Other Reserves/Accum.Comp.Inc</t>
   </si>
   <si>
-    <t>Non-Controlling/Minority Interests in Equity</t>
-  </si>
-  <si>
     <t>Debt Maturity Schedule Total</t>
   </si>
   <si>
@@ -502,22 +418,16 @@
     <t>Other Contractual Obligations due in Year 1</t>
   </si>
   <si>
-    <t>Other Contractual Obligations due in Year 2</t>
-  </si>
-  <si>
     <t>Other Contractual Obligations due in Year 3</t>
   </si>
   <si>
-    <t>Other Contractual Obligations due in Year 4</t>
-  </si>
-  <si>
     <t>Other Contractual Obligations due in Year 5</t>
   </si>
   <si>
     <t>Other Contractual Obligations due Beyond</t>
   </si>
   <si>
-    <t>Fiscal year ends in Dec 31 | USD</t>
+    <t>Fiscal year ends in Sep 30 | USD</t>
   </si>
 </sst>
 </file>
@@ -875,7 +785,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F164"/>
+  <dimension ref="A1:F134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -906,19 +816,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>52148000000</v>
+        <v>323888000000</v>
       </c>
       <c r="C2">
-        <v>62131000000</v>
+        <v>351002000000</v>
       </c>
       <c r="D2">
-        <v>82338000000</v>
+        <v>352755000000</v>
       </c>
       <c r="E2">
-        <v>106618000000</v>
+        <v>352583000000</v>
       </c>
       <c r="F2">
-        <v>122070000000</v>
+        <v>364980000000</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -926,19 +836,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>26717000000</v>
+        <v>143713000000</v>
       </c>
       <c r="C3">
-        <v>27100000000</v>
+        <v>134836000000</v>
       </c>
       <c r="D3">
-        <v>40917000000</v>
+        <v>135405000000</v>
       </c>
       <c r="E3">
-        <v>49616000000</v>
+        <v>143566000000</v>
       </c>
       <c r="F3">
-        <v>58360000000</v>
+        <v>152987000000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -946,19 +856,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>19384000000</v>
+        <v>90943000000</v>
       </c>
       <c r="C4">
-        <v>17707000000</v>
+        <v>62639000000</v>
       </c>
       <c r="D4">
-        <v>22185000000</v>
+        <v>48304000000</v>
       </c>
       <c r="E4">
-        <v>29094000000</v>
+        <v>61555000000</v>
       </c>
       <c r="F4">
-        <v>36563000000</v>
+        <v>65171000000</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -966,86 +876,119 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>19384000000</v>
+        <v>38016000000</v>
       </c>
       <c r="C5">
-        <v>17576000000</v>
+        <v>34940000000</v>
       </c>
       <c r="D5">
-        <v>16253000000</v>
+        <v>23646000000</v>
       </c>
       <c r="E5">
-        <v>16398000000</v>
+        <v>29965000000</v>
       </c>
       <c r="F5">
-        <v>16139000000</v>
+        <v>29943000000</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>10</v>
       </c>
+      <c r="B6">
+        <v>17773000000</v>
+      </c>
+      <c r="C6">
+        <v>17305000000</v>
+      </c>
       <c r="D6">
-        <v>13965000000</v>
+        <v>18546000000</v>
       </c>
       <c r="E6">
-        <v>15903000000</v>
+        <v>28359000000</v>
       </c>
       <c r="F6">
-        <v>14386000000</v>
+        <v>27199000000</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>11</v>
       </c>
+      <c r="B7">
+        <v>20243000000</v>
+      </c>
+      <c r="C7">
+        <v>17635000000</v>
+      </c>
       <c r="D7">
-        <v>2288000000</v>
+        <v>5100000000</v>
       </c>
       <c r="E7">
-        <v>495000000</v>
+        <v>1606000000</v>
       </c>
       <c r="F7">
-        <v>1753000000</v>
+        <v>2744000000</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>12</v>
       </c>
+      <c r="B8">
+        <v>52927000000</v>
+      </c>
       <c r="C8">
-        <v>131000000</v>
+        <v>27699000000</v>
       </c>
       <c r="D8">
-        <v>5932000000</v>
+        <v>24658000000</v>
       </c>
       <c r="E8">
-        <v>12696000000</v>
+        <v>31590000000</v>
       </c>
       <c r="F8">
-        <v>20424000000</v>
+        <v>35228000000</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>13</v>
       </c>
+      <c r="B9">
+        <v>52927000000</v>
+      </c>
+      <c r="C9">
+        <v>27699000000</v>
+      </c>
       <c r="D9">
-        <v>5932000000</v>
+        <v>24658000000</v>
       </c>
       <c r="E9">
-        <v>12696000000</v>
+        <v>31590000000</v>
       </c>
       <c r="F9">
-        <v>20424000000</v>
+        <v>35228000000</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>14</v>
       </c>
+      <c r="B10">
+        <v>4061000000</v>
+      </c>
       <c r="C10">
-        <v>131000000</v>
+        <v>6580000000</v>
+      </c>
+      <c r="D10">
+        <v>4946000000</v>
+      </c>
+      <c r="E10">
+        <v>6331000000</v>
+      </c>
+      <c r="F10">
+        <v>7286000000</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1053,19 +996,19 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>4101000000</v>
+        <v>37445000000</v>
       </c>
       <c r="C11">
-        <v>5757000000</v>
+        <v>51506000000</v>
       </c>
       <c r="D11">
-        <v>12839000000</v>
+        <v>60932000000</v>
       </c>
       <c r="E11">
-        <v>13626000000</v>
+        <v>60985000000</v>
       </c>
       <c r="F11">
-        <v>12017000000</v>
+        <v>66243000000</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1073,79 +1016,49 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>1508000000</v>
+        <v>16120000000</v>
       </c>
       <c r="C12">
-        <v>2816000000</v>
+        <v>26278000000</v>
       </c>
       <c r="D12">
-        <v>6137000000</v>
+        <v>28184000000</v>
       </c>
       <c r="E12">
-        <v>5390000000</v>
+        <v>29508000000</v>
       </c>
       <c r="F12">
-        <v>5242000000</v>
+        <v>33410000000</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B13">
-        <v>493000000</v>
-      </c>
-      <c r="C13">
-        <v>1089000000</v>
-      </c>
-      <c r="D13">
-        <v>2385000000</v>
-      </c>
-      <c r="E13">
-        <v>2016000000</v>
-      </c>
-      <c r="F13">
-        <v>1532000000</v>
-      </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="B14">
-        <v>1666000000</v>
-      </c>
-      <c r="C14">
-        <v>1277000000</v>
-      </c>
-      <c r="D14">
-        <v>3475000000</v>
-      </c>
-      <c r="E14">
-        <v>5049000000</v>
-      </c>
-      <c r="F14">
-        <v>3940000000</v>
-      </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>19</v>
       </c>
       <c r="B15">
-        <v>434000000</v>
+        <v>21325000000</v>
       </c>
       <c r="C15">
-        <v>575000000</v>
+        <v>25228000000</v>
       </c>
       <c r="D15">
-        <v>842000000</v>
+        <v>32748000000</v>
       </c>
       <c r="E15">
-        <v>1171000000</v>
+        <v>31477000000</v>
       </c>
       <c r="F15">
-        <v>1303000000</v>
+        <v>32833000000</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1153,84 +1066,84 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>1886000000</v>
+        <v>11264000000</v>
       </c>
       <c r="C16">
-        <v>1913000000</v>
+        <v>14111000000</v>
       </c>
       <c r="D16">
-        <v>2952000000</v>
+        <v>21223000000</v>
       </c>
       <c r="E16">
-        <v>3508000000</v>
+        <v>14695000000</v>
       </c>
       <c r="F16">
-        <v>4418000000</v>
+        <v>14287000000</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>21</v>
       </c>
-      <c r="B17">
-        <v>1886000000</v>
-      </c>
-      <c r="C17">
-        <v>1913000000</v>
-      </c>
-      <c r="D17">
-        <v>2952000000</v>
-      </c>
-      <c r="E17">
-        <v>3508000000</v>
-      </c>
-      <c r="F17">
-        <v>4418000000</v>
-      </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>22</v>
       </c>
       <c r="B18">
-        <v>1346000000</v>
+        <v>180175000000</v>
       </c>
       <c r="C18">
-        <v>1723000000</v>
+        <v>216166000000</v>
       </c>
       <c r="D18">
-        <v>2941000000</v>
+        <v>217350000000</v>
       </c>
       <c r="E18">
-        <v>3388000000</v>
+        <v>209017000000</v>
       </c>
       <c r="F18">
-        <v>5362000000</v>
+        <v>211993000000</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>23</v>
       </c>
+      <c r="B19">
+        <v>45336000000</v>
+      </c>
+      <c r="C19">
+        <v>49527000000</v>
+      </c>
+      <c r="D19">
+        <v>52534000000</v>
+      </c>
+      <c r="E19">
+        <v>43715000000</v>
+      </c>
+      <c r="F19">
+        <v>45680000000</v>
+      </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>24</v>
       </c>
       <c r="B20">
-        <v>25434000000</v>
+        <v>112096000000</v>
       </c>
       <c r="C20">
-        <v>35027000000</v>
+        <v>119810000000</v>
       </c>
       <c r="D20">
-        <v>41426000000</v>
+        <v>124874000000</v>
       </c>
       <c r="E20">
-        <v>57002000000</v>
+        <v>114599000000</v>
       </c>
       <c r="F20">
-        <v>63716000000</v>
+        <v>119128000000</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1238,19 +1151,19 @@
         <v>25</v>
       </c>
       <c r="B21">
-        <v>23378000000</v>
+        <v>28235000000</v>
       </c>
       <c r="C21">
-        <v>31172000000</v>
+        <v>31064000000</v>
       </c>
       <c r="D21">
-        <v>36640000000</v>
+        <v>33397000000</v>
       </c>
       <c r="E21">
-        <v>45123000000</v>
+        <v>36285000000</v>
       </c>
       <c r="F21">
-        <v>51507000000</v>
+        <v>38923000000</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1258,19 +1171,19 @@
         <v>26</v>
       </c>
       <c r="B22">
-        <v>29896000000</v>
+        <v>17952000000</v>
       </c>
       <c r="C22">
-        <v>39863000000</v>
+        <v>20041000000</v>
       </c>
       <c r="D22">
-        <v>48139000000</v>
+        <v>22126000000</v>
       </c>
       <c r="E22">
-        <v>60203000000</v>
+        <v>23446000000</v>
       </c>
       <c r="F22">
-        <v>70405000000</v>
+        <v>24690000000</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1278,19 +1191,19 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>5083000000</v>
+        <v>10283000000</v>
       </c>
       <c r="C23">
-        <v>6501000000</v>
+        <v>11023000000</v>
       </c>
       <c r="D23">
-        <v>10117000000</v>
+        <v>11271000000</v>
       </c>
       <c r="E23">
-        <v>12673000000</v>
+        <v>12839000000</v>
       </c>
       <c r="F23">
-        <v>14365000000</v>
+        <v>14233000000</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1298,19 +1211,19 @@
         <v>28</v>
       </c>
       <c r="B24">
-        <v>3662000000</v>
+        <v>75291000000</v>
       </c>
       <c r="C24">
-        <v>4675000000</v>
+        <v>78659000000</v>
       </c>
       <c r="D24">
-        <v>7751000000</v>
+        <v>81060000000</v>
       </c>
       <c r="E24">
-        <v>9505000000</v>
+        <v>78314000000</v>
       </c>
       <c r="F24">
-        <v>10677000000</v>
+        <v>80205000000</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1318,44 +1231,53 @@
         <v>29</v>
       </c>
       <c r="B25">
-        <v>1421000000</v>
+        <v>75291000000</v>
       </c>
       <c r="C25">
-        <v>1826000000</v>
+        <v>78659000000</v>
       </c>
       <c r="D25">
-        <v>2366000000</v>
+        <v>81060000000</v>
       </c>
       <c r="E25">
-        <v>3168000000</v>
+        <v>78314000000</v>
       </c>
       <c r="F25">
-        <v>3688000000</v>
+        <v>80205000000</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>30</v>
       </c>
+      <c r="B26">
+        <v>8570000000</v>
+      </c>
+      <c r="C26">
+        <v>10087000000</v>
+      </c>
+      <c r="D26">
+        <v>10417000000</v>
+      </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>31</v>
       </c>
       <c r="B27">
-        <v>12889000000</v>
+        <v>-66760000000</v>
       </c>
       <c r="C27">
-        <v>16647000000</v>
+        <v>-70283000000</v>
       </c>
       <c r="D27">
-        <v>21710000000</v>
+        <v>-72340000000</v>
       </c>
       <c r="E27">
-        <v>27540000000</v>
+        <v>-70884000000</v>
       </c>
       <c r="F27">
-        <v>28272000000</v>
+        <v>-73448000000</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1363,19 +1285,19 @@
         <v>32</v>
       </c>
       <c r="B28">
-        <v>8493000000</v>
+        <v>-66760000000</v>
       </c>
       <c r="C28">
-        <v>9953000000</v>
+        <v>-70283000000</v>
       </c>
       <c r="D28">
-        <v>13558000000</v>
+        <v>-72340000000</v>
       </c>
       <c r="E28">
-        <v>16372000000</v>
+        <v>-70884000000</v>
       </c>
       <c r="F28">
-        <v>18339000000</v>
+        <v>-73448000000</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1383,99 +1305,60 @@
         <v>33</v>
       </c>
       <c r="B29">
-        <v>856000000</v>
+        <v>100887000000</v>
       </c>
       <c r="C29">
-        <v>1414000000</v>
+        <v>127877000000</v>
       </c>
       <c r="D29">
-        <v>2072000000</v>
+        <v>120805000000</v>
       </c>
       <c r="E29">
-        <v>3799000000</v>
+        <v>100544000000</v>
       </c>
       <c r="F29">
-        <v>2902000000</v>
+        <v>91479000000</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>34</v>
       </c>
-      <c r="B30">
-        <v>3540000000</v>
-      </c>
-      <c r="C30">
-        <v>5280000000</v>
-      </c>
       <c r="D30">
-        <v>6080000000</v>
+        <v>120805000000</v>
       </c>
       <c r="E30">
-        <v>7369000000</v>
+        <v>100544000000</v>
       </c>
       <c r="F30">
-        <v>7031000000</v>
+        <v>91479000000</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>35</v>
       </c>
-      <c r="B31">
-        <v>6861000000</v>
-      </c>
-      <c r="C31">
-        <v>6913000000</v>
-      </c>
       <c r="D31">
-        <v>6889000000</v>
-      </c>
-      <c r="E31">
-        <v>6859000000</v>
+        <v>120805000000</v>
       </c>
       <c r="F31">
-        <v>6790000000</v>
+        <v>91479000000</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>36</v>
       </c>
-      <c r="B32">
-        <v>6861000000</v>
-      </c>
-      <c r="C32">
-        <v>6913000000</v>
-      </c>
-      <c r="D32">
-        <v>6889000000</v>
-      </c>
       <c r="E32">
-        <v>6859000000</v>
-      </c>
-      <c r="F32">
-        <v>6790000000</v>
+        <v>100544000000</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>37</v>
       </c>
-      <c r="B33">
-        <v>1694000000</v>
-      </c>
-      <c r="C33">
-        <v>5598000000</v>
-      </c>
-      <c r="D33">
-        <v>4281000000</v>
-      </c>
       <c r="E33">
-        <v>5804000000</v>
-      </c>
-      <c r="F33">
-        <v>6783000000</v>
+        <v>100544000000</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1483,39 +1366,21 @@
         <v>38</v>
       </c>
       <c r="B34">
-        <v>1558000000</v>
+        <v>100887000000</v>
       </c>
       <c r="C34">
-        <v>2016000000</v>
-      </c>
-      <c r="D34">
-        <v>2563000000</v>
-      </c>
-      <c r="E34">
-        <v>4180000000</v>
-      </c>
-      <c r="F34">
-        <v>5160000000</v>
+        <v>127877000000</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>39</v>
       </c>
-      <c r="B35">
-        <v>1811000000</v>
-      </c>
-      <c r="C35">
-        <v>2188000000</v>
-      </c>
-      <c r="D35">
-        <v>2579000000</v>
-      </c>
       <c r="E35">
-        <v>3147000000</v>
+        <v>17852000000</v>
       </c>
       <c r="F35">
-        <v>9035000000</v>
+        <v>19499000000</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1523,250 +1388,94 @@
         <v>40</v>
       </c>
       <c r="B36">
-        <v>-6518000000</v>
+        <v>33952000000</v>
       </c>
       <c r="C36">
-        <v>-8691000000</v>
+        <v>38762000000</v>
       </c>
       <c r="D36">
-        <v>-11499000000</v>
+        <v>44011000000</v>
       </c>
       <c r="E36">
-        <v>-15080000000</v>
+        <v>46906000000</v>
       </c>
       <c r="F36">
-        <v>-18898000000</v>
+        <v>55335000000</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>41</v>
       </c>
-      <c r="B37">
-        <v>-6518000000</v>
-      </c>
-      <c r="C37">
-        <v>-8691000000</v>
-      </c>
-      <c r="D37">
-        <v>-11499000000</v>
-      </c>
-      <c r="E37">
-        <v>-15080000000</v>
-      </c>
-      <c r="F37">
-        <v>-18898000000</v>
-      </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>42</v>
       </c>
-      <c r="B38">
-        <v>-446000000</v>
-      </c>
-      <c r="C38">
-        <v>-773000000</v>
-      </c>
-      <c r="D38">
-        <v>-1040000000</v>
-      </c>
-      <c r="E38">
-        <v>-1380000000</v>
-      </c>
-      <c r="F38">
-        <v>-1450000000</v>
-      </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>43</v>
       </c>
-      <c r="B39">
-        <v>-446000000</v>
-      </c>
-      <c r="C39">
-        <v>-773000000</v>
-      </c>
-      <c r="D39">
-        <v>-1040000000</v>
-      </c>
-      <c r="E39">
-        <v>-1380000000</v>
-      </c>
-      <c r="F39">
-        <v>-1450000000</v>
-      </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>44</v>
       </c>
-      <c r="B40">
-        <v>-955000000</v>
-      </c>
-      <c r="C40">
-        <v>-1187000000</v>
-      </c>
-      <c r="D40">
-        <v>-1418000000</v>
-      </c>
-      <c r="E40">
-        <v>-1643000000</v>
-      </c>
-      <c r="F40">
-        <v>-1860000000</v>
-      </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>45</v>
       </c>
-      <c r="B41">
-        <v>-955000000</v>
-      </c>
-      <c r="C41">
-        <v>-1187000000</v>
-      </c>
-      <c r="D41">
-        <v>-1418000000</v>
-      </c>
-      <c r="E41">
-        <v>-1643000000</v>
-      </c>
-      <c r="F41">
-        <v>-1860000000</v>
-      </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>46</v>
       </c>
-      <c r="B42">
-        <v>-5117000000</v>
-      </c>
-      <c r="C42">
-        <v>-6731000000</v>
-      </c>
-      <c r="D42">
-        <v>-9041000000</v>
-      </c>
-      <c r="E42">
-        <v>-12057000000</v>
-      </c>
-      <c r="F42">
-        <v>-15588000000</v>
-      </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>47</v>
       </c>
-      <c r="B43">
-        <v>520000000</v>
-      </c>
-      <c r="C43">
-        <v>1717000000</v>
-      </c>
-      <c r="D43">
-        <v>593000000</v>
-      </c>
-      <c r="E43">
-        <v>615000000</v>
-      </c>
-      <c r="F43">
-        <v>1470000000</v>
-      </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>48</v>
       </c>
-      <c r="B44">
-        <v>682000000</v>
-      </c>
-      <c r="C44">
-        <v>1929000000</v>
-      </c>
-      <c r="D44">
-        <v>593000000</v>
-      </c>
-      <c r="E44">
-        <v>615000000</v>
-      </c>
-      <c r="F44">
-        <v>1470000000</v>
-      </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>49</v>
       </c>
-      <c r="B45">
-        <v>207000000</v>
-      </c>
-      <c r="C45">
-        <v>200000000</v>
-      </c>
-      <c r="D45">
-        <v>194000000</v>
-      </c>
-      <c r="E45">
-        <v>253000000</v>
-      </c>
-      <c r="F45">
-        <v>244000000</v>
-      </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>50</v>
       </c>
-      <c r="B46">
-        <v>475000000</v>
-      </c>
-      <c r="C46">
-        <v>1729000000</v>
-      </c>
-      <c r="D46">
-        <v>399000000</v>
-      </c>
-      <c r="E46">
-        <v>362000000</v>
-      </c>
-      <c r="F46">
-        <v>1226000000</v>
-      </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>51</v>
       </c>
-      <c r="B47">
-        <v>152000000</v>
-      </c>
-      <c r="C47">
-        <v>1410000000</v>
-      </c>
-      <c r="D47">
-        <v>399000000</v>
-      </c>
-      <c r="E47">
-        <v>362000000</v>
-      </c>
-      <c r="F47">
-        <v>1226000000</v>
-      </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>52</v>
       </c>
       <c r="B48">
-        <v>3000000</v>
+        <v>258549000000</v>
       </c>
       <c r="C48">
-        <v>2000000</v>
+        <v>287912000000</v>
+      </c>
+      <c r="D48">
+        <v>302083000000</v>
+      </c>
+      <c r="E48">
+        <v>290437000000</v>
+      </c>
+      <c r="F48">
+        <v>308030000000</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1774,10 +1483,19 @@
         <v>53</v>
       </c>
       <c r="B49">
-        <v>305000000</v>
+        <v>105392000000</v>
       </c>
       <c r="C49">
-        <v>302000000</v>
+        <v>125481000000</v>
+      </c>
+      <c r="D49">
+        <v>153982000000</v>
+      </c>
+      <c r="E49">
+        <v>145308000000</v>
+      </c>
+      <c r="F49">
+        <v>176392000000</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1785,10 +1503,19 @@
         <v>54</v>
       </c>
       <c r="B50">
-        <v>15000000</v>
+        <v>42296000000</v>
       </c>
       <c r="C50">
-        <v>15000000</v>
+        <v>54763000000</v>
+      </c>
+      <c r="D50">
+        <v>64115000000</v>
+      </c>
+      <c r="E50">
+        <v>71430000000</v>
+      </c>
+      <c r="F50">
+        <v>95561000000</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1796,7 +1523,19 @@
         <v>55</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>42296000000</v>
+      </c>
+      <c r="C51">
+        <v>54763000000</v>
+      </c>
+      <c r="D51">
+        <v>64115000000</v>
+      </c>
+      <c r="E51">
+        <v>71430000000</v>
+      </c>
+      <c r="F51">
+        <v>95561000000</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1804,43 +1543,55 @@
         <v>56</v>
       </c>
       <c r="B52">
-        <v>-162000000</v>
+        <v>42296000000</v>
       </c>
       <c r="C52">
-        <v>-212000000</v>
+        <v>54763000000</v>
+      </c>
+      <c r="D52">
+        <v>64115000000</v>
+      </c>
+      <c r="E52">
+        <v>62611000000</v>
+      </c>
+      <c r="F52">
+        <v>68960000000</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>57</v>
       </c>
-      <c r="B53">
-        <v>-162000000</v>
-      </c>
-      <c r="C53">
-        <v>-212000000</v>
+      <c r="E53">
+        <v>8819000000</v>
+      </c>
+      <c r="F53">
+        <v>26601000000</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>58</v>
       </c>
-      <c r="B54">
-        <v>-162000000</v>
-      </c>
-      <c r="C54">
-        <v>-212000000</v>
-      </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>59</v>
       </c>
       <c r="B55">
-        <v>-1000000</v>
+        <v>15229000000</v>
       </c>
       <c r="C55">
-        <v>-1000000</v>
+        <v>17141000000</v>
+      </c>
+      <c r="D55">
+        <v>22773000000</v>
+      </c>
+      <c r="E55">
+        <v>17382000000</v>
+      </c>
+      <c r="F55">
+        <v>20879000000</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1848,10 +1599,19 @@
         <v>60</v>
       </c>
       <c r="B56">
-        <v>-111000000</v>
+        <v>15229000000</v>
       </c>
       <c r="C56">
-        <v>-150000000</v>
+        <v>17141000000</v>
+      </c>
+      <c r="D56">
+        <v>22773000000</v>
+      </c>
+      <c r="E56">
+        <v>17382000000</v>
+      </c>
+      <c r="F56">
+        <v>20879000000</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1859,26 +1619,59 @@
         <v>61</v>
       </c>
       <c r="B57">
-        <v>-50000000</v>
+        <v>4996000000</v>
       </c>
       <c r="C57">
-        <v>-61000000</v>
+        <v>6000000000</v>
+      </c>
+      <c r="D57">
+        <v>9982000000</v>
+      </c>
+      <c r="E57">
+        <v>5985000000</v>
+      </c>
+      <c r="F57">
+        <v>9967000000</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>62</v>
       </c>
+      <c r="B58">
+        <v>4996000000</v>
+      </c>
+      <c r="C58">
+        <v>6000000000</v>
+      </c>
+      <c r="D58">
+        <v>9982000000</v>
+      </c>
+      <c r="E58">
+        <v>5985000000</v>
+      </c>
+      <c r="F58">
+        <v>9967000000</v>
+      </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>63</v>
       </c>
+      <c r="B59">
+        <v>10233000000</v>
+      </c>
+      <c r="C59">
+        <v>11141000000</v>
+      </c>
+      <c r="D59">
+        <v>12791000000</v>
+      </c>
       <c r="E59">
-        <v>6733000000</v>
+        <v>11397000000</v>
       </c>
       <c r="F59">
-        <v>6524000000</v>
+        <v>10912000000</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1886,54 +1679,81 @@
         <v>64</v>
       </c>
       <c r="B60">
-        <v>1536000000</v>
+        <v>8773000000</v>
       </c>
       <c r="C60">
-        <v>2138000000</v>
+        <v>9613000000</v>
       </c>
       <c r="D60">
-        <v>4193000000</v>
+        <v>11128000000</v>
       </c>
       <c r="E60">
-        <v>4531000000</v>
+        <v>9822000000</v>
       </c>
       <c r="F60">
-        <v>4215000000</v>
+        <v>10912000000</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>65</v>
       </c>
+      <c r="C61">
+        <v>9613000000</v>
+      </c>
+      <c r="D61">
+        <v>11128000000</v>
+      </c>
+      <c r="E61">
+        <v>9822000000</v>
+      </c>
+      <c r="F61">
+        <v>10912000000</v>
+      </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>66</v>
       </c>
+      <c r="B62">
+        <v>8773000000</v>
+      </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
         <v>67</v>
       </c>
+      <c r="B63">
+        <v>1460000000</v>
+      </c>
+      <c r="C63">
+        <v>1528000000</v>
+      </c>
+      <c r="D63">
+        <v>1663000000</v>
+      </c>
+      <c r="E63">
+        <v>1575000000</v>
+      </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
         <v>68</v>
       </c>
       <c r="B64">
-        <v>28469000000</v>
+        <v>6643000000</v>
       </c>
       <c r="C64">
-        <v>30548000000</v>
+        <v>7612000000</v>
       </c>
       <c r="D64">
-        <v>36440000000</v>
+        <v>7912000000</v>
       </c>
       <c r="E64">
-        <v>43009000000</v>
+        <v>8061000000</v>
       </c>
       <c r="F64">
-        <v>48390000000</v>
+        <v>8249000000</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1941,19 +1761,19 @@
         <v>69</v>
       </c>
       <c r="B65">
-        <v>14248000000</v>
+        <v>6643000000</v>
       </c>
       <c r="C65">
-        <v>19705000000</v>
+        <v>7612000000</v>
       </c>
       <c r="D65">
-        <v>26709000000</v>
+        <v>7912000000</v>
       </c>
       <c r="E65">
-        <v>28748000000</v>
+        <v>8061000000</v>
       </c>
       <c r="F65">
-        <v>28821000000</v>
+        <v>8249000000</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1961,19 +1781,19 @@
         <v>70</v>
       </c>
       <c r="B66">
-        <v>8962000000</v>
+        <v>41224000000</v>
       </c>
       <c r="C66">
-        <v>14114000000</v>
+        <v>45965000000</v>
       </c>
       <c r="D66">
-        <v>20263000000</v>
+        <v>59182000000</v>
       </c>
       <c r="E66">
-        <v>19681000000</v>
+        <v>48435000000</v>
       </c>
       <c r="F66">
-        <v>17626000000</v>
+        <v>51703000000</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1981,19 +1801,19 @@
         <v>71</v>
       </c>
       <c r="B67">
-        <v>6905000000</v>
+        <v>153157000000</v>
       </c>
       <c r="C67">
-        <v>11163000000</v>
+        <v>162431000000</v>
       </c>
       <c r="D67">
-        <v>16490000000</v>
+        <v>148101000000</v>
       </c>
       <c r="E67">
-        <v>15635000000</v>
+        <v>145129000000</v>
       </c>
       <c r="F67">
-        <v>13841000000</v>
+        <v>131638000000</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2001,19 +1821,19 @@
         <v>72</v>
       </c>
       <c r="B68">
-        <v>6051000000</v>
+        <v>107049000000</v>
       </c>
       <c r="C68">
-        <v>10025000000</v>
+        <v>119381000000</v>
       </c>
       <c r="D68">
-        <v>15255000000</v>
+        <v>109707000000</v>
       </c>
       <c r="E68">
-        <v>14431000000</v>
+        <v>106548000000</v>
       </c>
       <c r="F68">
-        <v>12474000000</v>
+        <v>85750000000</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2021,19 +1841,19 @@
         <v>73</v>
       </c>
       <c r="B69">
-        <v>777000000</v>
+        <v>107049000000</v>
       </c>
       <c r="C69">
-        <v>1122000000</v>
+        <v>119381000000</v>
       </c>
       <c r="D69">
-        <v>1235000000</v>
+        <v>109707000000</v>
       </c>
       <c r="E69">
-        <v>1204000000</v>
+        <v>106548000000</v>
       </c>
       <c r="F69">
-        <v>1367000000</v>
+        <v>85750000000</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2041,30 +1861,36 @@
         <v>74</v>
       </c>
       <c r="B70">
-        <v>77000000</v>
+        <v>98667000000</v>
       </c>
       <c r="C70">
-        <v>16000000</v>
+        <v>109106000000</v>
+      </c>
+      <c r="D70">
+        <v>98959000000</v>
+      </c>
+      <c r="E70">
+        <v>95281000000</v>
+      </c>
+      <c r="F70">
+        <v>85750000000</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>75</v>
       </c>
-      <c r="B71">
-        <v>2057000000</v>
-      </c>
       <c r="C71">
-        <v>2951000000</v>
+        <v>109106000000</v>
       </c>
       <c r="D71">
-        <v>3773000000</v>
+        <v>98959000000</v>
       </c>
       <c r="E71">
-        <v>4046000000</v>
+        <v>95281000000</v>
       </c>
       <c r="F71">
-        <v>3785000000</v>
+        <v>85750000000</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2072,19 +1898,7 @@
         <v>76</v>
       </c>
       <c r="B72">
-        <v>2418000000</v>
-      </c>
-      <c r="C72">
-        <v>1957000000</v>
-      </c>
-      <c r="D72">
-        <v>1987000000</v>
-      </c>
-      <c r="E72">
-        <v>3045000000</v>
-      </c>
-      <c r="F72">
-        <v>3263000000</v>
+        <v>98667000000</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2092,19 +1906,16 @@
         <v>77</v>
       </c>
       <c r="B73">
-        <v>2418000000</v>
+        <v>8382000000</v>
       </c>
       <c r="C73">
-        <v>1957000000</v>
+        <v>10275000000</v>
       </c>
       <c r="D73">
-        <v>1987000000</v>
+        <v>10748000000</v>
       </c>
       <c r="E73">
-        <v>3045000000</v>
-      </c>
-      <c r="F73">
-        <v>3263000000</v>
+        <v>11267000000</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2112,19 +1923,19 @@
         <v>78</v>
       </c>
       <c r="B74">
-        <v>2418000000</v>
+        <v>28170000000</v>
       </c>
       <c r="C74">
-        <v>1957000000</v>
+        <v>24689000000</v>
       </c>
       <c r="D74">
-        <v>1987000000</v>
+        <v>16657000000</v>
       </c>
       <c r="E74">
-        <v>3045000000</v>
+        <v>15457000000</v>
       </c>
       <c r="F74">
-        <v>3263000000</v>
+        <v>9254000000</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2132,19 +1943,19 @@
         <v>79</v>
       </c>
       <c r="B75">
-        <v>1758000000</v>
+        <v>28170000000</v>
       </c>
       <c r="C75">
-        <v>1088000000</v>
+        <v>24689000000</v>
       </c>
       <c r="D75">
-        <v>1016000000</v>
+        <v>16657000000</v>
       </c>
       <c r="E75">
-        <v>1975000000</v>
+        <v>15457000000</v>
       </c>
       <c r="F75">
-        <v>2343000000</v>
+        <v>9254000000</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2152,19 +1963,19 @@
         <v>80</v>
       </c>
       <c r="B76">
-        <v>178000000</v>
+        <v>28170000000</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>24689000000</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>16657000000</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>15457000000</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>9254000000</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2172,48 +1983,30 @@
         <v>81</v>
       </c>
       <c r="B77">
-        <v>1576000000</v>
+        <v>17938000000</v>
       </c>
       <c r="C77">
-        <v>1088000000</v>
+        <v>18361000000</v>
       </c>
       <c r="D77">
-        <v>1016000000</v>
+        <v>21737000000</v>
       </c>
       <c r="E77">
-        <v>1975000000</v>
+        <v>23124000000</v>
       </c>
       <c r="F77">
-        <v>2343000000</v>
+        <v>36634000000</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
         <v>82</v>
       </c>
-      <c r="B78">
-        <v>4000000</v>
-      </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
         <v>83</v>
       </c>
-      <c r="B79">
-        <v>660000000</v>
-      </c>
-      <c r="C79">
-        <v>869000000</v>
-      </c>
-      <c r="D79">
-        <v>971000000</v>
-      </c>
-      <c r="E79">
-        <v>1070000000</v>
-      </c>
-      <c r="F79">
-        <v>920000000</v>
-      </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
@@ -2229,25 +2022,40 @@
       <c r="A82" t="s">
         <v>86</v>
       </c>
+      <c r="B82">
+        <v>65339000000</v>
+      </c>
+      <c r="C82">
+        <v>63090000000</v>
+      </c>
+      <c r="D82">
+        <v>50672000000</v>
+      </c>
+      <c r="E82">
+        <v>62146000000</v>
+      </c>
+      <c r="F82">
+        <v>56950000000</v>
+      </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
         <v>87</v>
       </c>
       <c r="B83">
-        <v>417000000</v>
+        <v>65339000000</v>
       </c>
       <c r="C83">
-        <v>968000000</v>
+        <v>63090000000</v>
       </c>
       <c r="D83">
-        <v>1295000000</v>
+        <v>50672000000</v>
       </c>
       <c r="E83">
-        <v>1765000000</v>
+        <v>62146000000</v>
       </c>
       <c r="F83">
-        <v>2222000000</v>
+        <v>56950000000</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2255,19 +2063,19 @@
         <v>88</v>
       </c>
       <c r="B84">
-        <v>417000000</v>
+        <v>50779000000</v>
       </c>
       <c r="C84">
-        <v>968000000</v>
+        <v>57365000000</v>
       </c>
       <c r="D84">
-        <v>1295000000</v>
+        <v>64849000000</v>
       </c>
       <c r="E84">
-        <v>1765000000</v>
+        <v>73812000000</v>
       </c>
       <c r="F84">
-        <v>2222000000</v>
+        <v>83276000000</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2275,19 +2083,19 @@
         <v>89</v>
       </c>
       <c r="B85">
-        <v>2210000000</v>
+        <v>50779000000</v>
       </c>
       <c r="C85">
-        <v>2372000000</v>
+        <v>57365000000</v>
       </c>
       <c r="D85">
-        <v>2810000000</v>
+        <v>64849000000</v>
       </c>
       <c r="E85">
-        <v>3740000000</v>
+        <v>73812000000</v>
       </c>
       <c r="F85">
-        <v>4161000000</v>
+        <v>83276000000</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2295,19 +2103,19 @@
         <v>90</v>
       </c>
       <c r="B86">
-        <v>2210000000</v>
+        <v>14966000000</v>
       </c>
       <c r="C86">
-        <v>2372000000</v>
+        <v>5562000000</v>
       </c>
       <c r="D86">
-        <v>2810000000</v>
+        <v>-3068000000</v>
       </c>
       <c r="E86">
-        <v>3740000000</v>
+        <v>-214000000</v>
       </c>
       <c r="F86">
-        <v>4161000000</v>
+        <v>-19154000000</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2315,19 +2123,19 @@
         <v>91</v>
       </c>
       <c r="B87">
-        <v>241000000</v>
+        <v>-406000000</v>
       </c>
       <c r="C87">
-        <v>294000000</v>
+        <v>163000000</v>
       </c>
       <c r="D87">
-        <v>354000000</v>
+        <v>-11109000000</v>
       </c>
       <c r="E87">
-        <v>517000000</v>
+        <v>-11452000000</v>
       </c>
       <c r="F87">
-        <v>1549000000</v>
+        <v>-7172000000</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2335,19 +2143,19 @@
         <v>92</v>
       </c>
       <c r="B88">
-        <v>14221000000</v>
+        <v>-406000000</v>
       </c>
       <c r="C88">
-        <v>10843000000</v>
+        <v>163000000</v>
       </c>
       <c r="D88">
-        <v>9731000000</v>
+        <v>-11109000000</v>
       </c>
       <c r="E88">
-        <v>14261000000</v>
+        <v>-11452000000</v>
       </c>
       <c r="F88">
-        <v>19569000000</v>
+        <v>-7172000000</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2355,19 +2163,19 @@
         <v>93</v>
       </c>
       <c r="B89">
-        <v>10861000000</v>
+        <v>112436000000</v>
       </c>
       <c r="C89">
-        <v>6916000000</v>
+        <v>124719000000</v>
       </c>
       <c r="D89">
-        <v>3761000000</v>
+        <v>120069000000</v>
       </c>
       <c r="E89">
-        <v>6528000000</v>
+        <v>111088000000</v>
       </c>
       <c r="F89">
-        <v>10360000000</v>
+        <v>106629000000</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2375,19 +2183,19 @@
         <v>94</v>
       </c>
       <c r="B90">
-        <v>10861000000</v>
+        <v>13746000000</v>
       </c>
       <c r="C90">
-        <v>6916000000</v>
+        <v>15583000000</v>
       </c>
       <c r="D90">
-        <v>3761000000</v>
+        <v>21121000000</v>
       </c>
       <c r="E90">
-        <v>6528000000</v>
+        <v>15928000000</v>
       </c>
       <c r="F90">
-        <v>10360000000</v>
+        <v>20897000000</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2395,19 +2203,19 @@
         <v>95</v>
       </c>
       <c r="B91">
-        <v>8513000000</v>
+        <v>9569000000</v>
       </c>
       <c r="C91">
-        <v>4254000000</v>
+        <v>11391000000</v>
       </c>
       <c r="D91">
-        <v>1029000000</v>
+        <v>9910000000</v>
       </c>
       <c r="E91">
-        <v>2682000000</v>
+        <v>10775000000</v>
       </c>
       <c r="F91">
-        <v>5535000000</v>
+        <v>12342000000</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2415,19 +2223,19 @@
         <v>96</v>
       </c>
       <c r="B92">
-        <v>5186000000</v>
+        <v>11389000000</v>
       </c>
       <c r="C92">
-        <v>2602000000</v>
+        <v>10202000000</v>
       </c>
       <c r="D92">
-        <v>670000000</v>
+        <v>10645000000</v>
       </c>
       <c r="E92">
-        <v>2352000000</v>
+        <v>12265000000</v>
       </c>
       <c r="F92">
-        <v>2496000000</v>
+        <v>9936000000</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2435,16 +2243,19 @@
         <v>97</v>
       </c>
       <c r="B93">
-        <v>1995000000</v>
+        <v>10115000000</v>
       </c>
       <c r="C93">
-        <v>1250000000</v>
+        <v>10914000000</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>11209000000</v>
+      </c>
+      <c r="E93">
+        <v>9786000000</v>
       </c>
       <c r="F93">
-        <v>2740000000</v>
+        <v>7800000000</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2452,19 +2263,19 @@
         <v>98</v>
       </c>
       <c r="B94">
-        <v>1281000000</v>
+        <v>10914000000</v>
       </c>
       <c r="C94">
-        <v>402000000</v>
+        <v>11408000000</v>
       </c>
       <c r="D94">
-        <v>359000000</v>
+        <v>9631000000</v>
       </c>
       <c r="E94">
-        <v>330000000</v>
+        <v>7800000000</v>
       </c>
       <c r="F94">
-        <v>299000000</v>
+        <v>5153000000</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2472,35 +2283,59 @@
         <v>99</v>
       </c>
       <c r="B95">
-        <v>51000000</v>
+        <v>55341000000</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>64565000000</v>
+      </c>
+      <c r="D95">
+        <v>59290000000</v>
+      </c>
+      <c r="E95">
+        <v>56003000000</v>
+      </c>
+      <c r="F95">
+        <v>51180000000</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
         <v>100</v>
       </c>
+      <c r="B96">
+        <v>1362000000</v>
+      </c>
+      <c r="C96">
+        <v>656000000</v>
+      </c>
+      <c r="D96">
+        <v>-1737000000</v>
+      </c>
+      <c r="E96">
+        <v>-1469000000</v>
+      </c>
+      <c r="F96">
+        <v>-679000000</v>
+      </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
         <v>101</v>
       </c>
       <c r="B97">
-        <v>2348000000</v>
+        <v>661000000</v>
       </c>
       <c r="C97">
-        <v>2662000000</v>
+        <v>848000000</v>
       </c>
       <c r="D97">
-        <v>2732000000</v>
+        <v>941000000</v>
       </c>
       <c r="E97">
-        <v>3846000000</v>
+        <v>1024000000</v>
       </c>
       <c r="F97">
-        <v>4825000000</v>
+        <v>896000000</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2508,19 +2343,19 @@
         <v>102</v>
       </c>
       <c r="B98">
-        <v>1489000000</v>
+        <v>43000000</v>
       </c>
       <c r="C98">
-        <v>1531000000</v>
+        <v>104000000</v>
       </c>
       <c r="D98">
-        <v>2531000000</v>
+        <v>155000000</v>
       </c>
       <c r="E98">
-        <v>3606000000</v>
+        <v>196000000</v>
       </c>
       <c r="F98">
-        <v>4799000000</v>
+        <v>171000000</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2528,19 +2363,19 @@
         <v>103</v>
       </c>
       <c r="B99">
-        <v>1489000000</v>
+        <v>43000000</v>
       </c>
       <c r="C99">
-        <v>1531000000</v>
+        <v>123000000</v>
       </c>
       <c r="D99">
-        <v>2531000000</v>
+        <v>130000000</v>
       </c>
       <c r="E99">
-        <v>3606000000</v>
+        <v>151000000</v>
       </c>
       <c r="F99">
-        <v>4799000000</v>
+        <v>131000000</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2548,19 +2383,19 @@
         <v>104</v>
       </c>
       <c r="B100">
-        <v>1284000000</v>
+        <v>54000000</v>
       </c>
       <c r="C100">
-        <v>2052000000</v>
+        <v>99000000</v>
       </c>
       <c r="D100">
-        <v>2804000000</v>
+        <v>81000000</v>
       </c>
       <c r="E100">
-        <v>3251000000</v>
+        <v>120000000</v>
       </c>
       <c r="F100">
-        <v>3317000000</v>
+        <v>59000000</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2568,44 +2403,59 @@
         <v>105</v>
       </c>
       <c r="B101">
-        <v>1284000000</v>
+        <v>30000000</v>
       </c>
       <c r="C101">
-        <v>2052000000</v>
+        <v>46000000</v>
       </c>
       <c r="D101">
-        <v>2804000000</v>
+        <v>48000000</v>
       </c>
       <c r="E101">
-        <v>3251000000</v>
+        <v>52000000</v>
       </c>
       <c r="F101">
-        <v>3317000000</v>
+        <v>38000000</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
         <v>106</v>
       </c>
+      <c r="B102">
+        <v>25000000</v>
+      </c>
+      <c r="C102">
+        <v>26000000</v>
+      </c>
+      <c r="D102">
+        <v>34000000</v>
+      </c>
+      <c r="E102">
+        <v>34000000</v>
+      </c>
+      <c r="F102">
+        <v>36000000</v>
+      </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
         <v>107</v>
       </c>
       <c r="B103">
-        <v>436000000</v>
+        <v>895000000</v>
       </c>
       <c r="C103">
-        <v>320000000</v>
+        <v>868000000</v>
       </c>
       <c r="D103">
-        <v>553000000</v>
+        <v>906000000</v>
       </c>
       <c r="E103">
-        <v>876000000</v>
+        <v>872000000</v>
       </c>
       <c r="F103">
-        <v>1093000000</v>
+        <v>837000000</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2613,13 +2463,19 @@
         <v>108</v>
       </c>
       <c r="B104">
-        <v>151000000</v>
+        <v>-429000000</v>
       </c>
       <c r="C104">
-        <v>24000000</v>
+        <v>-418000000</v>
       </c>
       <c r="D104">
-        <v>82000000</v>
+        <v>-413000000</v>
+      </c>
+      <c r="E104">
+        <v>-401000000</v>
+      </c>
+      <c r="F104">
+        <v>-376000000</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2627,13 +2483,19 @@
         <v>109</v>
       </c>
       <c r="B105">
-        <v>151000000</v>
+        <v>9181000000</v>
       </c>
       <c r="C105">
-        <v>24000000</v>
+        <v>10955000000</v>
       </c>
       <c r="D105">
-        <v>82000000</v>
+        <v>11470000000</v>
+      </c>
+      <c r="E105">
+        <v>11818000000</v>
+      </c>
+      <c r="F105">
+        <v>11534000000</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2641,19 +2503,19 @@
         <v>110</v>
       </c>
       <c r="B106">
-        <v>23679000000</v>
+        <v>1493000000</v>
       </c>
       <c r="C106">
-        <v>31583000000</v>
+        <v>1629000000</v>
       </c>
       <c r="D106">
-        <v>45898000000</v>
+        <v>1758000000</v>
       </c>
       <c r="E106">
-        <v>63609000000</v>
+        <v>1719000000</v>
       </c>
       <c r="F106">
-        <v>73680000000</v>
+        <v>1820000000</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2661,19 +2523,19 @@
         <v>111</v>
       </c>
       <c r="B107">
-        <v>22225000000</v>
+        <v>1461000000</v>
       </c>
       <c r="C107">
-        <v>30189000000</v>
+        <v>1560000000</v>
       </c>
       <c r="D107">
-        <v>44704000000</v>
+        <v>1742000000</v>
       </c>
       <c r="E107">
-        <v>62634000000</v>
+        <v>1875000000</v>
       </c>
       <c r="F107">
-        <v>72913000000</v>
+        <v>1914000000</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2681,19 +2543,19 @@
         <v>112</v>
       </c>
       <c r="B108">
-        <v>27261000000</v>
+        <v>1317000000</v>
       </c>
       <c r="C108">
-        <v>29804000000</v>
+        <v>1499000000</v>
       </c>
       <c r="D108">
-        <v>32180000000</v>
+        <v>1677000000</v>
       </c>
       <c r="E108">
-        <v>34895000000</v>
+        <v>1732000000</v>
       </c>
       <c r="F108">
-        <v>38374000000</v>
+        <v>1674000000</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2701,19 +2563,19 @@
         <v>113</v>
       </c>
       <c r="B109">
-        <v>27261000000</v>
+        <v>1068000000</v>
       </c>
       <c r="C109">
-        <v>29804000000</v>
+        <v>1251000000</v>
       </c>
       <c r="D109">
-        <v>32180000000</v>
+        <v>1382000000</v>
       </c>
       <c r="E109">
-        <v>34895000000</v>
+        <v>1351000000</v>
       </c>
       <c r="F109">
-        <v>38374000000</v>
+        <v>1360000000</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2721,19 +2583,19 @@
         <v>114</v>
       </c>
       <c r="B110">
-        <v>1000000</v>
+        <v>960000000</v>
       </c>
       <c r="C110">
-        <v>1000000</v>
+        <v>1061000000</v>
       </c>
       <c r="D110">
-        <v>3000000</v>
+        <v>1143000000</v>
       </c>
       <c r="E110">
-        <v>3000000</v>
+        <v>1181000000</v>
       </c>
       <c r="F110">
-        <v>3000000</v>
+        <v>1187000000</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2741,977 +2603,404 @@
         <v>115</v>
       </c>
       <c r="B111">
-        <v>0</v>
+        <v>3845000000</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>5187000000</v>
       </c>
       <c r="D111">
-        <v>0</v>
+        <v>5080000000</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>5983000000</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>5563000000</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B112">
-        <v>27260000000</v>
+        <v>-963000000</v>
       </c>
       <c r="C112">
-        <v>29803000000</v>
+        <v>-1232000000</v>
       </c>
       <c r="D112">
-        <v>32177000000</v>
+        <v>-1312000000</v>
       </c>
       <c r="E112">
-        <v>34892000000</v>
+        <v>-2023000000</v>
       </c>
       <c r="F112">
-        <v>38371000000</v>
+        <v>-1984000000</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B113">
-        <v>-5399000000</v>
+        <v>9842000000</v>
       </c>
       <c r="C113">
-        <v>331000000</v>
+        <v>11803000000</v>
       </c>
       <c r="D113">
-        <v>12885000000</v>
+        <v>12411000000</v>
       </c>
       <c r="E113">
-        <v>27882000000</v>
+        <v>12842000000</v>
       </c>
       <c r="F113">
-        <v>35209000000</v>
+        <v>12430000000</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B114">
-        <v>363000000</v>
+        <v>1536000000</v>
       </c>
       <c r="C114">
-        <v>54000000</v>
+        <v>1733000000</v>
       </c>
       <c r="D114">
-        <v>-361000000</v>
+        <v>1913000000</v>
       </c>
       <c r="E114">
-        <v>-143000000</v>
+        <v>1915000000</v>
       </c>
       <c r="F114">
-        <v>-670000000</v>
+        <v>1991000000</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B115">
-        <v>363000000</v>
+        <v>1504000000</v>
       </c>
       <c r="C115">
-        <v>54000000</v>
+        <v>1683000000</v>
       </c>
       <c r="D115">
-        <v>-361000000</v>
+        <v>1872000000</v>
       </c>
       <c r="E115">
-        <v>-143000000</v>
+        <v>2026000000</v>
       </c>
       <c r="F115">
-        <v>-670000000</v>
+        <v>2045000000</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B116">
-        <v>1454000000</v>
+        <v>1371000000</v>
       </c>
       <c r="C116">
-        <v>1394000000</v>
+        <v>1598000000</v>
       </c>
       <c r="D116">
-        <v>1194000000</v>
+        <v>1758000000</v>
       </c>
       <c r="E116">
-        <v>975000000</v>
+        <v>1852000000</v>
       </c>
       <c r="F116">
-        <v>767000000</v>
+        <v>1733000000</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B117">
-        <v>10220000000</v>
+        <v>1098000000</v>
       </c>
       <c r="C117">
-        <v>5380000000</v>
+        <v>1297000000</v>
       </c>
       <c r="D117">
-        <v>2045000000</v>
+        <v>1430000000</v>
       </c>
       <c r="E117">
-        <v>4657000000</v>
+        <v>1403000000</v>
       </c>
       <c r="F117">
-        <v>7878000000</v>
+        <v>1398000000</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B118">
-        <v>1818000000</v>
+        <v>985000000</v>
       </c>
       <c r="C118">
-        <v>1095000000</v>
+        <v>1087000000</v>
       </c>
       <c r="D118">
-        <v>1020000000</v>
+        <v>1177000000</v>
       </c>
       <c r="E118">
-        <v>1978000000</v>
+        <v>1215000000</v>
       </c>
       <c r="F118">
-        <v>2353000000</v>
+        <v>1223000000</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B119">
-        <v>1935000000</v>
+        <v>4740000000</v>
       </c>
       <c r="C119">
-        <v>2456000000</v>
+        <v>6055000000</v>
       </c>
       <c r="D119">
-        <v>685000000</v>
+        <v>5986000000</v>
       </c>
       <c r="E119">
-        <v>1667000000</v>
+        <v>6855000000</v>
       </c>
       <c r="F119">
-        <v>4116000000</v>
+        <v>6400000000</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B120">
-        <v>2406000000</v>
+        <v>-1392000000</v>
       </c>
       <c r="C120">
-        <v>1060000000</v>
+        <v>-1650000000</v>
       </c>
       <c r="D120">
-        <v>39000000</v>
+        <v>-1725000000</v>
       </c>
       <c r="E120">
-        <v>494000000</v>
+        <v>-2424000000</v>
       </c>
       <c r="F120">
-        <v>699000000</v>
+        <v>-2360000000</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B121">
-        <v>1851000000</v>
+        <v>211258000000</v>
       </c>
       <c r="C121">
-        <v>178000000</v>
+        <v>136522000000</v>
       </c>
       <c r="D121">
-        <v>35000000</v>
+        <v>132480000000</v>
       </c>
       <c r="E121">
-        <v>276000000</v>
+        <v>123930000000</v>
       </c>
       <c r="F121">
-        <v>243000000</v>
+        <v>119059000000</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B122">
-        <v>1979000000</v>
+        <v>70954000000</v>
       </c>
       <c r="C122">
-        <v>64000000</v>
+        <v>17316000000</v>
       </c>
       <c r="D122">
-        <v>25000000</v>
+        <v>23034000000</v>
       </c>
       <c r="E122">
-        <v>44000000</v>
+        <v>17843000000</v>
       </c>
       <c r="F122">
-        <v>95000000</v>
+        <v>22888000000</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B123">
-        <v>580000000</v>
+        <v>11073000000</v>
       </c>
       <c r="C123">
-        <v>527000000</v>
+        <v>13074000000</v>
       </c>
       <c r="D123">
-        <v>257000000</v>
+        <v>11782000000</v>
       </c>
       <c r="E123">
-        <v>224000000</v>
+        <v>12801000000</v>
       </c>
       <c r="F123">
-        <v>401000000</v>
+        <v>14387000000</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B124">
-        <v>-349000000</v>
+        <v>23268000000</v>
+      </c>
+      <c r="C124">
+        <v>11800000000</v>
       </c>
       <c r="D124">
-        <v>-16000000</v>
+        <v>12403000000</v>
       </c>
       <c r="E124">
-        <v>-26000000</v>
+        <v>14117000000</v>
       </c>
       <c r="F124">
-        <v>-29000000</v>
+        <v>11669000000</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B125">
-        <v>1468000000</v>
+        <v>11213000000</v>
       </c>
       <c r="C125">
-        <v>1492000000</v>
+        <v>12211000000</v>
       </c>
       <c r="D125">
-        <v>1054000000</v>
+        <v>12639000000</v>
       </c>
       <c r="E125">
-        <v>573000000</v>
+        <v>11189000000</v>
       </c>
       <c r="F125">
-        <v>335000000</v>
+        <v>9198000000</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B126">
-        <v>462000000</v>
+        <v>25315000000</v>
       </c>
       <c r="C126">
-        <v>587000000</v>
+        <v>12495000000</v>
       </c>
       <c r="D126">
-        <v>534000000</v>
+        <v>10808000000</v>
       </c>
       <c r="E126">
-        <v>418000000</v>
+        <v>9015000000</v>
       </c>
       <c r="F126">
-        <v>122000000</v>
+        <v>6376000000</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B127">
-        <v>446000000</v>
+        <v>69465000000</v>
       </c>
       <c r="C127">
-        <v>524000000</v>
+        <v>70620000000</v>
       </c>
       <c r="D127">
-        <v>387000000</v>
+        <v>65276000000</v>
       </c>
       <c r="E127">
-        <v>81000000</v>
+        <v>62858000000</v>
       </c>
       <c r="F127">
-        <v>84000000</v>
+        <v>57580000000</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" t="s">
+        <v>131</v>
+      </c>
+      <c r="B128">
+        <v>-30000000</v>
+      </c>
+      <c r="C128">
+        <v>-994000000</v>
+      </c>
+      <c r="D128">
+        <v>-3462000000</v>
+      </c>
+      <c r="E128">
+        <v>-3893000000</v>
+      </c>
+      <c r="F128">
+        <v>-3039000000</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
         <v>132</v>
       </c>
-      <c r="B128">
-        <v>412000000</v>
-      </c>
-      <c r="C128">
-        <v>381000000</v>
-      </c>
-      <c r="D128">
-        <v>122000000</v>
-      </c>
-      <c r="E128">
-        <v>57000000</v>
-      </c>
-      <c r="F128">
-        <v>69000000</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129" t="s">
+      <c r="B129">
+        <v>88980000000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
         <v>133</v>
       </c>
-      <c r="B129">
-        <v>299000000</v>
-      </c>
-      <c r="C129">
-        <v>102000000</v>
-      </c>
-      <c r="D129">
-        <v>52000000</v>
-      </c>
-      <c r="E129">
-        <v>38000000</v>
-      </c>
-      <c r="F129">
-        <v>27000000</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130" t="s">
+      <c r="B130">
+        <v>55672000000</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
         <v>134</v>
       </c>
-      <c r="B130">
-        <v>9000000</v>
-      </c>
-      <c r="C130">
-        <v>45000000</v>
-      </c>
-      <c r="D130">
-        <v>31000000</v>
-      </c>
-      <c r="E130">
-        <v>2000000</v>
-      </c>
-      <c r="F130">
-        <v>22000000</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131" t="s">
+      <c r="B131">
+        <v>10508000000</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
         <v>135</v>
       </c>
-      <c r="B131">
-        <v>7000000</v>
-      </c>
-      <c r="C131">
-        <v>9000000</v>
-      </c>
-      <c r="D131">
-        <v>4000000</v>
-      </c>
-      <c r="E131">
-        <v>4000000</v>
-      </c>
-      <c r="F131">
-        <v>45000000</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132" t="s">
+      <c r="B132">
+        <v>13416000000</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
         <v>136</v>
       </c>
-      <c r="B132">
-        <v>-167000000</v>
-      </c>
-      <c r="C132">
-        <v>-156000000</v>
-      </c>
-      <c r="D132">
-        <v>-76000000</v>
-      </c>
-      <c r="E132">
-        <v>-27000000</v>
-      </c>
-      <c r="F132">
-        <v>-34000000</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="A133" t="s">
+      <c r="B133">
+        <v>9384000000</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
         <v>137</v>
-      </c>
-      <c r="B133">
-        <v>1540000000</v>
-      </c>
-      <c r="C133">
-        <v>2039000000</v>
-      </c>
-      <c r="D133">
-        <v>2649000000</v>
-      </c>
-      <c r="E133">
-        <v>4343000000</v>
-      </c>
-      <c r="F133">
-        <v>5410000000</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134" t="s">
-        <v>138</v>
-      </c>
-      <c r="B134">
-        <v>366000000</v>
-      </c>
-      <c r="C134">
-        <v>458000000</v>
-      </c>
-      <c r="D134">
-        <v>610000000</v>
-      </c>
-      <c r="E134">
-        <v>892000000</v>
-      </c>
-      <c r="F134">
-        <v>1066000000</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135" t="s">
-        <v>139</v>
-      </c>
-      <c r="B135">
-        <v>327000000</v>
-      </c>
-      <c r="C135">
-        <v>412000000</v>
-      </c>
-      <c r="D135">
-        <v>558000000</v>
-      </c>
-      <c r="E135">
-        <v>831000000</v>
-      </c>
-      <c r="F135">
-        <v>958000000</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136" t="s">
-        <v>140</v>
-      </c>
-      <c r="B136">
-        <v>279000000</v>
-      </c>
-      <c r="C136">
-        <v>366000000</v>
-      </c>
-      <c r="D136">
-        <v>490000000</v>
-      </c>
-      <c r="E136">
-        <v>706000000</v>
-      </c>
-      <c r="F136">
-        <v>843000000</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="A137" t="s">
-        <v>141</v>
-      </c>
-      <c r="B137">
-        <v>245000000</v>
-      </c>
-      <c r="C137">
-        <v>319000000</v>
-      </c>
-      <c r="D137">
-        <v>383000000</v>
-      </c>
-      <c r="E137">
-        <v>603000000</v>
-      </c>
-      <c r="F137">
-        <v>742000000</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="A138" t="s">
-        <v>142</v>
-      </c>
-      <c r="B138">
-        <v>204000000</v>
-      </c>
-      <c r="C138">
-        <v>232000000</v>
-      </c>
-      <c r="D138">
-        <v>300000000</v>
-      </c>
-      <c r="E138">
-        <v>508000000</v>
-      </c>
-      <c r="F138">
-        <v>642000000</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
-      <c r="A139" t="s">
-        <v>143</v>
-      </c>
-      <c r="B139">
-        <v>425000000</v>
-      </c>
-      <c r="C139">
-        <v>595000000</v>
-      </c>
-      <c r="D139">
-        <v>805000000</v>
-      </c>
-      <c r="E139">
-        <v>1820000000</v>
-      </c>
-      <c r="F139">
-        <v>2428000000</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140" t="s">
-        <v>143</v>
-      </c>
-      <c r="B140">
-        <v>-306000000</v>
-      </c>
-      <c r="C140">
-        <v>-343000000</v>
-      </c>
-      <c r="D140">
-        <v>-497000000</v>
-      </c>
-      <c r="E140">
-        <v>-1017000000</v>
-      </c>
-      <c r="F140">
-        <v>-1269000000</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="A141" t="s">
-        <v>144</v>
-      </c>
-      <c r="B141">
-        <v>3008000000</v>
-      </c>
-      <c r="C141">
-        <v>3531000000</v>
-      </c>
-      <c r="D141">
-        <v>3703000000</v>
-      </c>
-      <c r="E141">
-        <v>4916000000</v>
-      </c>
-      <c r="F141">
-        <v>5745000000</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
-      <c r="A142" t="s">
-        <v>145</v>
-      </c>
-      <c r="B142">
-        <v>828000000</v>
-      </c>
-      <c r="C142">
-        <v>1045000000</v>
-      </c>
-      <c r="D142">
-        <v>1144000000</v>
-      </c>
-      <c r="E142">
-        <v>1310000000</v>
-      </c>
-      <c r="F142">
-        <v>1188000000</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
-      <c r="A143" t="s">
-        <v>146</v>
-      </c>
-      <c r="B143">
-        <v>773000000</v>
-      </c>
-      <c r="C143">
-        <v>936000000</v>
-      </c>
-      <c r="D143">
-        <v>945000000</v>
-      </c>
-      <c r="E143">
-        <v>912000000</v>
-      </c>
-      <c r="F143">
-        <v>1042000000</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="A144" t="s">
-        <v>147</v>
-      </c>
-      <c r="B144">
-        <v>691000000</v>
-      </c>
-      <c r="C144">
-        <v>747000000</v>
-      </c>
-      <c r="D144">
-        <v>612000000</v>
-      </c>
-      <c r="E144">
-        <v>763000000</v>
-      </c>
-      <c r="F144">
-        <v>912000000</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
-      <c r="A145" t="s">
-        <v>148</v>
-      </c>
-      <c r="B145">
-        <v>544000000</v>
-      </c>
-      <c r="C145">
-        <v>421000000</v>
-      </c>
-      <c r="D145">
-        <v>435000000</v>
-      </c>
-      <c r="E145">
-        <v>641000000</v>
-      </c>
-      <c r="F145">
-        <v>769000000</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
-      <c r="A146" t="s">
-        <v>149</v>
-      </c>
-      <c r="B146">
-        <v>213000000</v>
-      </c>
-      <c r="C146">
-        <v>277000000</v>
-      </c>
-      <c r="D146">
-        <v>331000000</v>
-      </c>
-      <c r="E146">
-        <v>510000000</v>
-      </c>
-      <c r="F146">
-        <v>664000000</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
-      <c r="A147" t="s">
-        <v>150</v>
-      </c>
-      <c r="B147">
-        <v>432000000</v>
-      </c>
-      <c r="C147">
-        <v>604000000</v>
-      </c>
-      <c r="D147">
-        <v>809000000</v>
-      </c>
-      <c r="E147">
-        <v>1824000000</v>
-      </c>
-      <c r="F147">
-        <v>2473000000</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
-      <c r="A148" t="s">
-        <v>151</v>
-      </c>
-      <c r="B148">
-        <v>-473000000</v>
-      </c>
-      <c r="C148">
-        <v>-499000000</v>
-      </c>
-      <c r="D148">
-        <v>-573000000</v>
-      </c>
-      <c r="E148">
-        <v>-1044000000</v>
-      </c>
-      <c r="F148">
-        <v>-1303000000</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
-      <c r="A149" t="s">
-        <v>152</v>
-      </c>
-      <c r="B149">
-        <v>31546000000</v>
-      </c>
-      <c r="C149">
-        <v>8911000000</v>
-      </c>
-      <c r="D149">
-        <v>5748000000</v>
-      </c>
-      <c r="E149">
-        <v>9573000000</v>
-      </c>
-      <c r="F149">
-        <v>13623000000</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
-      <c r="A150" t="s">
-        <v>153</v>
-      </c>
-      <c r="B150">
-        <v>13129000000</v>
-      </c>
-      <c r="C150">
-        <v>2140000000</v>
-      </c>
-      <c r="D150">
-        <v>2164000000</v>
-      </c>
-      <c r="E150">
-        <v>3288000000</v>
-      </c>
-      <c r="F150">
-        <v>3541000000</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
-      <c r="A151" t="s">
-        <v>154</v>
-      </c>
-      <c r="B151">
-        <v>5451000000</v>
-      </c>
-      <c r="C151">
-        <v>3392000000</v>
-      </c>
-      <c r="D151">
-        <v>1630000000</v>
-      </c>
-      <c r="E151">
-        <v>2579000000</v>
-      </c>
-      <c r="F151">
-        <v>5158000000</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
-      <c r="A152" t="s">
-        <v>155</v>
-      </c>
-      <c r="B152">
-        <v>5377000000</v>
-      </c>
-      <c r="C152">
-        <v>1807000000</v>
-      </c>
-      <c r="D152">
-        <v>651000000</v>
-      </c>
-      <c r="E152">
-        <v>1257000000</v>
-      </c>
-      <c r="F152">
-        <v>1611000000</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6">
-      <c r="A153" t="s">
-        <v>156</v>
-      </c>
-      <c r="B153">
-        <v>4272000000</v>
-      </c>
-      <c r="C153">
-        <v>599000000</v>
-      </c>
-      <c r="D153">
-        <v>470000000</v>
-      </c>
-      <c r="E153">
-        <v>917000000</v>
-      </c>
-      <c r="F153">
-        <v>1012000000</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
-      <c r="A154" t="s">
-        <v>157</v>
-      </c>
-      <c r="B154">
-        <v>3057000000</v>
-      </c>
-      <c r="C154">
-        <v>341000000</v>
-      </c>
-      <c r="D154">
-        <v>356000000</v>
-      </c>
-      <c r="E154">
-        <v>554000000</v>
-      </c>
-      <c r="F154">
-        <v>759000000</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6">
-      <c r="A155" t="s">
-        <v>158</v>
-      </c>
-      <c r="B155">
-        <v>1082000000</v>
-      </c>
-      <c r="C155">
-        <v>1131000000</v>
-      </c>
-      <c r="D155">
-        <v>1066000000</v>
-      </c>
-      <c r="E155">
-        <v>2048000000</v>
-      </c>
-      <c r="F155">
-        <v>2874000000</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6">
-      <c r="A156" t="s">
-        <v>159</v>
-      </c>
-      <c r="B156">
-        <v>-822000000</v>
-      </c>
-      <c r="C156">
-        <v>-499000000</v>
-      </c>
-      <c r="D156">
-        <v>-589000000</v>
-      </c>
-      <c r="E156">
-        <v>-1070000000</v>
-      </c>
-      <c r="F156">
-        <v>-1332000000</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
-      <c r="A157" t="s">
-        <v>160</v>
-      </c>
-      <c r="B157">
-        <v>18318000000</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6">
-      <c r="A158" t="s">
-        <v>161</v>
-      </c>
-      <c r="B158">
-        <v>10483000000</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6">
-      <c r="A159" t="s">
-        <v>162</v>
-      </c>
-      <c r="B159">
-        <v>2743000000</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
-      <c r="A160" t="s">
-        <v>163</v>
-      </c>
-      <c r="B160">
-        <v>2280000000</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2">
-      <c r="A161" t="s">
-        <v>164</v>
-      </c>
-      <c r="B161">
-        <v>1877000000</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2">
-      <c r="A162" t="s">
-        <v>165</v>
-      </c>
-      <c r="B162">
-        <v>865000000</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2">
-      <c r="A163" t="s">
-        <v>166</v>
-      </c>
-      <c r="B163">
-        <v>70000000</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2">
-      <c r="A164" t="s">
-        <v>167</v>
       </c>
     </row>
   </sheetData>
